--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\eps-us-2.1.0\eps-us-2.1.0\InputData\bldgs\BDEQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS India 2.1 - Input Data Revisions_17Mar2020\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36BE293-F3C4-4123-BC35-70C7819BB62E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B403BE09-F676-43C4-990E-CFCD5AAD8E14}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="670" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
   <externalReferences>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="INRLac">[1]Conversions!$E$113</definedName>
@@ -315,7 +314,7 @@
     <t>Distributed Rooftop PV Capacity Factor projections</t>
   </si>
   <si>
-    <t>See variable "DSCF" for more info</t>
+    <t>See variable "bldgs/DSCF" for more info</t>
   </si>
 </sst>
 </file>
@@ -879,130 +878,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="India Data"/>
-      <sheetName val="JNNSM Performance data"/>
-      <sheetName val="DSCF"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="15">
-          <cell r="B15">
-            <v>0.17907500000000001</v>
-          </cell>
-          <cell r="C15">
-            <v>0.18271666666666686</v>
-          </cell>
-          <cell r="D15">
-            <v>0.18635833333333363</v>
-          </cell>
-          <cell r="E15">
-            <v>0.19</v>
-          </cell>
-          <cell r="F15">
-            <v>0.1915566666666666</v>
-          </cell>
-          <cell r="G15">
-            <v>0.19311333333333325</v>
-          </cell>
-          <cell r="H15">
-            <v>0.1946699999999999</v>
-          </cell>
-          <cell r="I15">
-            <v>0.19622666666666655</v>
-          </cell>
-          <cell r="J15">
-            <v>0.1977833333333332</v>
-          </cell>
-          <cell r="K15">
-            <v>0.19933999999999985</v>
-          </cell>
-          <cell r="L15">
-            <v>0.2008966666666665</v>
-          </cell>
-          <cell r="M15">
-            <v>0.20245333333333315</v>
-          </cell>
-          <cell r="N15">
-            <v>0.2040099999999998</v>
-          </cell>
-          <cell r="O15">
-            <v>0.20556666666666645</v>
-          </cell>
-          <cell r="P15">
-            <v>0.2071233333333331</v>
-          </cell>
-          <cell r="Q15">
-            <v>0.20867999999999975</v>
-          </cell>
-          <cell r="R15">
-            <v>0.21023666666666641</v>
-          </cell>
-          <cell r="S15">
-            <v>0.21179333333333306</v>
-          </cell>
-          <cell r="T15">
-            <v>0.21335000000000015</v>
-          </cell>
-          <cell r="U15">
-            <v>0.2149066666666668</v>
-          </cell>
-          <cell r="V15">
-            <v>0.21646333333333345</v>
-          </cell>
-          <cell r="W15">
-            <v>0.2180200000000001</v>
-          </cell>
-          <cell r="X15">
-            <v>0.21957666666666675</v>
-          </cell>
-          <cell r="Y15">
-            <v>0.2211333333333334</v>
-          </cell>
-          <cell r="Z15">
-            <v>0.22269000000000005</v>
-          </cell>
-          <cell r="AA15">
-            <v>0.22424666666666671</v>
-          </cell>
-          <cell r="AB15">
-            <v>0.22580333333333336</v>
-          </cell>
-          <cell r="AC15">
-            <v>0.22736000000000001</v>
-          </cell>
-          <cell r="AD15">
-            <v>0.22891666666666666</v>
-          </cell>
-          <cell r="AE15">
-            <v>0.23047333333333331</v>
-          </cell>
-          <cell r="AF15">
-            <v>0.23202999999999996</v>
-          </cell>
-          <cell r="AG15">
-            <v>0.23358666666666661</v>
-          </cell>
-          <cell r="AH15">
-            <v>0.23514333333333326</v>
-          </cell>
-          <cell r="AI15">
-            <v>0.23669999999999991</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1326,9 +1201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5559,8 +5432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1F61ED-AF7C-4F59-9C08-053979BDBD25}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5678,139 +5551,105 @@
         <v>85</v>
       </c>
       <c r="B2" s="45">
-        <f>'[3]India Data'!B15</f>
         <v>0.17907500000000001</v>
       </c>
       <c r="C2" s="45">
-        <f>'[3]India Data'!C15</f>
         <v>0.18271666666666686</v>
       </c>
       <c r="D2" s="45">
-        <f>'[3]India Data'!D15</f>
         <v>0.18635833333333363</v>
       </c>
       <c r="E2" s="45">
-        <f>'[3]India Data'!E15</f>
         <v>0.19</v>
       </c>
       <c r="F2" s="45">
-        <f>'[3]India Data'!F15</f>
         <v>0.1915566666666666</v>
       </c>
       <c r="G2" s="45">
-        <f>'[3]India Data'!G15</f>
         <v>0.19311333333333325</v>
       </c>
       <c r="H2" s="45">
-        <f>'[3]India Data'!H15</f>
         <v>0.1946699999999999</v>
       </c>
       <c r="I2" s="45">
-        <f>'[3]India Data'!I15</f>
         <v>0.19622666666666655</v>
       </c>
       <c r="J2" s="45">
-        <f>'[3]India Data'!J15</f>
         <v>0.1977833333333332</v>
       </c>
       <c r="K2" s="45">
-        <f>'[3]India Data'!K15</f>
         <v>0.19933999999999985</v>
       </c>
       <c r="L2" s="45">
-        <f>'[3]India Data'!L15</f>
         <v>0.2008966666666665</v>
       </c>
       <c r="M2" s="45">
-        <f>'[3]India Data'!M15</f>
         <v>0.20245333333333315</v>
       </c>
       <c r="N2" s="45">
-        <f>'[3]India Data'!N15</f>
         <v>0.2040099999999998</v>
       </c>
       <c r="O2" s="45">
-        <f>'[3]India Data'!O15</f>
         <v>0.20556666666666645</v>
       </c>
       <c r="P2" s="45">
-        <f>'[3]India Data'!P15</f>
         <v>0.2071233333333331</v>
       </c>
       <c r="Q2" s="45">
-        <f>'[3]India Data'!Q15</f>
         <v>0.20867999999999975</v>
       </c>
       <c r="R2" s="45">
-        <f>'[3]India Data'!R15</f>
         <v>0.21023666666666641</v>
       </c>
       <c r="S2" s="45">
-        <f>'[3]India Data'!S15</f>
         <v>0.21179333333333306</v>
       </c>
       <c r="T2" s="45">
-        <f>'[3]India Data'!T15</f>
         <v>0.21335000000000015</v>
       </c>
       <c r="U2" s="45">
-        <f>'[3]India Data'!U15</f>
         <v>0.2149066666666668</v>
       </c>
       <c r="V2" s="45">
-        <f>'[3]India Data'!V15</f>
         <v>0.21646333333333345</v>
       </c>
       <c r="W2" s="45">
-        <f>'[3]India Data'!W15</f>
         <v>0.2180200000000001</v>
       </c>
       <c r="X2" s="45">
-        <f>'[3]India Data'!X15</f>
         <v>0.21957666666666675</v>
       </c>
       <c r="Y2" s="45">
-        <f>'[3]India Data'!Y15</f>
         <v>0.2211333333333334</v>
       </c>
       <c r="Z2" s="45">
-        <f>'[3]India Data'!Z15</f>
         <v>0.22269000000000005</v>
       </c>
       <c r="AA2" s="45">
-        <f>'[3]India Data'!AA15</f>
         <v>0.22424666666666671</v>
       </c>
       <c r="AB2" s="45">
-        <f>'[3]India Data'!AB15</f>
         <v>0.22580333333333336</v>
       </c>
       <c r="AC2" s="45">
-        <f>'[3]India Data'!AC15</f>
         <v>0.22736000000000001</v>
       </c>
       <c r="AD2" s="45">
-        <f>'[3]India Data'!AD15</f>
         <v>0.22891666666666666</v>
       </c>
       <c r="AE2" s="45">
-        <f>'[3]India Data'!AE15</f>
         <v>0.23047333333333331</v>
       </c>
       <c r="AF2" s="45">
-        <f>'[3]India Data'!AF15</f>
         <v>0.23202999999999996</v>
       </c>
       <c r="AG2" s="45">
-        <f>'[3]India Data'!AG15</f>
         <v>0.23358666666666661</v>
       </c>
       <c r="AH2" s="45">
-        <f>'[3]India Data'!AH15</f>
         <v>0.23514333333333326</v>
       </c>
       <c r="AI2" s="45">
-        <f>'[3]India Data'!AI15</f>
         <v>0.23669999999999991</v>
       </c>
     </row>

--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\bldgs\BDEQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050CCBB2-5CA7-48DE-951B-59047B0F4BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="5850" tabRatio="670"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="670" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,22 +31,25 @@
     <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BTU_per_GWh">'[3]Conversion Factors'!$A$3</definedName>
-    <definedName name="BTU_per_PJ">'[3]Conversion Factors'!$A$6</definedName>
-    <definedName name="BTU_per_thousand_tons_kerosene">'[3]Conversion Factors'!$A$21</definedName>
-    <definedName name="BTU_per_thousand_tons_LPG">'[3]Conversion Factors'!$A$14</definedName>
-    <definedName name="INRLac">[1]Conversions!$E$113</definedName>
-    <definedName name="plantsize.iv.a">'[2]India Data'!$E$99</definedName>
-    <definedName name="Preferences.PowerUnits">[1]Preferences!$C$5</definedName>
-    <definedName name="Unit.kW">[1]Conversions!$F$57</definedName>
-    <definedName name="Unit.MW">[1]Conversions!$F$56</definedName>
+    <definedName name="BTU_per_GWh">'[1]Conversion Factors'!$A$3</definedName>
+    <definedName name="BTU_per_PJ">'[1]Conversion Factors'!$A$6</definedName>
+    <definedName name="BTU_per_thousand_tons_kerosene">'[1]Conversion Factors'!$A$21</definedName>
+    <definedName name="BTU_per_thousand_tons_LPG">'[1]Conversion Factors'!$A$14</definedName>
+    <definedName name="INRLac">[2]Conversions!$E$113</definedName>
+    <definedName name="plantsize.iv.a">'[3]India Data'!$E$99</definedName>
+    <definedName name="Preferences.PowerUnits">[2]Preferences!$C$5</definedName>
+    <definedName name="Unit.kW">[2]Conversions!$F$57</definedName>
+    <definedName name="Unit.MW">[2]Conversions!$F$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -379,11 +383,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;_);@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -695,7 +700,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -811,22 +816,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="A - bold" xfId="10"/>
-    <cellStyle name="A - bottom border" xfId="13"/>
-    <cellStyle name="A - header 2 2" xfId="12"/>
-    <cellStyle name="A - normal" xfId="11"/>
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="A - bold" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="A - bottom border" xfId="13" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="A - header 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="A - normal" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Percent" xfId="9" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,6 +848,86 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Building Projections"/>
+      <sheetName val="Elec Use"/>
+      <sheetName val="Elec Breakdown"/>
+      <sheetName val="LPG, Kerosene, Diesel Use"/>
+      <sheetName val="Activity Data"/>
+      <sheetName val="Summed Activity Data"/>
+      <sheetName val="Biomass Use"/>
+      <sheetName val="Conversion Factors"/>
+      <sheetName val="BCEU-urban-residential-heating"/>
+      <sheetName val="BCEU-urban-residential-cooling"/>
+      <sheetName val="BCEU-urban-residential-lighting"/>
+      <sheetName val="BCEU-urban-residential-appl"/>
+      <sheetName val="BCEU-urban-residential-other"/>
+      <sheetName val="BCEU-rural-residential-heating"/>
+      <sheetName val="BCEU-rural-residential-cooling"/>
+      <sheetName val="BCEU-rural-residential-lighting"/>
+      <sheetName val="BCEU-rural-residential-appl"/>
+      <sheetName val="BCEU-rural-residential-other"/>
+      <sheetName val="BCEU-commercial-heating"/>
+      <sheetName val="BCEU-commercial-cooling"/>
+      <sheetName val="BCEU-commercial-lighting"/>
+      <sheetName val="BCEU-commercial-appl"/>
+      <sheetName val="BCEU-commercial-other"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="3">
+          <cell r="A3">
+            <v>3412140000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>947817120000</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>44812071000</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>41441251500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -996,7 +1082,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1012,86 +1098,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Building Projections"/>
-      <sheetName val="Elec Use"/>
-      <sheetName val="Elec Breakdown"/>
-      <sheetName val="LPG, Kerosene, Diesel Use"/>
-      <sheetName val="Activity Data"/>
-      <sheetName val="Summed Activity Data"/>
-      <sheetName val="Biomass Use"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="BCEU-urban-residential-heating"/>
-      <sheetName val="BCEU-urban-residential-cooling"/>
-      <sheetName val="BCEU-urban-residential-lighting"/>
-      <sheetName val="BCEU-urban-residential-appl"/>
-      <sheetName val="BCEU-urban-residential-other"/>
-      <sheetName val="BCEU-rural-residential-heating"/>
-      <sheetName val="BCEU-rural-residential-cooling"/>
-      <sheetName val="BCEU-rural-residential-lighting"/>
-      <sheetName val="BCEU-rural-residential-appl"/>
-      <sheetName val="BCEU-rural-residential-other"/>
-      <sheetName val="BCEU-commercial-heating"/>
-      <sheetName val="BCEU-commercial-cooling"/>
-      <sheetName val="BCEU-commercial-lighting"/>
-      <sheetName val="BCEU-commercial-appl"/>
-      <sheetName val="BCEU-commercial-other"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="3">
-          <cell r="A3">
-            <v>3412140000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>947817120000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>44812071000</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>41441251500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1173,6 +1179,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1208,6 +1231,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1383,30 +1423,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="72.86328125" customWidth="1"/>
-    <col min="5" max="5" width="55.86328125" customWidth="1"/>
+    <col min="2" max="2" width="72.77734375" customWidth="1"/>
+    <col min="5" max="5" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1418,7 +1458,7 @@
       </c>
       <c r="G4" s="49"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -1427,14 +1467,14 @@
       </c>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2015</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1443,7 +1483,7 @@
       </c>
       <c r="G7" s="50"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
         <v>44</v>
       </c>
@@ -1452,7 +1492,7 @@
       </c>
       <c r="G8" s="57"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1461,12 +1501,12 @@
       </c>
       <c r="G9" s="50"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
@@ -1474,7 +1514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1482,123 +1522,123 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E17" s="47"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -1606,23 +1646,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:AI17"/>
+      <selection activeCell="B2" sqref="B2:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1729,7 +1769,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2157,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2264,148 +2304,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="40">
         <f>'India Dist Solar PV Data'!B46</f>
-        <v>61.142101844954055</v>
+        <v>57.341344870390998</v>
       </c>
       <c r="C7" s="40">
         <f>'India Dist Solar PV Data'!C46</f>
-        <v>75.186708517890111</v>
+        <v>70.435762299638327</v>
       </c>
       <c r="D7" s="40">
         <f>'India Dist Solar PV Data'!D46</f>
-        <v>159.45625595003321</v>
+        <v>141.29147107945528</v>
       </c>
       <c r="E7" s="40">
         <f>'India Dist Solar PV Data'!E46</f>
-        <v>243.72580338214789</v>
+        <v>212.14717985930065</v>
       </c>
       <c r="F7" s="40">
         <f>'India Dist Solar PV Data'!F46</f>
-        <v>327.99535081429099</v>
+        <v>283.0028886391176</v>
       </c>
       <c r="G7" s="40">
         <f>'India Dist Solar PV Data'!G46</f>
-        <v>412.26489824643409</v>
+        <v>353.85859741896297</v>
       </c>
       <c r="H7" s="40">
         <f>'India Dist Solar PV Data'!H46</f>
-        <v>496.53444567857719</v>
+        <v>424.71430619877992</v>
       </c>
       <c r="I7" s="40">
         <f>'India Dist Solar PV Data'!I46</f>
-        <v>582.54175330174007</v>
+        <v>430.433763010468</v>
       </c>
       <c r="J7" s="40">
         <f>'India Dist Solar PV Data'!J46</f>
-        <v>668.54906092493138</v>
+        <v>436.15321982211873</v>
       </c>
       <c r="K7" s="40">
         <f>'India Dist Solar PV Data'!K46</f>
-        <v>754.55636854809427</v>
+        <v>441.87267663376952</v>
       </c>
       <c r="L7" s="40">
         <f>'India Dist Solar PV Data'!L46</f>
-        <v>840.56367617128558</v>
+        <v>447.59213344542025</v>
       </c>
       <c r="M7" s="40">
         <f>'India Dist Solar PV Data'!M46</f>
-        <v>926.57098379444847</v>
+        <v>453.31159025707103</v>
       </c>
       <c r="N7" s="40">
         <f>'India Dist Solar PV Data'!N46</f>
-        <v>1063.0859641195229</v>
+        <v>519.65036200166992</v>
       </c>
       <c r="O7" s="40">
         <f>'India Dist Solar PV Data'!O46</f>
-        <v>1199.600944444569</v>
+        <v>585.98913374623862</v>
       </c>
       <c r="P7" s="40">
         <f>'India Dist Solar PV Data'!P46</f>
-        <v>1336.1159247695582</v>
+        <v>652.32790549080732</v>
       </c>
       <c r="Q7" s="40">
         <f>'India Dist Solar PV Data'!Q46</f>
-        <v>1472.6309050946043</v>
+        <v>718.66667723537603</v>
       </c>
       <c r="R7" s="40">
         <f>'India Dist Solar PV Data'!R46</f>
-        <v>1609.1458854196503</v>
+        <v>785.00544897994473</v>
       </c>
       <c r="S7" s="40">
         <f>'India Dist Solar PV Data'!S46</f>
-        <v>1774.4152799870676</v>
+        <v>871.35378149741882</v>
       </c>
       <c r="T7" s="40">
         <f>'India Dist Solar PV Data'!T46</f>
-        <v>1939.6846745544281</v>
+        <v>957.70211401492134</v>
       </c>
       <c r="U7" s="40">
         <f>'India Dist Solar PV Data'!U46</f>
-        <v>2104.9540691218454</v>
+        <v>1044.0504465324238</v>
       </c>
       <c r="V7" s="40">
         <f>'India Dist Solar PV Data'!V46</f>
-        <v>2270.2234636892626</v>
+        <v>1130.3987790499264</v>
       </c>
       <c r="W7" s="40">
         <f>'India Dist Solar PV Data'!W46</f>
-        <v>2435.4928582566231</v>
+        <v>1216.7471115674289</v>
       </c>
       <c r="X7" s="40">
         <f>'India Dist Solar PV Data'!X46</f>
-        <v>2712.7163711567164</v>
+        <v>1285.4600508660212</v>
       </c>
       <c r="Y7" s="40">
         <f>'India Dist Solar PV Data'!Y46</f>
-        <v>2989.9398840568665</v>
+        <v>1354.1729901646136</v>
       </c>
       <c r="Z7" s="40">
         <f>'India Dist Solar PV Data'!Z46</f>
-        <v>3267.1633969570166</v>
+        <v>1422.8859294632343</v>
       </c>
       <c r="AA7" s="40">
         <f>'India Dist Solar PV Data'!AA46</f>
-        <v>3544.3869098572804</v>
+        <v>1491.5988687618267</v>
       </c>
       <c r="AB7" s="40">
         <f>'India Dist Solar PV Data'!AB46</f>
-        <v>3821.6104227574306</v>
+        <v>1560.3118080604474</v>
       </c>
       <c r="AC7" s="40">
         <f>'India Dist Solar PV Data'!AC46</f>
-        <v>4054.9560670320943</v>
+        <v>1585.5023393821668</v>
       </c>
       <c r="AD7" s="40">
         <f>'India Dist Solar PV Data'!AD46</f>
-        <v>4288.3017113067017</v>
+        <v>1610.6928707039003</v>
       </c>
       <c r="AE7" s="40">
         <f>'India Dist Solar PV Data'!AE46</f>
-        <v>4521.6473555812518</v>
+        <v>1635.8834020256409</v>
       </c>
       <c r="AF7" s="40">
         <f>'India Dist Solar PV Data'!AF46</f>
-        <v>4754.9929998558582</v>
+        <v>1661.0739333473746</v>
       </c>
       <c r="AG7" s="40">
         <f>'India Dist Solar PV Data'!AG46</f>
-        <v>4988.3386441304647</v>
+        <v>1686.2644646691151</v>
       </c>
       <c r="AH7" s="40">
         <f>'India Dist Solar PV Data'!AH46</f>
-        <v>5221.684288405072</v>
+        <v>1711.4549959908486</v>
       </c>
       <c r="AI7" s="40">
         <f>'India Dist Solar PV Data'!AI46</f>
-        <v>5455.0299326796794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>1736.6455273125823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2833,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2940,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3154,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -3261,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3368,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3481,23 +3521,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AI11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -3604,7 +3644,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3711,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3925,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4139,148 +4179,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="40">
         <f>'India Dist Solar PV Data'!B47</f>
-        <v>273.58010175191794</v>
+        <v>256.56178694043774</v>
       </c>
       <c r="C7" s="40">
         <f>'India Dist Solar PV Data'!C47</f>
-        <v>336.65690381133118</v>
+        <v>315.38401029695251</v>
       </c>
       <c r="D7" s="40">
         <f>'India Dist Solar PV Data'!D47</f>
-        <v>734.82656587270867</v>
+        <v>650.47687029891677</v>
       </c>
       <c r="E7" s="40">
         <f>'India Dist Solar PV Data'!E47</f>
-        <v>1132.9962279340862</v>
+        <v>985.56973030099471</v>
       </c>
       <c r="F7" s="40">
         <f>'India Dist Solar PV Data'!F47</f>
-        <v>1531.1658899954637</v>
+        <v>1320.662590302959</v>
       </c>
       <c r="G7" s="40">
         <f>'India Dist Solar PV Data'!G47</f>
-        <v>1929.3355520568412</v>
+        <v>1655.7554503049232</v>
       </c>
       <c r="H7" s="40">
         <f>'India Dist Solar PV Data'!H47</f>
-        <v>2327.5052141182186</v>
+        <v>1990.8483103070012</v>
       </c>
       <c r="I7" s="40">
         <f>'India Dist Solar PV Data'!I47</f>
-        <v>2773.3854668300637</v>
+        <v>2038.558900957426</v>
       </c>
       <c r="J7" s="40">
         <f>'India Dist Solar PV Data'!J47</f>
-        <v>3219.2657195419088</v>
+        <v>2086.2694916079081</v>
       </c>
       <c r="K7" s="40">
         <f>'India Dist Solar PV Data'!K47</f>
-        <v>3665.1459722537538</v>
+        <v>2133.9800822583898</v>
       </c>
       <c r="L7" s="40">
         <f>'India Dist Solar PV Data'!L47</f>
-        <v>4111.0262249657126</v>
+        <v>2181.6906729088714</v>
       </c>
       <c r="M7" s="40">
         <f>'India Dist Solar PV Data'!M47</f>
-        <v>4556.9064776775576</v>
+        <v>2229.4012635593531</v>
       </c>
       <c r="N7" s="40">
         <f>'India Dist Solar PV Data'!N47</f>
-        <v>5310.158856713997</v>
+        <v>2595.5956132405618</v>
       </c>
       <c r="O7" s="40">
         <f>'India Dist Solar PV Data'!O47</f>
-        <v>6063.4112357506638</v>
+        <v>2961.7899629216708</v>
       </c>
       <c r="P7" s="40">
         <f>'India Dist Solar PV Data'!P47</f>
-        <v>6816.6636147871031</v>
+        <v>3327.9843126027799</v>
       </c>
       <c r="Q7" s="40">
         <f>'India Dist Solar PV Data'!Q47</f>
-        <v>7569.9159938235425</v>
+        <v>3694.1786622840027</v>
       </c>
       <c r="R7" s="40">
         <f>'India Dist Solar PV Data'!R47</f>
-        <v>8323.1683728599819</v>
+        <v>4060.3730119651118</v>
       </c>
       <c r="S7" s="40">
         <f>'India Dist Solar PV Data'!S47</f>
-        <v>9315.4359982045207</v>
+        <v>4575.658894918206</v>
       </c>
       <c r="T7" s="40">
         <f>'India Dist Solar PV Data'!T47</f>
-        <v>10307.703623548832</v>
+        <v>5090.9447778715275</v>
       </c>
       <c r="U7" s="40">
         <f>'India Dist Solar PV Data'!U47</f>
-        <v>11299.971248892916</v>
+        <v>5606.2306608246217</v>
       </c>
       <c r="V7" s="40">
         <f>'India Dist Solar PV Data'!V47</f>
-        <v>12292.238874237228</v>
+        <v>6121.5165437779433</v>
       </c>
       <c r="W7" s="40">
         <f>'India Dist Solar PV Data'!W47</f>
-        <v>13284.506499581539</v>
+        <v>6636.8024267312649</v>
       </c>
       <c r="X7" s="40">
         <f>'India Dist Solar PV Data'!X47</f>
-        <v>15037.155687462018</v>
+        <v>7109.8017199162769</v>
       </c>
       <c r="Y7" s="40">
         <f>'India Dist Solar PV Data'!Y47</f>
-        <v>16789.804875342725</v>
+        <v>7582.8010131012888</v>
       </c>
       <c r="Z7" s="40">
         <f>'India Dist Solar PV Data'!Z47</f>
-        <v>18542.454063223886</v>
+        <v>8055.8003062863008</v>
       </c>
       <c r="AA7" s="40">
         <f>'India Dist Solar PV Data'!AA47</f>
-        <v>20295.103251104592</v>
+        <v>8528.7995994713128</v>
       </c>
       <c r="AB7" s="40">
         <f>'India Dist Solar PV Data'!AB47</f>
-        <v>22047.752438985299</v>
+        <v>9001.7988926563248</v>
       </c>
       <c r="AC7" s="40">
         <f>'India Dist Solar PV Data'!AC47</f>
-        <v>23746.371719510989</v>
+        <v>9266.2527443321778</v>
       </c>
       <c r="AD7" s="40">
         <f>'India Dist Solar PV Data'!AD47</f>
-        <v>25444.991000037135</v>
+        <v>9530.7065960079162</v>
       </c>
       <c r="AE7" s="40">
         <f>'India Dist Solar PV Data'!AE47</f>
-        <v>27143.610280562825</v>
+        <v>9795.1604476837711</v>
       </c>
       <c r="AF7" s="40">
         <f>'India Dist Solar PV Data'!AF47</f>
-        <v>28842.229561088971</v>
+        <v>10059.614299359622</v>
       </c>
       <c r="AG7" s="40">
         <f>'India Dist Solar PV Data'!AG47</f>
-        <v>30540.848841614661</v>
+        <v>10324.068151035362</v>
       </c>
       <c r="AH7" s="40">
         <f>'India Dist Solar PV Data'!AH47</f>
-        <v>32239.468122140806</v>
+        <v>10588.522002711215</v>
       </c>
       <c r="AI7" s="40">
         <f>'India Dist Solar PV Data'!AI47</f>
-        <v>33938.087402666948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>10852.975854387068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4387,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4494,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4601,109 +4641,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <f>'Back up generators'!B19</f>
-        <v>19252.513446007924</v>
+        <v>18424.505025812778</v>
       </c>
       <c r="C11" s="3">
         <f>'Back up generators'!C19</f>
-        <v>20372.361501590603</v>
+        <v>19247.058613296758</v>
       </c>
       <c r="D11" s="3">
         <f>'Back up generators'!D19</f>
-        <v>21492.209557173283</v>
+        <v>20069.612200780739</v>
       </c>
       <c r="E11" s="3">
         <f>'Back up generators'!E19</f>
-        <v>22612.057612755962</v>
+        <v>20892.165788264494</v>
       </c>
       <c r="F11" s="3">
         <f>'Back up generators'!F19</f>
-        <v>23731.905668338641</v>
+        <v>21714.719375748471</v>
       </c>
       <c r="G11" s="3">
         <f>'Back up generators'!G19</f>
-        <v>24851.753723921775</v>
+        <v>22537.272963232455</v>
       </c>
       <c r="H11" s="3">
         <f>'Back up generators'!H19</f>
-        <v>25417.882251394985</v>
+        <v>22722.369142467698</v>
       </c>
       <c r="I11" s="3">
         <f>'Back up generators'!I19</f>
-        <v>25984.010778868425</v>
+        <v>22907.465321703115</v>
       </c>
       <c r="J11" s="3">
         <f>'Back up generators'!J19</f>
-        <v>26550.139306342091</v>
+        <v>23092.561500938587</v>
       </c>
       <c r="K11" s="3">
         <f>'Back up generators'!K19</f>
-        <v>27116.267833815527</v>
+        <v>23277.657680174001</v>
       </c>
       <c r="L11" s="3">
         <f>'Back up generators'!L19</f>
-        <v>27682.396361288964</v>
+        <v>23462.753859409419</v>
       </c>
       <c r="M11" s="3">
         <f>'Back up generators'!M19</f>
-        <v>27415.48646335832</v>
+        <v>22918.550305111465</v>
       </c>
       <c r="N11" s="3">
         <f>'Back up generators'!N19</f>
-        <v>27148.576565427789</v>
+        <v>22374.346750813631</v>
       </c>
       <c r="O11" s="3">
         <f>'Back up generators'!O19</f>
-        <v>26881.666667497258</v>
+        <v>21830.143196515564</v>
       </c>
       <c r="P11" s="3">
         <f>'Back up generators'!P19</f>
-        <v>26614.756769566724</v>
+        <v>21285.939642217727</v>
       </c>
       <c r="Q11" s="3">
         <f>'Back up generators'!Q19</f>
-        <v>26347.846871636193</v>
+        <v>20741.736087919664</v>
       </c>
       <c r="R11" s="3">
         <f>'Back up generators'!R19</f>
-        <v>24917.095913650883</v>
+        <v>19449.608047051242</v>
       </c>
       <c r="S11" s="3">
         <f>'Back up generators'!S19</f>
-        <v>23486.344955665118</v>
+        <v>18157.480006182595</v>
       </c>
       <c r="T11" s="3">
         <f>'Back up generators'!T19</f>
-        <v>22055.593997679807</v>
+        <v>16865.351965313948</v>
       </c>
       <c r="U11" s="3">
         <f>'Back up generators'!U19</f>
-        <v>20624.843039694497</v>
+        <v>15573.223924445301</v>
       </c>
       <c r="V11" s="3">
         <f>'Back up generators'!V19</f>
-        <v>19194.092081708732</v>
+        <v>14281.095883576199</v>
       </c>
       <c r="W11" s="3">
         <f>'Back up generators'!W19</f>
-        <v>15355.27366536644</v>
+        <v>11424.876706861141</v>
       </c>
       <c r="X11" s="3">
         <f>'Back up generators'!X19</f>
-        <v>11516.455249025057</v>
+        <v>8568.6575301460834</v>
       </c>
       <c r="Y11" s="3">
         <f>'Back up generators'!Y19</f>
-        <v>7677.6368326836746</v>
+        <v>5712.4383534310255</v>
       </c>
       <c r="Z11" s="3">
         <f>'Back up generators'!Z19</f>
-        <v>3838.8184163413825</v>
+        <v>2856.219176715058</v>
       </c>
       <c r="AA11" s="3">
         <f>'Back up generators'!AA19</f>
@@ -4742,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4849,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4956,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5063,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -5170,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -5277,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -5390,20 +5430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -5419,7 +5459,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5435,7 +5475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -5473,7 +5513,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5486,28 +5526,28 @@
         <v>3.3019625167785477E-2</v>
       </c>
       <c r="F4" s="12">
-        <v>0.43546359308148397</v>
+        <v>0.40244396791369852</v>
       </c>
       <c r="G4" s="12">
-        <v>1.2042453571947989</v>
+        <v>0.768781764113315</v>
       </c>
       <c r="H4" s="12">
-        <v>2.3577319765503102</v>
+        <v>1.1534866193555111</v>
       </c>
       <c r="I4" s="12">
-        <v>3.4521974720521285</v>
+        <v>1.4638898382477312</v>
       </c>
       <c r="J4" s="12">
-        <v>5.1835556400122051</v>
+        <v>2.0976959641596928</v>
       </c>
       <c r="K4" s="12">
-        <v>7.1624880356713225</v>
+        <v>2.3636372509013137</v>
       </c>
       <c r="L4" s="12">
-        <v>9.3040770775885271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>2.4519922608094245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -5520,28 +5560,28 @@
         <v>3.3019625167785477E-2</v>
       </c>
       <c r="F5" s="12">
-        <v>0.52255631169778083</v>
+        <v>0.48953668652999538</v>
       </c>
       <c r="G5" s="12">
-        <v>3.612736071584397</v>
+        <v>3.0901797598866163</v>
       </c>
       <c r="H5" s="12">
-        <v>7.0731959296509297</v>
+        <v>3.4604598580665327</v>
       </c>
       <c r="I5" s="12">
-        <v>12.919159290430937</v>
+        <v>6.3024804221422164</v>
       </c>
       <c r="J5" s="12">
-        <v>20.620110981112106</v>
+        <v>10.301594764037791</v>
       </c>
       <c r="K5" s="12">
-        <v>34.222355357369658</v>
+        <v>13.972524474437467</v>
       </c>
       <c r="L5" s="12">
-        <v>47.405275656367941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>16.024940863073965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -5554,28 +5594,28 @@
         <v>3.3019625167785477E-2</v>
       </c>
       <c r="F6" s="12">
-        <v>1.7418543723259361</v>
+        <v>1.7088347471581506</v>
       </c>
       <c r="G6" s="12">
-        <v>7.225472143168794</v>
+        <v>5.4836177708428577</v>
       </c>
       <c r="H6" s="12">
-        <v>14.146391859301859</v>
+        <v>6.9209197161330653</v>
       </c>
       <c r="I6" s="12">
-        <v>26.986348488994949</v>
+        <v>14.515771751683454</v>
       </c>
       <c r="J6" s="12">
-        <v>45.455534753361441</v>
+        <v>22.243969288051201</v>
       </c>
       <c r="K6" s="12">
-        <v>75.941650207625202</v>
+        <v>31.923417399553962</v>
       </c>
       <c r="L6" s="12">
-        <v>110.75829959794987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>42.411501425875059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -5588,43 +5628,43 @@
         <v>3.3019625167785477E-2</v>
       </c>
       <c r="F7" s="12">
-        <v>15.241225757851941</v>
+        <v>15.208206132684156</v>
       </c>
       <c r="G7" s="12">
-        <v>36.12736071584397</v>
+        <v>20.886134957992027</v>
       </c>
       <c r="H7" s="12">
-        <v>55.013746119507239</v>
+        <v>18.886385403663269</v>
       </c>
       <c r="I7" s="12">
-        <v>80.365358862434661</v>
+        <v>40.526799250443794</v>
       </c>
       <c r="J7" s="12">
-        <v>127.12982914111913</v>
+        <v>52.442399103992344</v>
       </c>
       <c r="K7" s="12">
-        <v>191.98548952700759</v>
+        <v>62.855910831559697</v>
       </c>
       <c r="L7" s="12">
-        <v>263.66306027699738</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.317984596770344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2012</v>
       </c>
@@ -5650,7 +5690,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -5660,61 +5700,61 @@
       </c>
       <c r="C14" s="40">
         <f>F5*'AC DC Derate Factor'!$A$3</f>
-        <v>0.44887587174839372</v>
+        <v>0.420512013729266</v>
       </c>
       <c r="D14" s="40">
         <f>G5*'AC DC Derate Factor'!$A$3</f>
-        <v>3.1033402854909968</v>
+        <v>2.6544644137426032</v>
       </c>
       <c r="E14" s="40">
         <f>H5*'AC DC Derate Factor'!$A$3</f>
-        <v>6.0758753035701485</v>
+        <v>2.9725350180791517</v>
       </c>
       <c r="F14" s="40">
         <f>I5*'AC DC Derate Factor'!$A$3</f>
-        <v>11.097557830480174</v>
+        <v>5.4138306826201639</v>
       </c>
       <c r="G14" s="40">
         <f>J5*'AC DC Derate Factor'!$A$3</f>
-        <v>17.712675332775298</v>
+        <v>8.8490699023084627</v>
       </c>
       <c r="H14" s="40">
         <f>K5*'AC DC Derate Factor'!$A$3</f>
-        <v>29.397003251980536</v>
+        <v>12.002398523541784</v>
       </c>
       <c r="I14" s="40">
         <f>L5*'AC DC Derate Factor'!$A$3</f>
-        <v>40.72113178882006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>13.765424201380537</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -5725,7 +5765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5737,7 +5777,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5749,7 +5789,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -5761,7 +5801,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -5773,7 +5813,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -5785,12 +5825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>51</v>
       </c>
@@ -5807,7 +5847,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5824,7 +5864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
         <v>23</v>
@@ -5863,7 +5903,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
       <c r="B34" s="32" t="s">
         <v>14</v>
@@ -5896,7 +5936,7 @@
       </c>
       <c r="M34" s="34"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -5929,7 +5969,7 @@
       </c>
       <c r="M35" s="39"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -5958,7 +5998,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5968,34 +6008,34 @@
       </c>
       <c r="C39" s="40">
         <f t="shared" si="1"/>
-        <v>3.7032259419242486E-2</v>
+        <v>3.4692241132664448E-2</v>
       </c>
       <c r="D39" s="40">
         <f t="shared" si="1"/>
-        <v>0.27930062569418979</v>
+        <v>0.23890179723683433</v>
       </c>
       <c r="E39" s="40">
         <f t="shared" si="1"/>
-        <v>0.59239784209808977</v>
+        <v>0.2898221642627174</v>
       </c>
       <c r="F39" s="40">
         <f t="shared" si="1"/>
-        <v>1.1652435722004184</v>
+        <v>0.56845222167511722</v>
       </c>
       <c r="G39" s="40">
         <f t="shared" si="1"/>
-        <v>1.992675974937222</v>
+        <v>0.99552036400970256</v>
       </c>
       <c r="H39" s="40">
         <f t="shared" si="1"/>
-        <v>3.5276403902376661</v>
+        <v>1.4402878228250147</v>
       </c>
       <c r="I39" s="40">
         <f t="shared" si="1"/>
-        <v>5.1919443030745578</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.45">
+        <v>1.7550915856760183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -6005,34 +6045,34 @@
       </c>
       <c r="C40" s="40">
         <f t="shared" si="2"/>
-        <v>7.518670851785593E-2</v>
+        <v>7.0435762299652052E-2</v>
       </c>
       <c r="D40" s="40">
         <f t="shared" si="2"/>
-        <v>0.49653444567855937</v>
+        <v>0.42471430619881645</v>
       </c>
       <c r="E40" s="40">
         <f t="shared" si="2"/>
-        <v>0.92657098379444736</v>
+        <v>0.45331159025707057</v>
       </c>
       <c r="F40" s="40">
         <f t="shared" si="2"/>
-        <v>1.609145885419625</v>
+        <v>0.78500544897992364</v>
       </c>
       <c r="G40" s="40">
         <f t="shared" si="2"/>
-        <v>2.4354928582566027</v>
+        <v>1.2167471115674131</v>
       </c>
       <c r="H40" s="40">
         <f t="shared" si="2"/>
-        <v>3.8216104227574688</v>
+        <v>1.5603118080604312</v>
       </c>
       <c r="I40" s="40">
         <f t="shared" si="2"/>
-        <v>4.988338644130458</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+        <v>1.6862644646691158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -6042,34 +6082,34 @@
       </c>
       <c r="C41" s="40">
         <f t="shared" si="3"/>
-        <v>0.33665690381129532</v>
+        <v>0.31538401029694951</v>
       </c>
       <c r="D41" s="40">
         <f t="shared" si="3"/>
-        <v>2.3275052141182475</v>
+        <v>1.9908483103069523</v>
       </c>
       <c r="E41" s="40">
         <f t="shared" si="3"/>
-        <v>4.5569064776776109</v>
+        <v>2.2294012635593639</v>
       </c>
       <c r="F41" s="40">
         <f t="shared" si="3"/>
-        <v>8.3231683728601311</v>
+        <v>4.0603730119651225</v>
       </c>
       <c r="G41" s="40">
         <f t="shared" si="3"/>
-        <v>13.284506499581473</v>
+        <v>6.6368024267313466</v>
       </c>
       <c r="H41" s="40">
         <f t="shared" si="3"/>
-        <v>22.047752438985402</v>
+        <v>9.0017988926563373</v>
       </c>
       <c r="I41" s="40">
         <f t="shared" si="3"/>
-        <v>30.540848841615045</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.45">
+        <v>10.324068151035402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -6179,442 +6219,442 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="40">
         <f>TREND($B39:$C39,$B$38:$C$38,B$44)*1000</f>
-        <v>30.051265405681704</v>
+        <v>28.17925077641803</v>
       </c>
       <c r="C45" s="40">
         <f t="shared" ref="C45:H47" si="4">TREND($C39:$D39,$C$38:$D$38,C$44)*1000</f>
-        <v>37.032259419234492</v>
+        <v>34.692241132660229</v>
       </c>
       <c r="D45" s="40">
         <f t="shared" si="4"/>
-        <v>85.485932674231435</v>
+        <v>75.53415235349803</v>
       </c>
       <c r="E45" s="40">
         <f t="shared" si="4"/>
-        <v>133.93960592921417</v>
+        <v>116.37606357433583</v>
       </c>
       <c r="F45" s="40">
         <f t="shared" si="4"/>
-        <v>182.39327918421111</v>
+        <v>157.21797479517363</v>
       </c>
       <c r="G45" s="40">
         <f t="shared" si="4"/>
-        <v>230.84695243919384</v>
+        <v>198.05988601599722</v>
       </c>
       <c r="H45" s="40">
         <f t="shared" si="4"/>
-        <v>279.30062569419078</v>
+        <v>238.90179723683502</v>
       </c>
       <c r="I45" s="40">
         <f t="shared" ref="I45:M47" si="5">TREND($D39:$E39,$D$38:$E$38,I$44)*1000</f>
-        <v>341.9200689749573</v>
+        <v>249.08587064201271</v>
       </c>
       <c r="J45" s="40">
         <f t="shared" si="5"/>
-        <v>404.53951225573803</v>
+        <v>259.26994404718687</v>
       </c>
       <c r="K45" s="40">
         <f t="shared" si="5"/>
-        <v>467.15895553651876</v>
+        <v>269.4540174523645</v>
       </c>
       <c r="L45" s="40">
         <f t="shared" si="5"/>
-        <v>529.77839881729949</v>
+        <v>279.63809085754224</v>
       </c>
       <c r="M45" s="40">
         <f t="shared" si="5"/>
-        <v>592.39784209808022</v>
+        <v>289.82216426271634</v>
       </c>
       <c r="N45" s="40">
         <f t="shared" ref="N45:R47" si="6">TREND($E39:$F39,$E$38:$F$38,N$44)*1000</f>
-        <v>706.96698811855185</v>
+        <v>345.54817574520769</v>
       </c>
       <c r="O45" s="40">
         <f t="shared" si="6"/>
-        <v>821.53613413902349</v>
+        <v>401.27418722768482</v>
       </c>
       <c r="P45" s="40">
         <f t="shared" si="6"/>
-        <v>936.10528015949512</v>
+        <v>457.00019871016195</v>
       </c>
       <c r="Q45" s="40">
         <f t="shared" si="6"/>
-        <v>1050.6744261799668</v>
+        <v>512.7262101926533</v>
       </c>
       <c r="R45" s="40">
         <f t="shared" si="6"/>
-        <v>1165.24357220041</v>
+        <v>568.45222167513043</v>
       </c>
       <c r="S45" s="40">
         <f t="shared" ref="S45:W47" si="7">TREND($F39:$G39,$F$38:$G$38,S$44)*1000</f>
-        <v>1330.7300527478105</v>
+        <v>653.86585014204002</v>
       </c>
       <c r="T45" s="40">
         <f t="shared" si="7"/>
-        <v>1496.2165332951827</v>
+        <v>739.2794786089496</v>
       </c>
       <c r="U45" s="40">
         <f t="shared" si="7"/>
-        <v>1661.7030138425548</v>
+        <v>824.69310707588761</v>
       </c>
       <c r="V45" s="40">
         <f t="shared" si="7"/>
-        <v>1827.1894943898701</v>
+        <v>910.1067355427972</v>
       </c>
       <c r="W45" s="40">
         <f t="shared" si="7"/>
-        <v>1992.6759749372422</v>
+        <v>995.52036400970678</v>
       </c>
       <c r="X45" s="40">
         <f t="shared" ref="X45:AB47" si="8">TREND($G39:$H39,$G$38:$H$38,X$44)*1000</f>
-        <v>2299.6688579972897</v>
+        <v>1084.4738557727851</v>
       </c>
       <c r="Y45" s="40">
         <f t="shared" si="8"/>
-        <v>2606.6617410574509</v>
+        <v>1173.427347535835</v>
       </c>
       <c r="Z45" s="40">
         <f t="shared" si="8"/>
-        <v>2913.6546241174983</v>
+        <v>1262.3808392988849</v>
       </c>
       <c r="AA45" s="40">
         <f t="shared" si="8"/>
-        <v>3220.6475071775458</v>
+        <v>1351.3343310619632</v>
       </c>
       <c r="AB45" s="40">
         <f t="shared" si="8"/>
-        <v>3527.6403902377069</v>
+        <v>1440.2878228250131</v>
       </c>
       <c r="AC45" s="40">
         <f t="shared" ref="AC45:AJ47" si="9">TREND($H39:$I39,$H$38:$I$38,AC$44)*1000</f>
-        <v>3860.5011728051295</v>
+        <v>1503.2485753952187</v>
       </c>
       <c r="AD45" s="40">
         <f t="shared" si="9"/>
-        <v>4193.3619553725521</v>
+        <v>1566.2093279654243</v>
       </c>
       <c r="AE45" s="40">
         <f t="shared" si="9"/>
-        <v>4526.222737939861</v>
+        <v>1629.1700805356299</v>
       </c>
       <c r="AF45" s="40">
         <f t="shared" si="9"/>
-        <v>4859.0835205072835</v>
+        <v>1692.1308331058071</v>
       </c>
       <c r="AG45" s="40">
         <f t="shared" si="9"/>
-        <v>5191.9443030745924</v>
+        <v>1755.0915856760128</v>
       </c>
       <c r="AH45" s="40">
         <f t="shared" si="9"/>
-        <v>5524.805085642015</v>
+        <v>1818.0523382462184</v>
       </c>
       <c r="AI45" s="40">
         <f t="shared" si="9"/>
-        <v>5857.6658682094376</v>
+        <v>1881.013090816424</v>
       </c>
       <c r="AJ45" s="40">
         <f t="shared" si="9"/>
-        <v>6190.5266507767465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.45">
+        <v>1943.9738433866296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
       <c r="B46" s="40">
         <f t="shared" ref="B46:B47" si="10">TREND($B40:$C40,$B$38:$C$38,B$44)*1000</f>
-        <v>61.142101844954055</v>
+        <v>57.341344870390998</v>
       </c>
       <c r="C46" s="40">
         <f t="shared" si="4"/>
-        <v>75.186708517890111</v>
+        <v>70.435762299638327</v>
       </c>
       <c r="D46" s="40">
         <f t="shared" si="4"/>
-        <v>159.45625595003321</v>
+        <v>141.29147107945528</v>
       </c>
       <c r="E46" s="40">
         <f t="shared" si="4"/>
-        <v>243.72580338214789</v>
+        <v>212.14717985930065</v>
       </c>
       <c r="F46" s="40">
         <f t="shared" si="4"/>
-        <v>327.99535081429099</v>
+        <v>283.0028886391176</v>
       </c>
       <c r="G46" s="40">
         <f t="shared" si="4"/>
-        <v>412.26489824643409</v>
+        <v>353.85859741896297</v>
       </c>
       <c r="H46" s="40">
         <f t="shared" si="4"/>
-        <v>496.53444567857719</v>
+        <v>424.71430619877992</v>
       </c>
       <c r="I46" s="40">
         <f t="shared" si="5"/>
-        <v>582.54175330174007</v>
+        <v>430.433763010468</v>
       </c>
       <c r="J46" s="40">
         <f t="shared" si="5"/>
-        <v>668.54906092493138</v>
+        <v>436.15321982211873</v>
       </c>
       <c r="K46" s="40">
         <f t="shared" si="5"/>
-        <v>754.55636854809427</v>
+        <v>441.87267663376952</v>
       </c>
       <c r="L46" s="40">
         <f t="shared" si="5"/>
-        <v>840.56367617128558</v>
+        <v>447.59213344542025</v>
       </c>
       <c r="M46" s="40">
         <f t="shared" si="5"/>
-        <v>926.57098379444847</v>
+        <v>453.31159025707103</v>
       </c>
       <c r="N46" s="40">
         <f t="shared" si="6"/>
-        <v>1063.0859641195229</v>
+        <v>519.65036200166992</v>
       </c>
       <c r="O46" s="40">
         <f t="shared" si="6"/>
-        <v>1199.600944444569</v>
+        <v>585.98913374623862</v>
       </c>
       <c r="P46" s="40">
         <f t="shared" si="6"/>
-        <v>1336.1159247695582</v>
+        <v>652.32790549080732</v>
       </c>
       <c r="Q46" s="40">
         <f t="shared" si="6"/>
-        <v>1472.6309050946043</v>
+        <v>718.66667723537603</v>
       </c>
       <c r="R46" s="40">
         <f t="shared" si="6"/>
-        <v>1609.1458854196503</v>
+        <v>785.00544897994473</v>
       </c>
       <c r="S46" s="40">
         <f t="shared" si="7"/>
-        <v>1774.4152799870676</v>
+        <v>871.35378149741882</v>
       </c>
       <c r="T46" s="40">
         <f t="shared" si="7"/>
-        <v>1939.6846745544281</v>
+        <v>957.70211401492134</v>
       </c>
       <c r="U46" s="40">
         <f t="shared" si="7"/>
-        <v>2104.9540691218454</v>
+        <v>1044.0504465324238</v>
       </c>
       <c r="V46" s="40">
         <f t="shared" si="7"/>
-        <v>2270.2234636892626</v>
+        <v>1130.3987790499264</v>
       </c>
       <c r="W46" s="40">
         <f t="shared" si="7"/>
-        <v>2435.4928582566231</v>
+        <v>1216.7471115674289</v>
       </c>
       <c r="X46" s="40">
         <f t="shared" si="8"/>
-        <v>2712.7163711567164</v>
+        <v>1285.4600508660212</v>
       </c>
       <c r="Y46" s="40">
         <f t="shared" si="8"/>
-        <v>2989.9398840568665</v>
+        <v>1354.1729901646136</v>
       </c>
       <c r="Z46" s="40">
         <f t="shared" si="8"/>
-        <v>3267.1633969570166</v>
+        <v>1422.8859294632343</v>
       </c>
       <c r="AA46" s="40">
         <f t="shared" si="8"/>
-        <v>3544.3869098572804</v>
+        <v>1491.5988687618267</v>
       </c>
       <c r="AB46" s="40">
         <f t="shared" si="8"/>
-        <v>3821.6104227574306</v>
+        <v>1560.3118080604474</v>
       </c>
       <c r="AC46" s="40">
         <f t="shared" si="9"/>
-        <v>4054.9560670320943</v>
+        <v>1585.5023393821668</v>
       </c>
       <c r="AD46" s="40">
         <f t="shared" si="9"/>
-        <v>4288.3017113067017</v>
+        <v>1610.6928707039003</v>
       </c>
       <c r="AE46" s="40">
         <f t="shared" si="9"/>
-        <v>4521.6473555812518</v>
+        <v>1635.8834020256409</v>
       </c>
       <c r="AF46" s="40">
         <f t="shared" si="9"/>
-        <v>4754.9929998558582</v>
+        <v>1661.0739333473746</v>
       </c>
       <c r="AG46" s="40">
         <f t="shared" si="9"/>
-        <v>4988.3386441304647</v>
+        <v>1686.2644646691151</v>
       </c>
       <c r="AH46" s="40">
         <f t="shared" si="9"/>
-        <v>5221.684288405072</v>
+        <v>1711.4549959908486</v>
       </c>
       <c r="AI46" s="40">
         <f t="shared" si="9"/>
-        <v>5455.0299326796794</v>
+        <v>1736.6455273125823</v>
       </c>
       <c r="AJ46" s="40">
         <f t="shared" si="9"/>
-        <v>5688.3755769542859</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.45">
+        <v>1761.8360586343229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
       <c r="B47" s="40">
         <f t="shared" si="10"/>
-        <v>273.58010175191794</v>
+        <v>256.56178694043774</v>
       </c>
       <c r="C47" s="40">
         <f t="shared" si="4"/>
-        <v>336.65690381133118</v>
+        <v>315.38401029695251</v>
       </c>
       <c r="D47" s="40">
         <f t="shared" si="4"/>
-        <v>734.82656587270867</v>
+        <v>650.47687029891677</v>
       </c>
       <c r="E47" s="40">
         <f t="shared" si="4"/>
-        <v>1132.9962279340862</v>
+        <v>985.56973030099471</v>
       </c>
       <c r="F47" s="40">
         <f t="shared" si="4"/>
-        <v>1531.1658899954637</v>
+        <v>1320.662590302959</v>
       </c>
       <c r="G47" s="40">
         <f t="shared" si="4"/>
-        <v>1929.3355520568412</v>
+        <v>1655.7554503049232</v>
       </c>
       <c r="H47" s="40">
         <f t="shared" si="4"/>
-        <v>2327.5052141182186</v>
+        <v>1990.8483103070012</v>
       </c>
       <c r="I47" s="40">
         <f t="shared" si="5"/>
-        <v>2773.3854668300637</v>
+        <v>2038.558900957426</v>
       </c>
       <c r="J47" s="40">
         <f t="shared" si="5"/>
-        <v>3219.2657195419088</v>
+        <v>2086.2694916079081</v>
       </c>
       <c r="K47" s="40">
         <f t="shared" si="5"/>
-        <v>3665.1459722537538</v>
+        <v>2133.9800822583898</v>
       </c>
       <c r="L47" s="40">
         <f t="shared" si="5"/>
-        <v>4111.0262249657126</v>
+        <v>2181.6906729088714</v>
       </c>
       <c r="M47" s="40">
         <f t="shared" si="5"/>
-        <v>4556.9064776775576</v>
+        <v>2229.4012635593531</v>
       </c>
       <c r="N47" s="40">
         <f t="shared" si="6"/>
-        <v>5310.158856713997</v>
+        <v>2595.5956132405618</v>
       </c>
       <c r="O47" s="40">
         <f t="shared" si="6"/>
-        <v>6063.4112357506638</v>
+        <v>2961.7899629216708</v>
       </c>
       <c r="P47" s="40">
         <f t="shared" si="6"/>
-        <v>6816.6636147871031</v>
+        <v>3327.9843126027799</v>
       </c>
       <c r="Q47" s="40">
         <f t="shared" si="6"/>
-        <v>7569.9159938235425</v>
+        <v>3694.1786622840027</v>
       </c>
       <c r="R47" s="40">
         <f t="shared" si="6"/>
-        <v>8323.1683728599819</v>
+        <v>4060.3730119651118</v>
       </c>
       <c r="S47" s="40">
         <f t="shared" si="7"/>
-        <v>9315.4359982045207</v>
+        <v>4575.658894918206</v>
       </c>
       <c r="T47" s="40">
         <f t="shared" si="7"/>
-        <v>10307.703623548832</v>
+        <v>5090.9447778715275</v>
       </c>
       <c r="U47" s="40">
         <f t="shared" si="7"/>
-        <v>11299.971248892916</v>
+        <v>5606.2306608246217</v>
       </c>
       <c r="V47" s="40">
         <f t="shared" si="7"/>
-        <v>12292.238874237228</v>
+        <v>6121.5165437779433</v>
       </c>
       <c r="W47" s="40">
         <f t="shared" si="7"/>
-        <v>13284.506499581539</v>
+        <v>6636.8024267312649</v>
       </c>
       <c r="X47" s="40">
         <f t="shared" si="8"/>
-        <v>15037.155687462018</v>
+        <v>7109.8017199162769</v>
       </c>
       <c r="Y47" s="40">
         <f t="shared" si="8"/>
-        <v>16789.804875342725</v>
+        <v>7582.8010131012888</v>
       </c>
       <c r="Z47" s="40">
         <f t="shared" si="8"/>
-        <v>18542.454063223886</v>
+        <v>8055.8003062863008</v>
       </c>
       <c r="AA47" s="40">
         <f t="shared" si="8"/>
-        <v>20295.103251104592</v>
+        <v>8528.7995994713128</v>
       </c>
       <c r="AB47" s="40">
         <f t="shared" si="8"/>
-        <v>22047.752438985299</v>
+        <v>9001.7988926563248</v>
       </c>
       <c r="AC47" s="40">
         <f t="shared" si="9"/>
-        <v>23746.371719510989</v>
+        <v>9266.2527443321778</v>
       </c>
       <c r="AD47" s="40">
         <f t="shared" si="9"/>
-        <v>25444.991000037135</v>
+        <v>9530.7065960079162</v>
       </c>
       <c r="AE47" s="40">
         <f t="shared" si="9"/>
-        <v>27143.610280562825</v>
+        <v>9795.1604476837711</v>
       </c>
       <c r="AF47" s="40">
         <f t="shared" si="9"/>
-        <v>28842.229561088971</v>
+        <v>10059.614299359622</v>
       </c>
       <c r="AG47" s="40">
         <f t="shared" si="9"/>
-        <v>30540.848841614661</v>
+        <v>10324.068151035362</v>
       </c>
       <c r="AH47" s="40">
         <f t="shared" si="9"/>
-        <v>32239.468122140806</v>
+        <v>10588.522002711215</v>
       </c>
       <c r="AI47" s="40">
         <f t="shared" si="9"/>
-        <v>33938.087402666948</v>
+        <v>10852.975854387068</v>
       </c>
       <c r="AJ47" s="40">
         <f t="shared" si="9"/>
-        <v>35636.706683192642</v>
-      </c>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.45">
+        <v>11117.429706062809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>37</v>
       </c>
@@ -6630,7 +6670,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -6644,7 +6684,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>38</v>
       </c>
@@ -6682,7 +6722,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A54" s="21" t="s">
         <v>40</v>
       </c>
@@ -6718,7 +6758,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -6828,7 +6868,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B58" s="41">
         <f>DSCF!B2</f>
         <v>0.17907500000000001</v>
@@ -6970,7 +7010,7 @@
         <v>0.23669999999999991</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -7080,439 +7120,439 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>54</v>
       </c>
       <c r="B62" s="3">
         <f t="shared" ref="B62:AJ62" si="11">B45*B$58*365*24</f>
-        <v>47141.329888096669</v>
+        <v>44204.706155214633</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" si="11"/>
-        <v>58092.394254174898</v>
+        <v>54421.614588080702</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="11"/>
-        <v>136828.61286650962</v>
+        <v>120899.81318870437</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="11"/>
-        <v>218656.27273983654</v>
+        <v>189983.80740903999</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="11"/>
-        <v>303575.37387420097</v>
+        <v>261673.597249087</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="11"/>
-        <v>387369.58902203594</v>
+        <v>332351.69811469421</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="11"/>
-        <v>472485.27150984347</v>
+        <v>404143.6722566688</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="11"/>
-        <v>583079.43928762898</v>
+        <v>424768.42679583398</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="11"/>
-        <v>695381.41461814661</v>
+        <v>445670.92953215772</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" si="11"/>
-        <v>809391.19750137231</v>
+        <v>466851.18046565226</v>
       </c>
       <c r="L62" s="3">
         <f t="shared" si="11"/>
-        <v>925108.7879373061</v>
+        <v>488309.1795963117</v>
       </c>
       <c r="M62" s="3">
         <f t="shared" si="11"/>
-        <v>1042534.1859259477</v>
+        <v>510044.92692412937</v>
       </c>
       <c r="N62" s="3">
         <f t="shared" si="11"/>
-        <v>1253799.7321187551</v>
+        <v>612826.64886017866</v>
       </c>
       <c r="O62" s="3">
         <f t="shared" si="11"/>
-        <v>1468189.8997171496</v>
+        <v>717128.1751621624</v>
       </c>
       <c r="P62" s="3">
         <f t="shared" si="11"/>
-        <v>1685704.6887211315</v>
+        <v>822949.50583010516</v>
       </c>
       <c r="Q62" s="3">
         <f t="shared" si="11"/>
-        <v>1906344.0991307003</v>
+        <v>930290.64086403314</v>
       </c>
       <c r="R62" s="3">
         <f t="shared" si="11"/>
-        <v>2130108.1309458036</v>
+        <v>1039151.580263895</v>
       </c>
       <c r="S62" s="3">
         <f t="shared" si="11"/>
-        <v>2450769.8745802259</v>
+        <v>1204207.21260181</v>
       </c>
       <c r="T62" s="3">
         <f t="shared" si="11"/>
-        <v>2775944.8979012682</v>
+        <v>1371592.3137461771</v>
       </c>
       <c r="U62" s="3">
         <f t="shared" si="11"/>
-        <v>3105633.2009089896</v>
+        <v>1541306.883697053</v>
       </c>
       <c r="V62" s="3">
         <f t="shared" si="11"/>
-        <v>3439834.7836032705</v>
+        <v>1713350.9224543255</v>
       </c>
       <c r="W62" s="3">
         <f t="shared" si="11"/>
-        <v>3778549.6459843293</v>
+        <v>1887724.4300180506</v>
       </c>
       <c r="X62" s="3">
         <f t="shared" si="11"/>
-        <v>4392034.5267241877</v>
+        <v>2071188.0327117047</v>
       </c>
       <c r="Y62" s="3">
         <f t="shared" si="11"/>
-        <v>5013891.9629653841</v>
+        <v>2257077.6461954601</v>
       </c>
       <c r="Z62" s="3">
         <f t="shared" si="11"/>
-        <v>5644121.9547074828</v>
+        <v>2445393.2704693712</v>
       </c>
       <c r="AA62" s="3">
         <f t="shared" si="11"/>
-        <v>6282724.5019507017</v>
+        <v>2636134.9055334926</v>
       </c>
       <c r="AB62" s="3">
         <f t="shared" si="11"/>
-        <v>6929699.6046952643</v>
+        <v>2829302.5513877142</v>
       </c>
       <c r="AC62" s="3">
         <f t="shared" si="11"/>
-        <v>7636214.9304521754</v>
+        <v>2973481.6029787473</v>
       </c>
       <c r="AD62" s="3">
         <f t="shared" si="11"/>
-        <v>8351808.3017598893</v>
+        <v>3119377.7705824776</v>
       </c>
       <c r="AE62" s="3">
         <f t="shared" si="11"/>
-        <v>9076479.7186181806</v>
+        <v>3266991.054198904</v>
       </c>
       <c r="AF62" s="3">
         <f t="shared" si="11"/>
-        <v>9810229.1810275055</v>
+        <v>3416321.4538279697</v>
       </c>
       <c r="AG62" s="3">
         <f t="shared" si="11"/>
-        <v>10553056.688987402</v>
+        <v>3567368.9694697894</v>
       </c>
       <c r="AH62" s="3">
         <f t="shared" si="11"/>
-        <v>11304962.242498333</v>
+        <v>3720133.6011243053</v>
       </c>
       <c r="AI62" s="3">
         <f t="shared" si="11"/>
-        <v>12065945.841560068</v>
+        <v>3874615.3487915187</v>
       </c>
       <c r="AJ62" s="3">
         <f t="shared" si="11"/>
-        <v>12836007.486172372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.45">
+        <v>4030814.2124714274</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="3">
         <f t="shared" ref="B63:AJ63" si="12">B46*B$58*365*24</f>
-        <v>95913.431737873907</v>
+        <v>89951.195674147748</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" si="12"/>
-        <v>117945.16409188867</v>
+        <v>110492.36901215576</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="12"/>
-        <v>255225.36436111154</v>
+        <v>226150.84602683419</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="12"/>
-        <v>397882.13029555359</v>
+        <v>346330.05897312897</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="12"/>
-        <v>545915.4618953059</v>
+        <v>471030.00785094732</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="12"/>
-        <v>691795.50569981232</v>
+        <v>593787.60692196572</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="12"/>
-        <v>839973.8160175262</v>
+        <v>718477.63956734713</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="12"/>
-        <v>993413.81128958729</v>
+        <v>734022.65605237044</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="12"/>
-        <v>1149199.4666610421</v>
+        <v>749723.65813906328</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="12"/>
-        <v>1307330.7821317932</v>
+        <v>765580.64582748909</v>
       </c>
       <c r="L63" s="3">
         <f t="shared" si="12"/>
-        <v>1467807.7577019392</v>
+        <v>781593.61911764764</v>
       </c>
       <c r="M63" s="3">
         <f t="shared" si="12"/>
-        <v>1630630.3933713811</v>
+        <v>797762.57800953905</v>
       </c>
       <c r="N63" s="3">
         <f t="shared" si="12"/>
-        <v>1885373.6022094879</v>
+        <v>921595.34408677509</v>
       </c>
       <c r="O63" s="3">
         <f t="shared" si="12"/>
-        <v>2143839.956802954</v>
+        <v>1047237.3542179934</v>
       </c>
       <c r="P63" s="3">
         <f t="shared" si="12"/>
-        <v>2406029.4571517259</v>
+        <v>1174688.6084032468</v>
       </c>
       <c r="Q63" s="3">
         <f t="shared" si="12"/>
-        <v>2671942.1032560091</v>
+        <v>1303949.1066425357</v>
       </c>
       <c r="R63" s="3">
         <f t="shared" si="12"/>
-        <v>2941577.8951157006</v>
+        <v>1435018.8489358597</v>
       </c>
       <c r="S63" s="3">
         <f t="shared" si="12"/>
-        <v>3267893.0668226746</v>
+        <v>1604748.9071024503</v>
       </c>
       <c r="T63" s="3">
         <f t="shared" si="12"/>
-        <v>3598715.5976737011</v>
+        <v>1776833.9260721761</v>
       </c>
       <c r="U63" s="3">
         <f t="shared" si="12"/>
-        <v>3934045.4876689985</v>
+        <v>1951273.9058449888</v>
       </c>
       <c r="V63" s="3">
         <f t="shared" si="12"/>
-        <v>4273882.7368084472</v>
+        <v>2128068.8464208813</v>
       </c>
       <c r="W63" s="3">
         <f t="shared" si="12"/>
-        <v>4618227.3450919464</v>
+        <v>2307218.7477998571</v>
       </c>
       <c r="X63" s="3">
         <f t="shared" si="12"/>
-        <v>5180895.4675787874</v>
+        <v>2455042.562538736</v>
       </c>
       <c r="Y63" s="3">
         <f t="shared" si="12"/>
-        <v>5751124.2514883587</v>
+        <v>2604740.3715285175</v>
       </c>
       <c r="Z63" s="3">
         <f t="shared" si="12"/>
-        <v>6328913.6968205534</v>
+        <v>2756312.1747692572</v>
       </c>
       <c r="AA63" s="3">
         <f t="shared" si="12"/>
-        <v>6914263.803575593</v>
+        <v>2909757.972260844</v>
       </c>
       <c r="AB63" s="3">
         <f t="shared" si="12"/>
-        <v>7507174.5717530362</v>
+        <v>3065077.76400339</v>
       </c>
       <c r="AC63" s="3">
         <f t="shared" si="12"/>
-        <v>8020853.9449551776</v>
+        <v>3136182.6079849517</v>
       </c>
       <c r="AD63" s="3">
         <f t="shared" si="12"/>
-        <v>8540897.3072443791</v>
+        <v>3207974.4682891713</v>
       </c>
       <c r="AE63" s="3">
         <f t="shared" si="12"/>
-        <v>9067304.6586206388</v>
+        <v>3280453.3449160373</v>
       </c>
       <c r="AF63" s="3">
         <f t="shared" si="12"/>
-        <v>9600075.9990841839</v>
+        <v>3353619.2378655216</v>
       </c>
       <c r="AG63" s="3">
         <f t="shared" si="12"/>
-        <v>10139211.328634901</v>
+        <v>3427472.1471376503</v>
       </c>
       <c r="AH63" s="3">
         <f t="shared" si="12"/>
-        <v>10684710.647272795</v>
+        <v>3502012.0727323964</v>
       </c>
       <c r="AI63" s="3">
         <f t="shared" si="12"/>
-        <v>11236573.954997856</v>
+        <v>3577239.0146497744</v>
       </c>
       <c r="AJ63" s="3">
         <f t="shared" si="12"/>
-        <v>11794801.251810092</v>
-      </c>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.45">
+        <v>3653152.9728897978</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>56</v>
       </c>
       <c r="B64" s="3">
         <f t="shared" ref="B64:AJ64" si="13">B47*B$58*365*24</f>
-        <v>429164.28487792838</v>
+        <v>402467.70548810391</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" si="13"/>
-        <v>528112.67503812385</v>
+        <v>494741.95080079848</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="13"/>
-        <v>1176161.9316827271</v>
+        <v>1041151.9776467067</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="13"/>
-        <v>1849615.2091061706</v>
+        <v>1608941.5991466462</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="13"/>
-        <v>2548472.5073084496</v>
+        <v>2198110.8153002448</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="13"/>
-        <v>3237495.2841654732</v>
+        <v>2778417.9151100516</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="13"/>
-        <v>3937377.262581965</v>
+        <v>3367863.9354723124</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="13"/>
-        <v>4729479.7517315997</v>
+        <v>3476373.248544585</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="13"/>
-        <v>5533742.6438373951</v>
+        <v>3586183.7630136483</v>
       </c>
       <c r="K64" s="3">
         <f t="shared" si="13"/>
-        <v>6350165.9388993485</v>
+        <v>3697295.4788794033</v>
       </c>
       <c r="L64" s="3">
         <f t="shared" si="13"/>
-        <v>7178749.63691766</v>
+        <v>3809708.3961418499</v>
       </c>
       <c r="M64" s="3">
         <f t="shared" si="13"/>
-        <v>8019493.7378919367</v>
+        <v>3923422.5148009895</v>
       </c>
       <c r="N64" s="3">
         <f t="shared" si="13"/>
-        <v>9417520.0029843263</v>
+        <v>4603265.9788407357</v>
       </c>
       <c r="O64" s="3">
         <f t="shared" si="13"/>
-        <v>10836089.569560109</v>
+        <v>5293096.5881402902</v>
       </c>
       <c r="P64" s="3">
         <f t="shared" si="13"/>
-        <v>12275202.437618472</v>
+        <v>5992914.3426998258</v>
       </c>
       <c r="Q64" s="3">
         <f t="shared" si="13"/>
-        <v>13734858.607159816</v>
+        <v>6702719.2425195519</v>
       </c>
       <c r="R64" s="3">
         <f t="shared" si="13"/>
-        <v>15215058.07818415</v>
+        <v>7422511.287599056</v>
       </c>
       <c r="S64" s="3">
         <f t="shared" si="13"/>
-        <v>17155988.824208494</v>
+        <v>8426868.3591124658</v>
       </c>
       <c r="T64" s="3">
         <f t="shared" si="13"/>
-        <v>19123981.486724913</v>
+        <v>9445278.7194548994</v>
       </c>
       <c r="U64" s="3">
         <f t="shared" si="13"/>
-        <v>21119036.065733436</v>
+        <v>10477742.36862554</v>
       </c>
       <c r="V64" s="3">
         <f t="shared" si="13"/>
-        <v>23141152.561234832</v>
+        <v>11524259.306625193</v>
       </c>
       <c r="W64" s="3">
         <f t="shared" si="13"/>
-        <v>25190330.973228723</v>
+        <v>12584829.533453453</v>
       </c>
       <c r="X64" s="3">
         <f t="shared" si="13"/>
-        <v>28718789.982908927</v>
+        <v>13578691.785751052</v>
       </c>
       <c r="Y64" s="3">
         <f t="shared" si="13"/>
-        <v>32295048.64336079</v>
+        <v>14585454.053171825</v>
       </c>
       <c r="Z64" s="3">
         <f t="shared" si="13"/>
-        <v>35919106.95458477</v>
+        <v>15605116.335715776</v>
       </c>
       <c r="AA64" s="3">
         <f t="shared" si="13"/>
-        <v>39590964.916579112</v>
+        <v>16637678.633382898</v>
       </c>
       <c r="AB64" s="3">
         <f t="shared" si="13"/>
-        <v>43310622.529344678</v>
+        <v>17683140.946173202</v>
       </c>
       <c r="AC64" s="3">
         <f t="shared" si="13"/>
-        <v>46971206.626220711</v>
+        <v>18328992.632891141</v>
       </c>
       <c r="AD64" s="3">
         <f t="shared" si="13"/>
-        <v>50678116.827011555</v>
+        <v>18982056.716614835</v>
       </c>
       <c r="AE64" s="3">
         <f t="shared" si="13"/>
-        <v>54431353.131715432</v>
+        <v>19642333.197344743</v>
       </c>
       <c r="AF64" s="3">
         <f t="shared" si="13"/>
-        <v>58230915.540334158</v>
+        <v>20309822.075080626</v>
       </c>
       <c r="AG64" s="3">
         <f t="shared" si="13"/>
-        <v>62076804.05286587</v>
+        <v>20984523.349822275</v>
       </c>
       <c r="AH64" s="3">
         <f t="shared" si="13"/>
-        <v>65969018.669312447</v>
+        <v>21666437.021570135</v>
       </c>
       <c r="AI64" s="3">
         <f t="shared" si="13"/>
-        <v>69907559.38967295</v>
+        <v>22355563.090323985</v>
       </c>
       <c r="AJ64" s="3">
         <f t="shared" si="13"/>
-        <v>73892426.213946447</v>
+        <v>23051901.556083579</v>
       </c>
     </row>
   </sheetData>
@@ -7525,24 +7565,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.85899999999999999</v>
       </c>
@@ -7557,20 +7597,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="44">
         <v>2017</v>
       </c>
@@ -7674,7 +7714,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -7787,21 +7827,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:AI19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.73046875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="50" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="50"/>
+    <col min="3" max="16384" width="9.109375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
@@ -7818,13 +7858,13 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>89</v>
       </c>
       <c r="G2" s="49"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="50" t="s">
         <v>38</v>
       </c>
@@ -7865,7 +7905,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
         <v>91</v>
       </c>
@@ -7906,13 +7946,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -7947,7 +7987,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>94</v>
       </c>
@@ -7958,32 +7998,32 @@
       <c r="D8" s="53">
         <v>0</v>
       </c>
-      <c r="E8" s="50">
-        <v>13.202856752754782</v>
-      </c>
-      <c r="F8" s="50">
-        <v>16.876753286770661</v>
-      </c>
-      <c r="G8" s="50">
-        <v>21.785047314389658</v>
-      </c>
-      <c r="H8" s="50">
-        <v>24.266388650305846</v>
-      </c>
-      <c r="I8" s="50">
-        <v>23.096522567676267</v>
-      </c>
-      <c r="J8" s="50">
-        <v>16.825541118826049</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="E8" s="59">
+        <v>-13.178832113650611</v>
+      </c>
+      <c r="F8" s="59">
+        <v>-16.150921105627482</v>
+      </c>
+      <c r="G8" s="59">
+        <v>-19.756173479569441</v>
+      </c>
+      <c r="H8" s="59">
+        <v>-20.567450033158337</v>
+      </c>
+      <c r="I8" s="59">
+        <v>-18.182205854670414</v>
+      </c>
+      <c r="J8" s="59">
+        <v>-12.518808651542876</v>
+      </c>
+      <c r="K8" s="59">
+        <v>0</v>
+      </c>
+      <c r="L8" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>96</v>
       </c>
@@ -8019,10 +8059,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="50" t="s">
         <v>98</v>
       </c>
@@ -8054,7 +8094,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>99</v>
       </c>
@@ -8065,23 +8105,23 @@
       <c r="D12" s="50">
         <v>0</v>
       </c>
-      <c r="E12" s="50">
-        <v>15.061438230384187</v>
-      </c>
-      <c r="F12" s="50">
-        <v>19.252513446008049</v>
-      </c>
-      <c r="G12" s="50">
-        <v>24.851753723921572</v>
-      </c>
-      <c r="H12" s="50">
-        <v>27.682396361288887</v>
-      </c>
-      <c r="I12" s="50">
-        <v>26.347846871636165</v>
-      </c>
-      <c r="J12" s="50">
-        <v>19.194092081708927</v>
+      <c r="E12" s="59">
+        <v>15.034031614933387</v>
+      </c>
+      <c r="F12" s="59">
+        <v>18.424505025812774</v>
+      </c>
+      <c r="G12" s="59">
+        <v>22.537272963232304</v>
+      </c>
+      <c r="H12" s="59">
+        <v>23.46275385940946</v>
+      </c>
+      <c r="I12" s="59">
+        <v>20.741736087919701</v>
+      </c>
+      <c r="J12" s="59">
+        <v>14.281095883576173</v>
       </c>
       <c r="K12" s="50">
         <v>0</v>
@@ -8090,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>102</v>
       </c>
@@ -8129,7 +8169,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B15" s="50">
         <v>2017</v>
       </c>
@@ -8233,109 +8273,109 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="55">
         <f>TREND($F8:$G8,$F7:$G7,B$15)</f>
-        <v>16.876753286770736</v>
+        <v>-16.150921105627503</v>
       </c>
       <c r="C16" s="55">
         <f t="shared" ref="C16:G16" si="0">TREND($F8:$G8,$F7:$G7,C$15)</f>
-        <v>17.858412092294429</v>
+        <v>-16.871971580415902</v>
       </c>
       <c r="D16" s="55">
         <f t="shared" si="0"/>
-        <v>18.840070897818123</v>
+        <v>-17.593022055204301</v>
       </c>
       <c r="E16" s="55">
         <f t="shared" si="0"/>
-        <v>19.821729703342044</v>
+        <v>-18.3140725299927</v>
       </c>
       <c r="F16" s="55">
         <f t="shared" si="0"/>
-        <v>20.803388508865737</v>
+        <v>-19.035123004781099</v>
       </c>
       <c r="G16" s="55">
         <f t="shared" si="0"/>
-        <v>21.785047314389658</v>
+        <v>-19.756173479569497</v>
       </c>
       <c r="H16" s="50">
         <f>TREND($G8:$H8,$G7:$H7,H$15)</f>
-        <v>22.281315581572926</v>
+        <v>-19.918428790287237</v>
       </c>
       <c r="I16" s="50">
         <f>TREND($G8:$H8,$G7:$H7,I$15)</f>
-        <v>22.77758384875608</v>
+        <v>-20.080684101004977</v>
       </c>
       <c r="J16" s="50">
         <f>TREND($G8:$H8,$G7:$H7,J$15)</f>
-        <v>23.273852115939349</v>
+        <v>-20.242939411722773</v>
       </c>
       <c r="K16" s="50">
         <f>TREND($G8:$H8,$G7:$H7,K$15)</f>
-        <v>23.770120383122617</v>
+        <v>-20.405194722440569</v>
       </c>
       <c r="L16" s="50">
         <f>TREND($G8:$H8,$G7:$H7,L$15)</f>
-        <v>24.266388650305885</v>
+        <v>-20.567450033158309</v>
       </c>
       <c r="M16" s="50">
         <f>TREND($H8:$I8,$H7:$I7,M$15)</f>
-        <v>24.032415433779931</v>
+        <v>-20.090401197460778</v>
       </c>
       <c r="N16" s="50">
         <f>TREND($H8:$I8,$H7:$I7,N$15)</f>
-        <v>23.798442217253978</v>
+        <v>-19.613352361763191</v>
       </c>
       <c r="O16" s="50">
         <f>TREND($H8:$I8,$H7:$I7,O$15)</f>
-        <v>23.564469000728081</v>
+        <v>-19.136303526065603</v>
       </c>
       <c r="P16" s="50">
         <f>TREND($H8:$I8,$H7:$I7,P$15)</f>
-        <v>23.330495784202185</v>
+        <v>-18.659254690368016</v>
       </c>
       <c r="Q16" s="50">
         <f>TREND($H8:$I8,$H7:$I7,Q$15)</f>
-        <v>23.096522567676232</v>
+        <v>-18.182205854670428</v>
       </c>
       <c r="R16" s="50">
         <f>TREND($I8:$J8,$I7:$J7,R$15)</f>
-        <v>21.842326277906068</v>
+        <v>-17.049526414044976</v>
       </c>
       <c r="S16" s="50">
         <f>TREND($I8:$J8,$I7:$J7,S$15)</f>
-        <v>20.588129988136188</v>
+        <v>-15.916846973419524</v>
       </c>
       <c r="T16" s="50">
         <f>TREND($I8:$J8,$I7:$J7,T$15)</f>
-        <v>19.333933698366309</v>
+        <v>-14.784167532794072</v>
       </c>
       <c r="U16" s="50">
         <f>TREND($I8:$J8,$I7:$J7,U$15)</f>
-        <v>18.079737408595975</v>
+        <v>-13.651488092168165</v>
       </c>
       <c r="V16" s="50">
         <f>TREND($I8:$J8,$I7:$J7,V$15)</f>
-        <v>16.825541118826095</v>
+        <v>-12.518808651542713</v>
       </c>
       <c r="W16" s="50">
         <f>TREND($J8:$K8,$J7:$K7,W$15)</f>
-        <v>13.460432895060876</v>
+        <v>-10.015046921233989</v>
       </c>
       <c r="X16" s="50">
         <f t="shared" ref="X16:AA16" si="1">TREND($J8:$K8,$J7:$K7,X$15)</f>
-        <v>10.095324671295202</v>
+        <v>-7.5112851909261735</v>
       </c>
       <c r="Y16" s="50">
         <f t="shared" si="1"/>
-        <v>6.730216447530438</v>
+        <v>-5.007523460617449</v>
       </c>
       <c r="Z16" s="50">
         <f t="shared" si="1"/>
-        <v>3.3651082237647643</v>
+        <v>-2.5037617303087245</v>
       </c>
       <c r="AA16" s="50">
         <f t="shared" si="1"/>
@@ -8374,109 +8414,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="50" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="52">
         <f>B16*1000000</f>
-        <v>16876753.286770735</v>
+        <v>-16150921.105627503</v>
       </c>
       <c r="C17" s="52">
         <f t="shared" ref="C17:AI17" si="3">C16*1000000</f>
-        <v>17858412.092294428</v>
+        <v>-16871971.580415901</v>
       </c>
       <c r="D17" s="52">
         <f t="shared" si="3"/>
-        <v>18840070.897818122</v>
+        <v>-17593022.055204302</v>
       </c>
       <c r="E17" s="52">
         <f t="shared" si="3"/>
-        <v>19821729.703342043</v>
+        <v>-18314072.5299927</v>
       </c>
       <c r="F17" s="52">
         <f t="shared" si="3"/>
-        <v>20803388.508865736</v>
+        <v>-19035123.004781097</v>
       </c>
       <c r="G17" s="52">
         <f t="shared" si="3"/>
-        <v>21785047.314389657</v>
+        <v>-19756173.479569498</v>
       </c>
       <c r="H17" s="52">
         <f t="shared" si="3"/>
-        <v>22281315.581572928</v>
+        <v>-19918428.790287238</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="3"/>
-        <v>22777583.848756079</v>
+        <v>-20080684.101004977</v>
       </c>
       <c r="J17" s="52">
         <f t="shared" si="3"/>
-        <v>23273852.115939349</v>
+        <v>-20242939.411722772</v>
       </c>
       <c r="K17" s="52">
         <f t="shared" si="3"/>
-        <v>23770120.383122616</v>
+        <v>-20405194.722440571</v>
       </c>
       <c r="L17" s="52">
         <f t="shared" si="3"/>
-        <v>24266388.650305886</v>
+        <v>-20567450.03315831</v>
       </c>
       <c r="M17" s="52">
         <f t="shared" si="3"/>
-        <v>24032415.433779933</v>
+        <v>-20090401.197460778</v>
       </c>
       <c r="N17" s="52">
         <f t="shared" si="3"/>
-        <v>23798442.217253979</v>
+        <v>-19613352.36176319</v>
       </c>
       <c r="O17" s="52">
         <f t="shared" si="3"/>
-        <v>23564469.000728082</v>
+        <v>-19136303.526065603</v>
       </c>
       <c r="P17" s="52">
         <f t="shared" si="3"/>
-        <v>23330495.784202185</v>
+        <v>-18659254.690368015</v>
       </c>
       <c r="Q17" s="52">
         <f t="shared" si="3"/>
-        <v>23096522.567676231</v>
+        <v>-18182205.854670428</v>
       </c>
       <c r="R17" s="52">
         <f t="shared" si="3"/>
-        <v>21842326.277906068</v>
+        <v>-17049526.414044976</v>
       </c>
       <c r="S17" s="52">
         <f t="shared" si="3"/>
-        <v>20588129.988136187</v>
+        <v>-15916846.973419525</v>
       </c>
       <c r="T17" s="52">
         <f t="shared" si="3"/>
-        <v>19333933.69836631</v>
+        <v>-14784167.532794071</v>
       </c>
       <c r="U17" s="52">
         <f t="shared" si="3"/>
-        <v>18079737.408595975</v>
+        <v>-13651488.092168165</v>
       </c>
       <c r="V17" s="52">
         <f t="shared" si="3"/>
-        <v>16825541.118826095</v>
+        <v>-12518808.651542714</v>
       </c>
       <c r="W17" s="52">
         <f t="shared" si="3"/>
-        <v>13460432.895060876</v>
+        <v>-10015046.921233989</v>
       </c>
       <c r="X17" s="52">
         <f t="shared" si="3"/>
-        <v>10095324.671295201</v>
+        <v>-7511285.1909261737</v>
       </c>
       <c r="Y17" s="52">
         <f t="shared" si="3"/>
-        <v>6730216.4475304382</v>
+        <v>-5007523.4606174491</v>
       </c>
       <c r="Z17" s="52">
         <f t="shared" si="3"/>
-        <v>3365108.2237647641</v>
+        <v>-2503761.7303087246</v>
       </c>
       <c r="AA17" s="52">
         <f t="shared" si="3"/>
@@ -8515,285 +8555,285 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="50" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,B$15)</f>
-        <v>19.252513446007924</v>
+        <f t="shared" ref="B18:G18" si="4">TREND($F12:$G12,$F11:$G11,B$15)</f>
+        <v>18.424505025812778</v>
       </c>
       <c r="C18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,C$15)</f>
-        <v>20.372361501590603</v>
+        <f t="shared" si="4"/>
+        <v>19.247058613296758</v>
       </c>
       <c r="D18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,D$15)</f>
-        <v>21.492209557173283</v>
+        <f t="shared" si="4"/>
+        <v>20.069612200780739</v>
       </c>
       <c r="E18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,E$15)</f>
-        <v>22.612057612755962</v>
+        <f t="shared" si="4"/>
+        <v>20.892165788264492</v>
       </c>
       <c r="F18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,F$15)</f>
-        <v>23.731905668338641</v>
+        <f t="shared" si="4"/>
+        <v>21.714719375748473</v>
       </c>
       <c r="G18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,G$15)</f>
-        <v>24.851753723921775</v>
+        <f t="shared" si="4"/>
+        <v>22.537272963232454</v>
       </c>
       <c r="H18" s="50">
         <f>TREND($G12:$H12,$G11:$H11,H$15)</f>
-        <v>25.417882251394985</v>
+        <v>22.722369142467699</v>
       </c>
       <c r="I18" s="50">
         <f>TREND($G12:$H12,$G11:$H11,I$15)</f>
-        <v>25.984010778868424</v>
+        <v>22.907465321703114</v>
       </c>
       <c r="J18" s="50">
         <f>TREND($G12:$H12,$G11:$H11,J$15)</f>
-        <v>26.550139306342089</v>
+        <v>23.092561500938587</v>
       </c>
       <c r="K18" s="50">
         <f>TREND($G12:$H12,$G11:$H11,K$15)</f>
-        <v>27.116267833815527</v>
+        <v>23.277657680174002</v>
       </c>
       <c r="L18" s="50">
         <f>TREND($G12:$H12,$G11:$H11,L$15)</f>
-        <v>27.682396361288966</v>
+        <v>23.462753859409418</v>
       </c>
       <c r="M18" s="50">
         <f>TREND($H12:$I12,$H11:$I11,M$15)</f>
-        <v>27.41548646335832</v>
+        <v>22.918550305111467</v>
       </c>
       <c r="N18" s="50">
         <f>TREND($H12:$I12,$H11:$I11,N$15)</f>
-        <v>27.148576565427788</v>
+        <v>22.374346750813629</v>
       </c>
       <c r="O18" s="50">
         <f>TREND($H12:$I12,$H11:$I11,O$15)</f>
-        <v>26.881666667497257</v>
+        <v>21.830143196515564</v>
       </c>
       <c r="P18" s="50">
         <f>TREND($H12:$I12,$H11:$I11,P$15)</f>
-        <v>26.614756769566725</v>
+        <v>21.285939642217727</v>
       </c>
       <c r="Q18" s="50">
         <f>TREND($H12:$I12,$H11:$I11,Q$15)</f>
-        <v>26.347846871636193</v>
+        <v>20.741736087919662</v>
       </c>
       <c r="R18" s="50">
         <f>TREND($I12:$J12,$I11:$J11,R$15)</f>
-        <v>24.917095913650883</v>
+        <v>19.449608047051242</v>
       </c>
       <c r="S18" s="50">
         <f>TREND($I12:$J12,$I11:$J11,S$15)</f>
-        <v>23.486344955665118</v>
+        <v>18.157480006182595</v>
       </c>
       <c r="T18" s="50">
         <f>TREND($I12:$J12,$I11:$J11,T$15)</f>
-        <v>22.055593997679807</v>
+        <v>16.865351965313948</v>
       </c>
       <c r="U18" s="50">
         <f>TREND($I12:$J12,$I11:$J11,U$15)</f>
-        <v>20.624843039694497</v>
+        <v>15.573223924445301</v>
       </c>
       <c r="V18" s="50">
         <f>TREND($I12:$J12,$I11:$J11,V$15)</f>
-        <v>19.194092081708732</v>
+        <v>14.281095883576199</v>
       </c>
       <c r="W18" s="50">
         <f>TREND($J12:$K12,$J11:$K11,W$15)</f>
-        <v>15.35527366536644</v>
+        <v>11.424876706861141</v>
       </c>
       <c r="X18" s="50">
         <f>TREND($J12:$K12,$J11:$K11,X$15)</f>
-        <v>11.516455249025057</v>
+        <v>8.5686575301460834</v>
       </c>
       <c r="Y18" s="50">
         <f>TREND($J12:$K12,$J11:$K11,Y$15)</f>
-        <v>7.6776368326836746</v>
+        <v>5.7124383534310255</v>
       </c>
       <c r="Z18" s="50">
         <f>TREND($J12:$K12,$J11:$K11,Z$15)</f>
-        <v>3.8388184163413825</v>
+        <v>2.856219176715058</v>
       </c>
       <c r="AA18" s="50">
         <f>TREND($J12:$K12,$J11:$K11,AA$15)</f>
         <v>0</v>
       </c>
       <c r="AB18" s="50">
-        <f t="shared" ref="AB18:AI18" si="4">AA18</f>
+        <f t="shared" ref="AB18:AI18" si="5">AA18</f>
         <v>0</v>
       </c>
       <c r="AC18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH18" s="50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="50" t="s">
         <v>104</v>
       </c>
       <c r="B19" s="52">
         <f>B18*1000</f>
-        <v>19252.513446007924</v>
+        <v>18424.505025812778</v>
       </c>
       <c r="C19" s="52">
-        <f t="shared" ref="C19:AI19" si="5">C18*1000</f>
-        <v>20372.361501590603</v>
+        <f t="shared" ref="C19:AI19" si="6">C18*1000</f>
+        <v>19247.058613296758</v>
       </c>
       <c r="D19" s="52">
-        <f t="shared" si="5"/>
-        <v>21492.209557173283</v>
+        <f t="shared" si="6"/>
+        <v>20069.612200780739</v>
       </c>
       <c r="E19" s="52">
-        <f t="shared" si="5"/>
-        <v>22612.057612755962</v>
+        <f t="shared" si="6"/>
+        <v>20892.165788264494</v>
       </c>
       <c r="F19" s="52">
-        <f t="shared" si="5"/>
-        <v>23731.905668338641</v>
+        <f t="shared" si="6"/>
+        <v>21714.719375748471</v>
       </c>
       <c r="G19" s="52">
-        <f t="shared" si="5"/>
-        <v>24851.753723921775</v>
+        <f t="shared" si="6"/>
+        <v>22537.272963232455</v>
       </c>
       <c r="H19" s="52">
-        <f t="shared" si="5"/>
-        <v>25417.882251394985</v>
+        <f t="shared" si="6"/>
+        <v>22722.369142467698</v>
       </c>
       <c r="I19" s="52">
-        <f t="shared" si="5"/>
-        <v>25984.010778868425</v>
+        <f t="shared" si="6"/>
+        <v>22907.465321703115</v>
       </c>
       <c r="J19" s="52">
-        <f t="shared" si="5"/>
-        <v>26550.139306342091</v>
+        <f t="shared" si="6"/>
+        <v>23092.561500938587</v>
       </c>
       <c r="K19" s="52">
-        <f t="shared" si="5"/>
-        <v>27116.267833815527</v>
+        <f t="shared" si="6"/>
+        <v>23277.657680174001</v>
       </c>
       <c r="L19" s="52">
-        <f t="shared" si="5"/>
-        <v>27682.396361288964</v>
+        <f t="shared" si="6"/>
+        <v>23462.753859409419</v>
       </c>
       <c r="M19" s="52">
-        <f t="shared" si="5"/>
-        <v>27415.48646335832</v>
+        <f t="shared" si="6"/>
+        <v>22918.550305111465</v>
       </c>
       <c r="N19" s="52">
-        <f t="shared" si="5"/>
-        <v>27148.576565427789</v>
+        <f t="shared" si="6"/>
+        <v>22374.346750813631</v>
       </c>
       <c r="O19" s="52">
-        <f t="shared" si="5"/>
-        <v>26881.666667497258</v>
+        <f t="shared" si="6"/>
+        <v>21830.143196515564</v>
       </c>
       <c r="P19" s="52">
-        <f t="shared" si="5"/>
-        <v>26614.756769566724</v>
+        <f t="shared" si="6"/>
+        <v>21285.939642217727</v>
       </c>
       <c r="Q19" s="52">
-        <f t="shared" si="5"/>
-        <v>26347.846871636193</v>
+        <f t="shared" si="6"/>
+        <v>20741.736087919664</v>
       </c>
       <c r="R19" s="52">
-        <f t="shared" si="5"/>
-        <v>24917.095913650883</v>
+        <f t="shared" si="6"/>
+        <v>19449.608047051242</v>
       </c>
       <c r="S19" s="52">
-        <f t="shared" si="5"/>
-        <v>23486.344955665118</v>
+        <f t="shared" si="6"/>
+        <v>18157.480006182595</v>
       </c>
       <c r="T19" s="52">
-        <f t="shared" si="5"/>
-        <v>22055.593997679807</v>
+        <f t="shared" si="6"/>
+        <v>16865.351965313948</v>
       </c>
       <c r="U19" s="52">
-        <f t="shared" si="5"/>
-        <v>20624.843039694497</v>
+        <f t="shared" si="6"/>
+        <v>15573.223924445301</v>
       </c>
       <c r="V19" s="52">
-        <f t="shared" si="5"/>
-        <v>19194.092081708732</v>
+        <f t="shared" si="6"/>
+        <v>14281.095883576199</v>
       </c>
       <c r="W19" s="52">
-        <f t="shared" si="5"/>
-        <v>15355.27366536644</v>
+        <f t="shared" si="6"/>
+        <v>11424.876706861141</v>
       </c>
       <c r="X19" s="52">
-        <f t="shared" si="5"/>
-        <v>11516.455249025057</v>
+        <f t="shared" si="6"/>
+        <v>8568.6575301460834</v>
       </c>
       <c r="Y19" s="52">
-        <f t="shared" si="5"/>
-        <v>7677.6368326836746</v>
+        <f t="shared" si="6"/>
+        <v>5712.4383534310255</v>
       </c>
       <c r="Z19" s="52">
-        <f t="shared" si="5"/>
-        <v>3838.8184163413825</v>
+        <f t="shared" si="6"/>
+        <v>2856.219176715058</v>
       </c>
       <c r="AA19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AH19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AI19" s="52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8803,7 +8843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8813,13 +8853,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -8926,7 +8966,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -9033,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -9140,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9247,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9354,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9461,148 +9501,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <f>'India Dist Solar PV Data'!B62</f>
-        <v>47141.329888096669</v>
+        <v>44204.706155214633</v>
       </c>
       <c r="C7" s="3">
         <f>'India Dist Solar PV Data'!C62</f>
-        <v>58092.394254174898</v>
+        <v>54421.614588080702</v>
       </c>
       <c r="D7" s="3">
         <f>'India Dist Solar PV Data'!D62</f>
-        <v>136828.61286650962</v>
+        <v>120899.81318870437</v>
       </c>
       <c r="E7" s="3">
         <f>'India Dist Solar PV Data'!E62</f>
-        <v>218656.27273983654</v>
+        <v>189983.80740903999</v>
       </c>
       <c r="F7" s="3">
         <f>'India Dist Solar PV Data'!F62</f>
-        <v>303575.37387420097</v>
+        <v>261673.597249087</v>
       </c>
       <c r="G7" s="3">
         <f>'India Dist Solar PV Data'!G62</f>
-        <v>387369.58902203594</v>
+        <v>332351.69811469421</v>
       </c>
       <c r="H7" s="3">
         <f>'India Dist Solar PV Data'!H62</f>
-        <v>472485.27150984347</v>
+        <v>404143.6722566688</v>
       </c>
       <c r="I7" s="3">
         <f>'India Dist Solar PV Data'!I62</f>
-        <v>583079.43928762898</v>
+        <v>424768.42679583398</v>
       </c>
       <c r="J7" s="3">
         <f>'India Dist Solar PV Data'!J62</f>
-        <v>695381.41461814661</v>
+        <v>445670.92953215772</v>
       </c>
       <c r="K7" s="3">
         <f>'India Dist Solar PV Data'!K62</f>
-        <v>809391.19750137231</v>
+        <v>466851.18046565226</v>
       </c>
       <c r="L7" s="3">
         <f>'India Dist Solar PV Data'!L62</f>
-        <v>925108.7879373061</v>
+        <v>488309.1795963117</v>
       </c>
       <c r="M7" s="3">
         <f>'India Dist Solar PV Data'!M62</f>
-        <v>1042534.1859259477</v>
+        <v>510044.92692412937</v>
       </c>
       <c r="N7" s="3">
         <f>'India Dist Solar PV Data'!N62</f>
-        <v>1253799.7321187551</v>
+        <v>612826.64886017866</v>
       </c>
       <c r="O7" s="3">
         <f>'India Dist Solar PV Data'!O62</f>
-        <v>1468189.8997171496</v>
+        <v>717128.1751621624</v>
       </c>
       <c r="P7" s="3">
         <f>'India Dist Solar PV Data'!P62</f>
-        <v>1685704.6887211315</v>
+        <v>822949.50583010516</v>
       </c>
       <c r="Q7" s="3">
         <f>'India Dist Solar PV Data'!Q62</f>
-        <v>1906344.0991307003</v>
+        <v>930290.64086403314</v>
       </c>
       <c r="R7" s="3">
         <f>'India Dist Solar PV Data'!R62</f>
-        <v>2130108.1309458036</v>
+        <v>1039151.580263895</v>
       </c>
       <c r="S7" s="3">
         <f>'India Dist Solar PV Data'!S62</f>
-        <v>2450769.8745802259</v>
+        <v>1204207.21260181</v>
       </c>
       <c r="T7" s="3">
         <f>'India Dist Solar PV Data'!T62</f>
-        <v>2775944.8979012682</v>
+        <v>1371592.3137461771</v>
       </c>
       <c r="U7" s="3">
         <f>'India Dist Solar PV Data'!U62</f>
-        <v>3105633.2009089896</v>
+        <v>1541306.883697053</v>
       </c>
       <c r="V7" s="3">
         <f>'India Dist Solar PV Data'!V62</f>
-        <v>3439834.7836032705</v>
+        <v>1713350.9224543255</v>
       </c>
       <c r="W7" s="3">
         <f>'India Dist Solar PV Data'!W62</f>
-        <v>3778549.6459843293</v>
+        <v>1887724.4300180506</v>
       </c>
       <c r="X7" s="3">
         <f>'India Dist Solar PV Data'!X62</f>
-        <v>4392034.5267241877</v>
+        <v>2071188.0327117047</v>
       </c>
       <c r="Y7" s="3">
         <f>'India Dist Solar PV Data'!Y62</f>
-        <v>5013891.9629653841</v>
+        <v>2257077.6461954601</v>
       </c>
       <c r="Z7" s="3">
         <f>'India Dist Solar PV Data'!Z62</f>
-        <v>5644121.9547074828</v>
+        <v>2445393.2704693712</v>
       </c>
       <c r="AA7" s="3">
         <f>'India Dist Solar PV Data'!AA62</f>
-        <v>6282724.5019507017</v>
+        <v>2636134.9055334926</v>
       </c>
       <c r="AB7" s="3">
         <f>'India Dist Solar PV Data'!AB62</f>
-        <v>6929699.6046952643</v>
+        <v>2829302.5513877142</v>
       </c>
       <c r="AC7" s="3">
         <f>'India Dist Solar PV Data'!AC62</f>
-        <v>7636214.9304521754</v>
+        <v>2973481.6029787473</v>
       </c>
       <c r="AD7" s="3">
         <f>'India Dist Solar PV Data'!AD62</f>
-        <v>8351808.3017598893</v>
+        <v>3119377.7705824776</v>
       </c>
       <c r="AE7" s="3">
         <f>'India Dist Solar PV Data'!AE62</f>
-        <v>9076479.7186181806</v>
+        <v>3266991.054198904</v>
       </c>
       <c r="AF7" s="3">
         <f>'India Dist Solar PV Data'!AF62</f>
-        <v>9810229.1810275055</v>
+        <v>3416321.4538279697</v>
       </c>
       <c r="AG7" s="3">
         <f>'India Dist Solar PV Data'!AG62</f>
-        <v>10553056.688987402</v>
+        <v>3567368.9694697894</v>
       </c>
       <c r="AH7" s="3">
         <f>'India Dist Solar PV Data'!AH62</f>
-        <v>11304962.242498333</v>
+        <v>3720133.6011243053</v>
       </c>
       <c r="AI7" s="3">
         <f>'India Dist Solar PV Data'!AI62</f>
-        <v>12065945.841560068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>3874615.3487915187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -9709,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -9816,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9923,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10030,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10137,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -10244,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -10351,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -10458,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -10565,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -10678,7 +10718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10688,13 +10728,13 @@
       <selection activeCell="B15" sqref="B15:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -10801,7 +10841,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10908,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -11015,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11122,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -11229,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -11336,148 +11376,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <f>'India Dist Solar PV Data'!B63</f>
-        <v>95913.431737873907</v>
+        <v>89951.195674147748</v>
       </c>
       <c r="C7" s="3">
         <f>'India Dist Solar PV Data'!C63</f>
-        <v>117945.16409188867</v>
+        <v>110492.36901215576</v>
       </c>
       <c r="D7" s="3">
         <f>'India Dist Solar PV Data'!D63</f>
-        <v>255225.36436111154</v>
+        <v>226150.84602683419</v>
       </c>
       <c r="E7" s="3">
         <f>'India Dist Solar PV Data'!E63</f>
-        <v>397882.13029555359</v>
+        <v>346330.05897312897</v>
       </c>
       <c r="F7" s="3">
         <f>'India Dist Solar PV Data'!F63</f>
-        <v>545915.4618953059</v>
+        <v>471030.00785094732</v>
       </c>
       <c r="G7" s="3">
         <f>'India Dist Solar PV Data'!G63</f>
-        <v>691795.50569981232</v>
+        <v>593787.60692196572</v>
       </c>
       <c r="H7" s="3">
         <f>'India Dist Solar PV Data'!H63</f>
-        <v>839973.8160175262</v>
+        <v>718477.63956734713</v>
       </c>
       <c r="I7" s="3">
         <f>'India Dist Solar PV Data'!I63</f>
-        <v>993413.81128958729</v>
+        <v>734022.65605237044</v>
       </c>
       <c r="J7" s="3">
         <f>'India Dist Solar PV Data'!J63</f>
-        <v>1149199.4666610421</v>
+        <v>749723.65813906328</v>
       </c>
       <c r="K7" s="3">
         <f>'India Dist Solar PV Data'!K63</f>
-        <v>1307330.7821317932</v>
+        <v>765580.64582748909</v>
       </c>
       <c r="L7" s="3">
         <f>'India Dist Solar PV Data'!L63</f>
-        <v>1467807.7577019392</v>
+        <v>781593.61911764764</v>
       </c>
       <c r="M7" s="3">
         <f>'India Dist Solar PV Data'!M63</f>
-        <v>1630630.3933713811</v>
+        <v>797762.57800953905</v>
       </c>
       <c r="N7" s="3">
         <f>'India Dist Solar PV Data'!N63</f>
-        <v>1885373.6022094879</v>
+        <v>921595.34408677509</v>
       </c>
       <c r="O7" s="3">
         <f>'India Dist Solar PV Data'!O63</f>
-        <v>2143839.956802954</v>
+        <v>1047237.3542179934</v>
       </c>
       <c r="P7" s="3">
         <f>'India Dist Solar PV Data'!P63</f>
-        <v>2406029.4571517259</v>
+        <v>1174688.6084032468</v>
       </c>
       <c r="Q7" s="3">
         <f>'India Dist Solar PV Data'!Q63</f>
-        <v>2671942.1032560091</v>
+        <v>1303949.1066425357</v>
       </c>
       <c r="R7" s="3">
         <f>'India Dist Solar PV Data'!R63</f>
-        <v>2941577.8951157006</v>
+        <v>1435018.8489358597</v>
       </c>
       <c r="S7" s="3">
         <f>'India Dist Solar PV Data'!S63</f>
-        <v>3267893.0668226746</v>
+        <v>1604748.9071024503</v>
       </c>
       <c r="T7" s="3">
         <f>'India Dist Solar PV Data'!T63</f>
-        <v>3598715.5976737011</v>
+        <v>1776833.9260721761</v>
       </c>
       <c r="U7" s="3">
         <f>'India Dist Solar PV Data'!U63</f>
-        <v>3934045.4876689985</v>
+        <v>1951273.9058449888</v>
       </c>
       <c r="V7" s="3">
         <f>'India Dist Solar PV Data'!V63</f>
-        <v>4273882.7368084472</v>
+        <v>2128068.8464208813</v>
       </c>
       <c r="W7" s="3">
         <f>'India Dist Solar PV Data'!W63</f>
-        <v>4618227.3450919464</v>
+        <v>2307218.7477998571</v>
       </c>
       <c r="X7" s="3">
         <f>'India Dist Solar PV Data'!X63</f>
-        <v>5180895.4675787874</v>
+        <v>2455042.562538736</v>
       </c>
       <c r="Y7" s="3">
         <f>'India Dist Solar PV Data'!Y63</f>
-        <v>5751124.2514883587</v>
+        <v>2604740.3715285175</v>
       </c>
       <c r="Z7" s="3">
         <f>'India Dist Solar PV Data'!Z63</f>
-        <v>6328913.6968205534</v>
+        <v>2756312.1747692572</v>
       </c>
       <c r="AA7" s="3">
         <f>'India Dist Solar PV Data'!AA63</f>
-        <v>6914263.803575593</v>
+        <v>2909757.972260844</v>
       </c>
       <c r="AB7" s="3">
         <f>'India Dist Solar PV Data'!AB63</f>
-        <v>7507174.5717530362</v>
+        <v>3065077.76400339</v>
       </c>
       <c r="AC7" s="3">
         <f>'India Dist Solar PV Data'!AC63</f>
-        <v>8020853.9449551776</v>
+        <v>3136182.6079849517</v>
       </c>
       <c r="AD7" s="3">
         <f>'India Dist Solar PV Data'!AD63</f>
-        <v>8540897.3072443791</v>
+        <v>3207974.4682891713</v>
       </c>
       <c r="AE7" s="3">
         <f>'India Dist Solar PV Data'!AE63</f>
-        <v>9067304.6586206388</v>
+        <v>3280453.3449160373</v>
       </c>
       <c r="AF7" s="3">
         <f>'India Dist Solar PV Data'!AF63</f>
-        <v>9600075.9990841839</v>
+        <v>3353619.2378655216</v>
       </c>
       <c r="AG7" s="3">
         <f>'India Dist Solar PV Data'!AG63</f>
-        <v>10139211.328634901</v>
+        <v>3427472.1471376503</v>
       </c>
       <c r="AH7" s="3">
         <f>'India Dist Solar PV Data'!AH63</f>
-        <v>10684710.647272795</v>
+        <v>3502012.0727323964</v>
       </c>
       <c r="AI7" s="3">
         <f>'India Dist Solar PV Data'!AI63</f>
-        <v>11236573.954997856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>3577239.0146497744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -11584,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -11691,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -11798,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11905,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12012,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12119,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -12226,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -12333,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -12440,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -12553,7 +12593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12563,14 +12603,14 @@
       <selection activeCell="B11" sqref="B11:AI11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="35" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="35" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -12677,7 +12717,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -12784,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12891,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -12998,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13105,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -13212,148 +13252,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3">
         <f>'India Dist Solar PV Data'!B64</f>
-        <v>429164.28487792838</v>
+        <v>402467.70548810391</v>
       </c>
       <c r="C7" s="3">
         <f>'India Dist Solar PV Data'!C64</f>
-        <v>528112.67503812385</v>
+        <v>494741.95080079848</v>
       </c>
       <c r="D7" s="3">
         <f>'India Dist Solar PV Data'!D64</f>
-        <v>1176161.9316827271</v>
+        <v>1041151.9776467067</v>
       </c>
       <c r="E7" s="3">
         <f>'India Dist Solar PV Data'!E64</f>
-        <v>1849615.2091061706</v>
+        <v>1608941.5991466462</v>
       </c>
       <c r="F7" s="3">
         <f>'India Dist Solar PV Data'!F64</f>
-        <v>2548472.5073084496</v>
+        <v>2198110.8153002448</v>
       </c>
       <c r="G7" s="3">
         <f>'India Dist Solar PV Data'!G64</f>
-        <v>3237495.2841654732</v>
+        <v>2778417.9151100516</v>
       </c>
       <c r="H7" s="3">
         <f>'India Dist Solar PV Data'!H64</f>
-        <v>3937377.262581965</v>
+        <v>3367863.9354723124</v>
       </c>
       <c r="I7" s="3">
         <f>'India Dist Solar PV Data'!I64</f>
-        <v>4729479.7517315997</v>
+        <v>3476373.248544585</v>
       </c>
       <c r="J7" s="3">
         <f>'India Dist Solar PV Data'!J64</f>
-        <v>5533742.6438373951</v>
+        <v>3586183.7630136483</v>
       </c>
       <c r="K7" s="3">
         <f>'India Dist Solar PV Data'!K64</f>
-        <v>6350165.9388993485</v>
+        <v>3697295.4788794033</v>
       </c>
       <c r="L7" s="3">
         <f>'India Dist Solar PV Data'!L64</f>
-        <v>7178749.63691766</v>
+        <v>3809708.3961418499</v>
       </c>
       <c r="M7" s="3">
         <f>'India Dist Solar PV Data'!M64</f>
-        <v>8019493.7378919367</v>
+        <v>3923422.5148009895</v>
       </c>
       <c r="N7" s="3">
         <f>'India Dist Solar PV Data'!N64</f>
-        <v>9417520.0029843263</v>
+        <v>4603265.9788407357</v>
       </c>
       <c r="O7" s="3">
         <f>'India Dist Solar PV Data'!O64</f>
-        <v>10836089.569560109</v>
+        <v>5293096.5881402902</v>
       </c>
       <c r="P7" s="3">
         <f>'India Dist Solar PV Data'!P64</f>
-        <v>12275202.437618472</v>
+        <v>5992914.3426998258</v>
       </c>
       <c r="Q7" s="3">
         <f>'India Dist Solar PV Data'!Q64</f>
-        <v>13734858.607159816</v>
+        <v>6702719.2425195519</v>
       </c>
       <c r="R7" s="3">
         <f>'India Dist Solar PV Data'!R64</f>
-        <v>15215058.07818415</v>
+        <v>7422511.287599056</v>
       </c>
       <c r="S7" s="3">
         <f>'India Dist Solar PV Data'!S64</f>
-        <v>17155988.824208494</v>
+        <v>8426868.3591124658</v>
       </c>
       <c r="T7" s="3">
         <f>'India Dist Solar PV Data'!T64</f>
-        <v>19123981.486724913</v>
+        <v>9445278.7194548994</v>
       </c>
       <c r="U7" s="3">
         <f>'India Dist Solar PV Data'!U64</f>
-        <v>21119036.065733436</v>
+        <v>10477742.36862554</v>
       </c>
       <c r="V7" s="3">
         <f>'India Dist Solar PV Data'!V64</f>
-        <v>23141152.561234832</v>
+        <v>11524259.306625193</v>
       </c>
       <c r="W7" s="3">
         <f>'India Dist Solar PV Data'!W64</f>
-        <v>25190330.973228723</v>
+        <v>12584829.533453453</v>
       </c>
       <c r="X7" s="3">
         <f>'India Dist Solar PV Data'!X64</f>
-        <v>28718789.982908927</v>
+        <v>13578691.785751052</v>
       </c>
       <c r="Y7" s="3">
         <f>'India Dist Solar PV Data'!Y64</f>
-        <v>32295048.64336079</v>
+        <v>14585454.053171825</v>
       </c>
       <c r="Z7" s="3">
         <f>'India Dist Solar PV Data'!Z64</f>
-        <v>35919106.95458477</v>
+        <v>15605116.335715776</v>
       </c>
       <c r="AA7" s="3">
         <f>'India Dist Solar PV Data'!AA64</f>
-        <v>39590964.916579112</v>
+        <v>16637678.633382898</v>
       </c>
       <c r="AB7" s="3">
         <f>'India Dist Solar PV Data'!AB64</f>
-        <v>43310622.529344678</v>
+        <v>17683140.946173202</v>
       </c>
       <c r="AC7" s="3">
         <f>'India Dist Solar PV Data'!AC64</f>
-        <v>46971206.626220711</v>
+        <v>18328992.632891141</v>
       </c>
       <c r="AD7" s="3">
         <f>'India Dist Solar PV Data'!AD64</f>
-        <v>50678116.827011555</v>
+        <v>18982056.716614835</v>
       </c>
       <c r="AE7" s="3">
         <f>'India Dist Solar PV Data'!AE64</f>
-        <v>54431353.131715432</v>
+        <v>19642333.197344743</v>
       </c>
       <c r="AF7" s="3">
         <f>'India Dist Solar PV Data'!AF64</f>
-        <v>58230915.540334158</v>
+        <v>20309822.075080626</v>
       </c>
       <c r="AG7" s="3">
         <f>'India Dist Solar PV Data'!AG64</f>
-        <v>62076804.05286587</v>
+        <v>20984523.349822275</v>
       </c>
       <c r="AH7" s="3">
         <f>'India Dist Solar PV Data'!AH64</f>
-        <v>65969018.669312447</v>
+        <v>21666437.021570135</v>
       </c>
       <c r="AI7" s="3">
         <f>'India Dist Solar PV Data'!AI64</f>
-        <v>69907559.38967295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>22355563.090323985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -13460,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -13567,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -13674,109 +13714,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <f>'Back up generators'!B17</f>
-        <v>16876753.286770735</v>
+        <v>-16150921.105627503</v>
       </c>
       <c r="C11" s="3">
         <f>'Back up generators'!C17</f>
-        <v>17858412.092294428</v>
+        <v>-16871971.580415901</v>
       </c>
       <c r="D11" s="3">
         <f>'Back up generators'!D17</f>
-        <v>18840070.897818122</v>
+        <v>-17593022.055204302</v>
       </c>
       <c r="E11" s="3">
         <f>'Back up generators'!E17</f>
-        <v>19821729.703342043</v>
+        <v>-18314072.5299927</v>
       </c>
       <c r="F11" s="3">
         <f>'Back up generators'!F17</f>
-        <v>20803388.508865736</v>
+        <v>-19035123.004781097</v>
       </c>
       <c r="G11" s="3">
         <f>'Back up generators'!G17</f>
-        <v>21785047.314389657</v>
+        <v>-19756173.479569498</v>
       </c>
       <c r="H11" s="3">
         <f>'Back up generators'!H17</f>
-        <v>22281315.581572928</v>
+        <v>-19918428.790287238</v>
       </c>
       <c r="I11" s="3">
         <f>'Back up generators'!I17</f>
-        <v>22777583.848756079</v>
+        <v>-20080684.101004977</v>
       </c>
       <c r="J11" s="3">
         <f>'Back up generators'!J17</f>
-        <v>23273852.115939349</v>
+        <v>-20242939.411722772</v>
       </c>
       <c r="K11" s="3">
         <f>'Back up generators'!K17</f>
-        <v>23770120.383122616</v>
+        <v>-20405194.722440571</v>
       </c>
       <c r="L11" s="3">
         <f>'Back up generators'!L17</f>
-        <v>24266388.650305886</v>
+        <v>-20567450.03315831</v>
       </c>
       <c r="M11" s="3">
         <f>'Back up generators'!M17</f>
-        <v>24032415.433779933</v>
+        <v>-20090401.197460778</v>
       </c>
       <c r="N11" s="3">
         <f>'Back up generators'!N17</f>
-        <v>23798442.217253979</v>
+        <v>-19613352.36176319</v>
       </c>
       <c r="O11" s="3">
         <f>'Back up generators'!O17</f>
-        <v>23564469.000728082</v>
+        <v>-19136303.526065603</v>
       </c>
       <c r="P11" s="3">
         <f>'Back up generators'!P17</f>
-        <v>23330495.784202185</v>
+        <v>-18659254.690368015</v>
       </c>
       <c r="Q11" s="3">
         <f>'Back up generators'!Q17</f>
-        <v>23096522.567676231</v>
+        <v>-18182205.854670428</v>
       </c>
       <c r="R11" s="3">
         <f>'Back up generators'!R17</f>
-        <v>21842326.277906068</v>
+        <v>-17049526.414044976</v>
       </c>
       <c r="S11" s="3">
         <f>'Back up generators'!S17</f>
-        <v>20588129.988136187</v>
+        <v>-15916846.973419525</v>
       </c>
       <c r="T11" s="3">
         <f>'Back up generators'!T17</f>
-        <v>19333933.69836631</v>
+        <v>-14784167.532794071</v>
       </c>
       <c r="U11" s="3">
         <f>'Back up generators'!U17</f>
-        <v>18079737.408595975</v>
+        <v>-13651488.092168165</v>
       </c>
       <c r="V11" s="3">
         <f>'Back up generators'!V17</f>
-        <v>16825541.118826095</v>
+        <v>-12518808.651542714</v>
       </c>
       <c r="W11" s="3">
         <f>'Back up generators'!W17</f>
-        <v>13460432.895060876</v>
+        <v>-10015046.921233989</v>
       </c>
       <c r="X11" s="3">
         <f>'Back up generators'!X17</f>
-        <v>10095324.671295201</v>
+        <v>-7511285.1909261737</v>
       </c>
       <c r="Y11" s="3">
         <f>'Back up generators'!Y17</f>
-        <v>6730216.4475304382</v>
+        <v>-5007523.4606174491</v>
       </c>
       <c r="Z11" s="3">
         <f>'Back up generators'!Z17</f>
-        <v>3365108.2237647641</v>
+        <v>-2503761.7303087246</v>
       </c>
       <c r="AA11" s="3">
         <f>'Back up generators'!AA17</f>
@@ -13815,7 +13855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -13922,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14029,7 +14069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -14136,7 +14176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -14243,7 +14283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -14350,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -14463,23 +14503,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:AI17"/>
+      <selection activeCell="B2" sqref="B2:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -14586,7 +14626,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -14693,7 +14733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14800,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14907,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -15014,7 +15054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -15121,148 +15161,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="40">
         <f>'India Dist Solar PV Data'!B45</f>
-        <v>30.051265405681704</v>
+        <v>28.17925077641803</v>
       </c>
       <c r="C7" s="40">
         <f>'India Dist Solar PV Data'!C45</f>
-        <v>37.032259419234492</v>
+        <v>34.692241132660229</v>
       </c>
       <c r="D7" s="40">
         <f>'India Dist Solar PV Data'!D45</f>
-        <v>85.485932674231435</v>
+        <v>75.53415235349803</v>
       </c>
       <c r="E7" s="40">
         <f>'India Dist Solar PV Data'!E45</f>
-        <v>133.93960592921417</v>
+        <v>116.37606357433583</v>
       </c>
       <c r="F7" s="40">
         <f>'India Dist Solar PV Data'!F45</f>
-        <v>182.39327918421111</v>
+        <v>157.21797479517363</v>
       </c>
       <c r="G7" s="40">
         <f>'India Dist Solar PV Data'!G45</f>
-        <v>230.84695243919384</v>
+        <v>198.05988601599722</v>
       </c>
       <c r="H7" s="40">
         <f>'India Dist Solar PV Data'!H45</f>
-        <v>279.30062569419078</v>
+        <v>238.90179723683502</v>
       </c>
       <c r="I7" s="40">
         <f>'India Dist Solar PV Data'!I45</f>
-        <v>341.9200689749573</v>
+        <v>249.08587064201271</v>
       </c>
       <c r="J7" s="40">
         <f>'India Dist Solar PV Data'!J45</f>
-        <v>404.53951225573803</v>
+        <v>259.26994404718687</v>
       </c>
       <c r="K7" s="40">
         <f>'India Dist Solar PV Data'!K45</f>
-        <v>467.15895553651876</v>
+        <v>269.4540174523645</v>
       </c>
       <c r="L7" s="40">
         <f>'India Dist Solar PV Data'!L45</f>
-        <v>529.77839881729949</v>
+        <v>279.63809085754224</v>
       </c>
       <c r="M7" s="40">
         <f>'India Dist Solar PV Data'!M45</f>
-        <v>592.39784209808022</v>
+        <v>289.82216426271634</v>
       </c>
       <c r="N7" s="40">
         <f>'India Dist Solar PV Data'!N45</f>
-        <v>706.96698811855185</v>
+        <v>345.54817574520769</v>
       </c>
       <c r="O7" s="40">
         <f>'India Dist Solar PV Data'!O45</f>
-        <v>821.53613413902349</v>
+        <v>401.27418722768482</v>
       </c>
       <c r="P7" s="40">
         <f>'India Dist Solar PV Data'!P45</f>
-        <v>936.10528015949512</v>
+        <v>457.00019871016195</v>
       </c>
       <c r="Q7" s="40">
         <f>'India Dist Solar PV Data'!Q45</f>
-        <v>1050.6744261799668</v>
+        <v>512.7262101926533</v>
       </c>
       <c r="R7" s="40">
         <f>'India Dist Solar PV Data'!R45</f>
-        <v>1165.24357220041</v>
+        <v>568.45222167513043</v>
       </c>
       <c r="S7" s="40">
         <f>'India Dist Solar PV Data'!S45</f>
-        <v>1330.7300527478105</v>
+        <v>653.86585014204002</v>
       </c>
       <c r="T7" s="40">
         <f>'India Dist Solar PV Data'!T45</f>
-        <v>1496.2165332951827</v>
+        <v>739.2794786089496</v>
       </c>
       <c r="U7" s="40">
         <f>'India Dist Solar PV Data'!U45</f>
-        <v>1661.7030138425548</v>
+        <v>824.69310707588761</v>
       </c>
       <c r="V7" s="40">
         <f>'India Dist Solar PV Data'!V45</f>
-        <v>1827.1894943898701</v>
+        <v>910.1067355427972</v>
       </c>
       <c r="W7" s="40">
         <f>'India Dist Solar PV Data'!W45</f>
-        <v>1992.6759749372422</v>
+        <v>995.52036400970678</v>
       </c>
       <c r="X7" s="40">
         <f>'India Dist Solar PV Data'!X45</f>
-        <v>2299.6688579972897</v>
+        <v>1084.4738557727851</v>
       </c>
       <c r="Y7" s="40">
         <f>'India Dist Solar PV Data'!Y45</f>
-        <v>2606.6617410574509</v>
+        <v>1173.427347535835</v>
       </c>
       <c r="Z7" s="40">
         <f>'India Dist Solar PV Data'!Z45</f>
-        <v>2913.6546241174983</v>
+        <v>1262.3808392988849</v>
       </c>
       <c r="AA7" s="40">
         <f>'India Dist Solar PV Data'!AA45</f>
-        <v>3220.6475071775458</v>
+        <v>1351.3343310619632</v>
       </c>
       <c r="AB7" s="40">
         <f>'India Dist Solar PV Data'!AB45</f>
-        <v>3527.6403902377069</v>
+        <v>1440.2878228250131</v>
       </c>
       <c r="AC7" s="40">
         <f>'India Dist Solar PV Data'!AC45</f>
-        <v>3860.5011728051295</v>
+        <v>1503.2485753952187</v>
       </c>
       <c r="AD7" s="40">
         <f>'India Dist Solar PV Data'!AD45</f>
-        <v>4193.3619553725521</v>
+        <v>1566.2093279654243</v>
       </c>
       <c r="AE7" s="40">
         <f>'India Dist Solar PV Data'!AE45</f>
-        <v>4526.222737939861</v>
+        <v>1629.1700805356299</v>
       </c>
       <c r="AF7" s="40">
         <f>'India Dist Solar PV Data'!AF45</f>
-        <v>4859.0835205072835</v>
+        <v>1692.1308331058071</v>
       </c>
       <c r="AG7" s="40">
         <f>'India Dist Solar PV Data'!AG45</f>
-        <v>5191.9443030745924</v>
+        <v>1755.0915856760128</v>
       </c>
       <c r="AH7" s="40">
         <f>'India Dist Solar PV Data'!AH45</f>
-        <v>5524.805085642015</v>
+        <v>1818.0523382462184</v>
       </c>
       <c r="AI7" s="40">
         <f>'India Dist Solar PV Data'!AI45</f>
-        <v>5857.6658682094376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>1881.013090816424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -15369,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -15476,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15583,7 +15623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15690,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -15797,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15904,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -16011,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -16118,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -16225,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>

--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\bldgs\BDEQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050CCBB2-5CA7-48DE-951B-59047B0F4BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED32F8A4-490A-42E9-B2A8-C8C9F3747AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="670" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1426,27 +1426,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.77734375" customWidth="1"/>
-    <col min="5" max="5" width="55.77734375" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="G4" s="49"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -1467,14 +1467,14 @@
       </c>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2015</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="G7" s="50"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="24" t="s">
         <v>44</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G8" s="57"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="G9" s="50"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1522,114 +1522,114 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="58"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" s="47"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="42" t="s">
         <v>62</v>
       </c>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
@@ -1656,13 +1656,13 @@
       <selection activeCell="B2" sqref="B2:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>1736.6455273125823</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3527,17 +3527,17 @@
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>10852.975854387068</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -5437,13 +5437,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -5475,7 +5475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>2.4519922608094245</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>16.024940863073965</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>42.411501425875059</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -5649,22 +5649,22 @@
         <v>93.317984596770344</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2012</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -5727,34 +5727,34 @@
         <v>13.765424201380537</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -5825,12 +5825,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>51</v>
       </c>
@@ -5847,7 +5847,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5864,7 +5864,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27" t="s">
         <v>23</v>
@@ -5903,7 +5903,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="32" t="s">
         <v>14</v>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="M34" s="34"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
       <c r="B35" s="36" t="s">
         <v>15</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="M35" s="39"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>1.7550915856760183</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1.6862644646691158</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>10.324068151035402</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>1943.9738433866296</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>1761.8360586343229</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>11117.429706062809</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>37</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -6684,7 +6684,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>38</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>40</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B58" s="41">
         <f>DSCF!B2</f>
         <v>0.17907500000000001</v>
@@ -7010,7 +7010,7 @@
         <v>0.23669999999999991</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>4030814.2124714274</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>3653152.9728897978</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -7570,19 +7570,19 @@
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.85899999999999999</v>
       </c>
@@ -7604,13 +7604,13 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="44">
         <v>2017</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -7831,17 +7831,17 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B17" sqref="B17:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="50"/>
+    <col min="1" max="1" width="25.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
@@ -7858,13 +7858,13 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>89</v>
       </c>
       <c r="G2" s="49"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>38</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>91</v>
       </c>
@@ -7946,13 +7946,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="53"/>
       <c r="C7" s="53"/>
@@ -7987,7 +7987,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
         <v>94</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
         <v>96</v>
       </c>
@@ -8059,10 +8059,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>98</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>99</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>102</v>
       </c>
@@ -8169,7 +8169,7 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B15" s="50">
         <v>2017</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
         <v>100</v>
       </c>
@@ -8414,109 +8414,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>103</v>
       </c>
       <c r="B17" s="52">
-        <f>B16*1000000</f>
-        <v>-16150921.105627503</v>
+        <f>-B16*1000000</f>
+        <v>16150921.105627503</v>
       </c>
       <c r="C17" s="52">
-        <f t="shared" ref="C17:AI17" si="3">C16*1000000</f>
-        <v>-16871971.580415901</v>
+        <f t="shared" ref="C17:AI17" si="3">-C16*1000000</f>
+        <v>16871971.580415901</v>
       </c>
       <c r="D17" s="52">
         <f t="shared" si="3"/>
-        <v>-17593022.055204302</v>
+        <v>17593022.055204302</v>
       </c>
       <c r="E17" s="52">
         <f t="shared" si="3"/>
-        <v>-18314072.5299927</v>
+        <v>18314072.5299927</v>
       </c>
       <c r="F17" s="52">
         <f t="shared" si="3"/>
-        <v>-19035123.004781097</v>
+        <v>19035123.004781097</v>
       </c>
       <c r="G17" s="52">
         <f t="shared" si="3"/>
-        <v>-19756173.479569498</v>
+        <v>19756173.479569498</v>
       </c>
       <c r="H17" s="52">
         <f t="shared" si="3"/>
-        <v>-19918428.790287238</v>
+        <v>19918428.790287238</v>
       </c>
       <c r="I17" s="52">
         <f t="shared" si="3"/>
-        <v>-20080684.101004977</v>
+        <v>20080684.101004977</v>
       </c>
       <c r="J17" s="52">
         <f t="shared" si="3"/>
-        <v>-20242939.411722772</v>
+        <v>20242939.411722772</v>
       </c>
       <c r="K17" s="52">
         <f t="shared" si="3"/>
-        <v>-20405194.722440571</v>
+        <v>20405194.722440571</v>
       </c>
       <c r="L17" s="52">
         <f t="shared" si="3"/>
-        <v>-20567450.03315831</v>
+        <v>20567450.03315831</v>
       </c>
       <c r="M17" s="52">
         <f t="shared" si="3"/>
-        <v>-20090401.197460778</v>
+        <v>20090401.197460778</v>
       </c>
       <c r="N17" s="52">
         <f t="shared" si="3"/>
-        <v>-19613352.36176319</v>
+        <v>19613352.36176319</v>
       </c>
       <c r="O17" s="52">
         <f t="shared" si="3"/>
-        <v>-19136303.526065603</v>
+        <v>19136303.526065603</v>
       </c>
       <c r="P17" s="52">
         <f t="shared" si="3"/>
-        <v>-18659254.690368015</v>
+        <v>18659254.690368015</v>
       </c>
       <c r="Q17" s="52">
         <f t="shared" si="3"/>
-        <v>-18182205.854670428</v>
+        <v>18182205.854670428</v>
       </c>
       <c r="R17" s="52">
         <f t="shared" si="3"/>
-        <v>-17049526.414044976</v>
+        <v>17049526.414044976</v>
       </c>
       <c r="S17" s="52">
         <f t="shared" si="3"/>
-        <v>-15916846.973419525</v>
+        <v>15916846.973419525</v>
       </c>
       <c r="T17" s="52">
         <f t="shared" si="3"/>
-        <v>-14784167.532794071</v>
+        <v>14784167.532794071</v>
       </c>
       <c r="U17" s="52">
         <f t="shared" si="3"/>
-        <v>-13651488.092168165</v>
+        <v>13651488.092168165</v>
       </c>
       <c r="V17" s="52">
         <f t="shared" si="3"/>
-        <v>-12518808.651542714</v>
+        <v>12518808.651542714</v>
       </c>
       <c r="W17" s="52">
         <f t="shared" si="3"/>
-        <v>-10015046.921233989</v>
+        <v>10015046.921233989</v>
       </c>
       <c r="X17" s="52">
         <f t="shared" si="3"/>
-        <v>-7511285.1909261737</v>
+        <v>7511285.1909261737</v>
       </c>
       <c r="Y17" s="52">
         <f t="shared" si="3"/>
-        <v>-5007523.4606174491</v>
+        <v>5007523.4606174491</v>
       </c>
       <c r="Z17" s="52">
         <f t="shared" si="3"/>
-        <v>-2503761.7303087246</v>
+        <v>2503761.7303087246</v>
       </c>
       <c r="AA17" s="52">
         <f t="shared" si="3"/>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="50" t="s">
         <v>101</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="50" t="s">
         <v>104</v>
       </c>
@@ -8853,13 +8853,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>3874615.3487915187</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -10728,13 +10728,13 @@
       <selection activeCell="B15" sqref="B15:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -11376,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11517,7 +11517,7 @@
         <v>3577239.0146497744</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -12599,18 +12599,17 @@
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AI11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="35" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="35" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -12717,7 +12716,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -12824,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12931,7 +12930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -13038,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13145,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -13252,7 +13251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -13393,7 +13392,7 @@
         <v>22355563.090323985</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -13607,7 +13606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -13714,109 +13713,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <f>'Back up generators'!B17</f>
-        <v>-16150921.105627503</v>
+        <v>16150921.105627503</v>
       </c>
       <c r="C11" s="3">
         <f>'Back up generators'!C17</f>
-        <v>-16871971.580415901</v>
+        <v>16871971.580415901</v>
       </c>
       <c r="D11" s="3">
         <f>'Back up generators'!D17</f>
-        <v>-17593022.055204302</v>
+        <v>17593022.055204302</v>
       </c>
       <c r="E11" s="3">
         <f>'Back up generators'!E17</f>
-        <v>-18314072.5299927</v>
+        <v>18314072.5299927</v>
       </c>
       <c r="F11" s="3">
         <f>'Back up generators'!F17</f>
-        <v>-19035123.004781097</v>
+        <v>19035123.004781097</v>
       </c>
       <c r="G11" s="3">
         <f>'Back up generators'!G17</f>
-        <v>-19756173.479569498</v>
+        <v>19756173.479569498</v>
       </c>
       <c r="H11" s="3">
         <f>'Back up generators'!H17</f>
-        <v>-19918428.790287238</v>
+        <v>19918428.790287238</v>
       </c>
       <c r="I11" s="3">
         <f>'Back up generators'!I17</f>
-        <v>-20080684.101004977</v>
+        <v>20080684.101004977</v>
       </c>
       <c r="J11" s="3">
         <f>'Back up generators'!J17</f>
-        <v>-20242939.411722772</v>
+        <v>20242939.411722772</v>
       </c>
       <c r="K11" s="3">
         <f>'Back up generators'!K17</f>
-        <v>-20405194.722440571</v>
+        <v>20405194.722440571</v>
       </c>
       <c r="L11" s="3">
         <f>'Back up generators'!L17</f>
-        <v>-20567450.03315831</v>
+        <v>20567450.03315831</v>
       </c>
       <c r="M11" s="3">
         <f>'Back up generators'!M17</f>
-        <v>-20090401.197460778</v>
+        <v>20090401.197460778</v>
       </c>
       <c r="N11" s="3">
         <f>'Back up generators'!N17</f>
-        <v>-19613352.36176319</v>
+        <v>19613352.36176319</v>
       </c>
       <c r="O11" s="3">
         <f>'Back up generators'!O17</f>
-        <v>-19136303.526065603</v>
+        <v>19136303.526065603</v>
       </c>
       <c r="P11" s="3">
         <f>'Back up generators'!P17</f>
-        <v>-18659254.690368015</v>
+        <v>18659254.690368015</v>
       </c>
       <c r="Q11" s="3">
         <f>'Back up generators'!Q17</f>
-        <v>-18182205.854670428</v>
+        <v>18182205.854670428</v>
       </c>
       <c r="R11" s="3">
         <f>'Back up generators'!R17</f>
-        <v>-17049526.414044976</v>
+        <v>17049526.414044976</v>
       </c>
       <c r="S11" s="3">
         <f>'Back up generators'!S17</f>
-        <v>-15916846.973419525</v>
+        <v>15916846.973419525</v>
       </c>
       <c r="T11" s="3">
         <f>'Back up generators'!T17</f>
-        <v>-14784167.532794071</v>
+        <v>14784167.532794071</v>
       </c>
       <c r="U11" s="3">
         <f>'Back up generators'!U17</f>
-        <v>-13651488.092168165</v>
+        <v>13651488.092168165</v>
       </c>
       <c r="V11" s="3">
         <f>'Back up generators'!V17</f>
-        <v>-12518808.651542714</v>
+        <v>12518808.651542714</v>
       </c>
       <c r="W11" s="3">
         <f>'Back up generators'!W17</f>
-        <v>-10015046.921233989</v>
+        <v>10015046.921233989</v>
       </c>
       <c r="X11" s="3">
         <f>'Back up generators'!X17</f>
-        <v>-7511285.1909261737</v>
+        <v>7511285.1909261737</v>
       </c>
       <c r="Y11" s="3">
         <f>'Back up generators'!Y17</f>
-        <v>-5007523.4606174491</v>
+        <v>5007523.4606174491</v>
       </c>
       <c r="Z11" s="3">
         <f>'Back up generators'!Z17</f>
-        <v>-2503761.7303087246</v>
+        <v>2503761.7303087246</v>
       </c>
       <c r="AA11" s="3">
         <f>'Back up generators'!AA17</f>
@@ -13855,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14069,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -14176,7 +14175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -14283,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -14390,7 +14389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -14513,13 +14512,13 @@
       <selection activeCell="B2" sqref="B2:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -14626,7 +14625,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -14733,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14947,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -15302,7 +15301,7 @@
         <v>1881.013090816424</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -15409,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15623,7 +15622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15730,7 +15729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15944,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -16051,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -16158,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -16265,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>77</v>
       </c>

--- a/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
+++ b/InputData/bldgs/BDEQ/BAU Distribued Electricity Quantities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\bldgs\BDEQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\bldgs\BDEQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB9F064-0529-408B-82F1-0D800697E21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19320" windowHeight="5850" tabRatio="670"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -30,22 +31,25 @@
     <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BTU_per_GWh">'[3]Conversion Factors'!$A$3</definedName>
-    <definedName name="BTU_per_PJ">'[3]Conversion Factors'!$A$6</definedName>
-    <definedName name="BTU_per_thousand_tons_kerosene">'[3]Conversion Factors'!$A$21</definedName>
-    <definedName name="BTU_per_thousand_tons_LPG">'[3]Conversion Factors'!$A$14</definedName>
-    <definedName name="INRLac">[1]Conversions!$E$113</definedName>
-    <definedName name="plantsize.iv.a">'[2]India Data'!$E$99</definedName>
-    <definedName name="Preferences.PowerUnits">[1]Preferences!$C$5</definedName>
-    <definedName name="Unit.kW">[1]Conversions!$F$57</definedName>
-    <definedName name="Unit.MW">[1]Conversions!$F$56</definedName>
+    <definedName name="BTU_per_GWh">'[1]Conversion Factors'!$A$3</definedName>
+    <definedName name="BTU_per_PJ">'[1]Conversion Factors'!$A$6</definedName>
+    <definedName name="BTU_per_thousand_tons_kerosene">'[1]Conversion Factors'!$A$21</definedName>
+    <definedName name="BTU_per_thousand_tons_LPG">'[1]Conversion Factors'!$A$14</definedName>
+    <definedName name="INRLac">[2]Conversions!$E$113</definedName>
+    <definedName name="plantsize.iv.a">'[3]India Data'!$E$99</definedName>
+    <definedName name="Preferences.PowerUnits">[2]Preferences!$C$5</definedName>
+    <definedName name="Unit.kW">[2]Conversions!$F$57</definedName>
+    <definedName name="Unit.MW">[2]Conversions!$F$56</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -379,11 +383,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="167" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;_);@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -695,7 +700,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -705,67 +710,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -773,7 +734,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -811,22 +771,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="A - bold" xfId="10"/>
-    <cellStyle name="A - bottom border" xfId="13"/>
-    <cellStyle name="A - header 2 2" xfId="12"/>
-    <cellStyle name="A - normal" xfId="11"/>
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="1"/>
-    <cellStyle name="Footnotes: top row" xfId="6"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="A - bold" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="A - bottom border" xfId="13" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="A - header 2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="A - normal" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7"/>
-    <cellStyle name="Parent row" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Percent" xfId="9" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,6 +842,86 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Building Projections"/>
+      <sheetName val="Elec Use"/>
+      <sheetName val="Elec Breakdown"/>
+      <sheetName val="LPG, Kerosene, Diesel Use"/>
+      <sheetName val="Activity Data"/>
+      <sheetName val="Summed Activity Data"/>
+      <sheetName val="Biomass Use"/>
+      <sheetName val="Conversion Factors"/>
+      <sheetName val="BCEU-urban-residential-heating"/>
+      <sheetName val="BCEU-urban-residential-cooling"/>
+      <sheetName val="BCEU-urban-residential-lighting"/>
+      <sheetName val="BCEU-urban-residential-appl"/>
+      <sheetName val="BCEU-urban-residential-other"/>
+      <sheetName val="BCEU-rural-residential-heating"/>
+      <sheetName val="BCEU-rural-residential-cooling"/>
+      <sheetName val="BCEU-rural-residential-lighting"/>
+      <sheetName val="BCEU-rural-residential-appl"/>
+      <sheetName val="BCEU-rural-residential-other"/>
+      <sheetName val="BCEU-commercial-heating"/>
+      <sheetName val="BCEU-commercial-cooling"/>
+      <sheetName val="BCEU-commercial-lighting"/>
+      <sheetName val="BCEU-commercial-appl"/>
+      <sheetName val="BCEU-commercial-other"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="3">
+          <cell r="A3">
+            <v>3412140000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>947817120000</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>44812071000</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>41441251500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -996,7 +1076,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1012,86 +1092,6 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Building Projections"/>
-      <sheetName val="Elec Use"/>
-      <sheetName val="Elec Breakdown"/>
-      <sheetName val="LPG, Kerosene, Diesel Use"/>
-      <sheetName val="Activity Data"/>
-      <sheetName val="Summed Activity Data"/>
-      <sheetName val="Biomass Use"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="BCEU-urban-residential-heating"/>
-      <sheetName val="BCEU-urban-residential-cooling"/>
-      <sheetName val="BCEU-urban-residential-lighting"/>
-      <sheetName val="BCEU-urban-residential-appl"/>
-      <sheetName val="BCEU-urban-residential-other"/>
-      <sheetName val="BCEU-rural-residential-heating"/>
-      <sheetName val="BCEU-rural-residential-cooling"/>
-      <sheetName val="BCEU-rural-residential-lighting"/>
-      <sheetName val="BCEU-rural-residential-appl"/>
-      <sheetName val="BCEU-rural-residential-other"/>
-      <sheetName val="BCEU-commercial-heating"/>
-      <sheetName val="BCEU-commercial-cooling"/>
-      <sheetName val="BCEU-commercial-lighting"/>
-      <sheetName val="BCEU-commercial-appl"/>
-      <sheetName val="BCEU-commercial-other"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="3">
-          <cell r="A3">
-            <v>3412140000</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>947817120000</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>44812071000</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>41441251500</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1173,6 +1173,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1208,6 +1225,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1383,30 +1417,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="72.86328125" customWidth="1"/>
-    <col min="5" max="5" width="55.86328125" customWidth="1"/>
+    <col min="2" max="2" width="72.7265625" customWidth="1"/>
+    <col min="5" max="5" width="55.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1416,65 +1450,65 @@
       <c r="E4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="49"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>2015</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="50"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="24" t="s">
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="57"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>2015</v>
       </c>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>49</v>
       </c>
@@ -1482,123 +1516,123 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="24" t="s">
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="42" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="24"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="43" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B15" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E11" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
@@ -1606,23 +1640,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:AI17"/>
+      <selection activeCell="B2" sqref="B2:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1729,7 +1763,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1836,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2050,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2157,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2264,148 +2298,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="19">
         <f>'India Dist Solar PV Data'!B46</f>
         <v>61.142101844954055</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="19">
         <f>'India Dist Solar PV Data'!C46</f>
         <v>75.186708517890111</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="19">
         <f>'India Dist Solar PV Data'!D46</f>
         <v>159.45625595003321</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="19">
         <f>'India Dist Solar PV Data'!E46</f>
         <v>243.72580338214789</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="19">
         <f>'India Dist Solar PV Data'!F46</f>
         <v>327.99535081429099</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="19">
         <f>'India Dist Solar PV Data'!G46</f>
         <v>412.26489824643409</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="19">
         <f>'India Dist Solar PV Data'!H46</f>
         <v>496.53444567857719</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="19">
         <f>'India Dist Solar PV Data'!I46</f>
         <v>582.54175330174007</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="19">
         <f>'India Dist Solar PV Data'!J46</f>
         <v>668.54906092493138</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="19">
         <f>'India Dist Solar PV Data'!K46</f>
         <v>754.55636854809427</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="19">
         <f>'India Dist Solar PV Data'!L46</f>
         <v>840.56367617128558</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="19">
         <f>'India Dist Solar PV Data'!M46</f>
         <v>926.57098379444847</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="19">
         <f>'India Dist Solar PV Data'!N46</f>
         <v>1063.0859641195229</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="19">
         <f>'India Dist Solar PV Data'!O46</f>
         <v>1199.600944444569</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="19">
         <f>'India Dist Solar PV Data'!P46</f>
         <v>1336.1159247695582</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="19">
         <f>'India Dist Solar PV Data'!Q46</f>
         <v>1472.6309050946043</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="19">
         <f>'India Dist Solar PV Data'!R46</f>
         <v>1609.1458854196503</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="19">
         <f>'India Dist Solar PV Data'!S46</f>
         <v>1774.4152799870676</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="19">
         <f>'India Dist Solar PV Data'!T46</f>
         <v>1939.6846745544281</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="19">
         <f>'India Dist Solar PV Data'!U46</f>
         <v>2104.9540691218454</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="19">
         <f>'India Dist Solar PV Data'!V46</f>
         <v>2270.2234636892626</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="19">
         <f>'India Dist Solar PV Data'!W46</f>
         <v>2435.4928582566231</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="19">
         <f>'India Dist Solar PV Data'!X46</f>
         <v>2712.7163711567164</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="19">
         <f>'India Dist Solar PV Data'!Y46</f>
         <v>2989.9398840568665</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="19">
         <f>'India Dist Solar PV Data'!Z46</f>
         <v>3267.1633969570166</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="19">
         <f>'India Dist Solar PV Data'!AA46</f>
         <v>3544.3869098572804</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="19">
         <f>'India Dist Solar PV Data'!AB46</f>
         <v>3821.6104227574306</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="19">
         <f>'India Dist Solar PV Data'!AC46</f>
         <v>4054.9560670320943</v>
       </c>
-      <c r="AD7" s="40">
+      <c r="AD7" s="19">
         <f>'India Dist Solar PV Data'!AD46</f>
         <v>4288.3017113067017</v>
       </c>
-      <c r="AE7" s="40">
+      <c r="AE7" s="19">
         <f>'India Dist Solar PV Data'!AE46</f>
         <v>4521.6473555812518</v>
       </c>
-      <c r="AF7" s="40">
+      <c r="AF7" s="19">
         <f>'India Dist Solar PV Data'!AF46</f>
         <v>4754.9929998558582</v>
       </c>
-      <c r="AG7" s="40">
+      <c r="AG7" s="19">
         <f>'India Dist Solar PV Data'!AG46</f>
         <v>4988.3386441304647</v>
       </c>
-      <c r="AH7" s="40">
+      <c r="AH7" s="19">
         <f>'India Dist Solar PV Data'!AH46</f>
         <v>5221.684288405072</v>
       </c>
-      <c r="AI7" s="40">
+      <c r="AI7" s="19">
         <f>'India Dist Solar PV Data'!AI46</f>
         <v>5455.0299326796794</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2619,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2833,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2940,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3154,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -3261,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -3368,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3481,23 +3515,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AI11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.265625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -3604,7 +3638,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3711,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3925,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4032,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4139,148 +4173,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="19">
         <f>'India Dist Solar PV Data'!B47</f>
         <v>273.58010175191794</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="19">
         <f>'India Dist Solar PV Data'!C47</f>
         <v>336.65690381133118</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="19">
         <f>'India Dist Solar PV Data'!D47</f>
         <v>734.82656587270867</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="19">
         <f>'India Dist Solar PV Data'!E47</f>
         <v>1132.9962279340862</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="19">
         <f>'India Dist Solar PV Data'!F47</f>
         <v>1531.1658899954637</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="19">
         <f>'India Dist Solar PV Data'!G47</f>
         <v>1929.3355520568412</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="19">
         <f>'India Dist Solar PV Data'!H47</f>
         <v>2327.5052141182186</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="19">
         <f>'India Dist Solar PV Data'!I47</f>
         <v>2773.3854668300637</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="19">
         <f>'India Dist Solar PV Data'!J47</f>
         <v>3219.2657195419088</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="19">
         <f>'India Dist Solar PV Data'!K47</f>
         <v>3665.1459722537538</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="19">
         <f>'India Dist Solar PV Data'!L47</f>
         <v>4111.0262249657126</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="19">
         <f>'India Dist Solar PV Data'!M47</f>
         <v>4556.9064776775576</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="19">
         <f>'India Dist Solar PV Data'!N47</f>
         <v>5310.158856713997</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="19">
         <f>'India Dist Solar PV Data'!O47</f>
         <v>6063.4112357506638</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="19">
         <f>'India Dist Solar PV Data'!P47</f>
         <v>6816.6636147871031</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="19">
         <f>'India Dist Solar PV Data'!Q47</f>
         <v>7569.9159938235425</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="19">
         <f>'India Dist Solar PV Data'!R47</f>
         <v>8323.1683728599819</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="19">
         <f>'India Dist Solar PV Data'!S47</f>
         <v>9315.4359982045207</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="19">
         <f>'India Dist Solar PV Data'!T47</f>
         <v>10307.703623548832</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="19">
         <f>'India Dist Solar PV Data'!U47</f>
         <v>11299.971248892916</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="19">
         <f>'India Dist Solar PV Data'!V47</f>
         <v>12292.238874237228</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="19">
         <f>'India Dist Solar PV Data'!W47</f>
         <v>13284.506499581539</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="19">
         <f>'India Dist Solar PV Data'!X47</f>
         <v>15037.155687462018</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="19">
         <f>'India Dist Solar PV Data'!Y47</f>
         <v>16789.804875342725</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="19">
         <f>'India Dist Solar PV Data'!Z47</f>
         <v>18542.454063223886</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="19">
         <f>'India Dist Solar PV Data'!AA47</f>
         <v>20295.103251104592</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="19">
         <f>'India Dist Solar PV Data'!AB47</f>
         <v>22047.752438985299</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="19">
         <f>'India Dist Solar PV Data'!AC47</f>
         <v>23746.371719510989</v>
       </c>
-      <c r="AD7" s="40">
+      <c r="AD7" s="19">
         <f>'India Dist Solar PV Data'!AD47</f>
         <v>25444.991000037135</v>
       </c>
-      <c r="AE7" s="40">
+      <c r="AE7" s="19">
         <f>'India Dist Solar PV Data'!AE47</f>
         <v>27143.610280562825</v>
       </c>
-      <c r="AF7" s="40">
+      <c r="AF7" s="19">
         <f>'India Dist Solar PV Data'!AF47</f>
         <v>28842.229561088971</v>
       </c>
-      <c r="AG7" s="40">
+      <c r="AG7" s="19">
         <f>'India Dist Solar PV Data'!AG47</f>
         <v>30540.848841614661</v>
       </c>
-      <c r="AH7" s="40">
+      <c r="AH7" s="19">
         <f>'India Dist Solar PV Data'!AH47</f>
         <v>32239.468122140806</v>
       </c>
-      <c r="AI7" s="40">
+      <c r="AI7" s="19">
         <f>'India Dist Solar PV Data'!AI47</f>
         <v>33938.087402666948</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -4387,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -4494,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4601,109 +4635,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <f>'Back up generators'!B19</f>
-        <v>19252.513446007924</v>
+        <v>18424.505025812778</v>
       </c>
       <c r="C11" s="3">
         <f>'Back up generators'!C19</f>
-        <v>20372.361501590603</v>
+        <v>19247.058613296758</v>
       </c>
       <c r="D11" s="3">
         <f>'Back up generators'!D19</f>
-        <v>21492.209557173283</v>
+        <v>20069.612200780739</v>
       </c>
       <c r="E11" s="3">
         <f>'Back up generators'!E19</f>
-        <v>22612.057612755962</v>
+        <v>20892.165788264494</v>
       </c>
       <c r="F11" s="3">
         <f>'Back up generators'!F19</f>
-        <v>23731.905668338641</v>
+        <v>21714.719375748471</v>
       </c>
       <c r="G11" s="3">
         <f>'Back up generators'!G19</f>
-        <v>24851.753723921775</v>
+        <v>22537.272963232455</v>
       </c>
       <c r="H11" s="3">
         <f>'Back up generators'!H19</f>
-        <v>25417.882251394985</v>
+        <v>22722.369142467698</v>
       </c>
       <c r="I11" s="3">
         <f>'Back up generators'!I19</f>
-        <v>25984.010778868425</v>
+        <v>22907.465321703115</v>
       </c>
       <c r="J11" s="3">
         <f>'Back up generators'!J19</f>
-        <v>26550.139306342091</v>
+        <v>23092.561500938587</v>
       </c>
       <c r="K11" s="3">
         <f>'Back up generators'!K19</f>
-        <v>27116.267833815527</v>
+        <v>23277.657680174001</v>
       </c>
       <c r="L11" s="3">
         <f>'Back up generators'!L19</f>
-        <v>27682.396361288964</v>
+        <v>23462.753859409419</v>
       </c>
       <c r="M11" s="3">
         <f>'Back up generators'!M19</f>
-        <v>27415.48646335832</v>
+        <v>22918.550305111465</v>
       </c>
       <c r="N11" s="3">
         <f>'Back up generators'!N19</f>
-        <v>27148.576565427789</v>
+        <v>22374.346750813631</v>
       </c>
       <c r="O11" s="3">
         <f>'Back up generators'!O19</f>
-        <v>26881.666667497258</v>
+        <v>21830.143196515564</v>
       </c>
       <c r="P11" s="3">
         <f>'Back up generators'!P19</f>
-        <v>26614.756769566724</v>
+        <v>21285.939642217727</v>
       </c>
       <c r="Q11" s="3">
         <f>'Back up generators'!Q19</f>
-        <v>26347.846871636193</v>
+        <v>20741.736087919664</v>
       </c>
       <c r="R11" s="3">
         <f>'Back up generators'!R19</f>
-        <v>24917.095913650883</v>
+        <v>19449.608047051242</v>
       </c>
       <c r="S11" s="3">
         <f>'Back up generators'!S19</f>
-        <v>23486.344955665118</v>
+        <v>18157.480006182595</v>
       </c>
       <c r="T11" s="3">
         <f>'Back up generators'!T19</f>
-        <v>22055.593997679807</v>
+        <v>16865.351965313948</v>
       </c>
       <c r="U11" s="3">
         <f>'Back up generators'!U19</f>
-        <v>20624.843039694497</v>
+        <v>15573.223924445301</v>
       </c>
       <c r="V11" s="3">
         <f>'Back up generators'!V19</f>
-        <v>19194.092081708732</v>
+        <v>14281.095883576199</v>
       </c>
       <c r="W11" s="3">
         <f>'Back up generators'!W19</f>
-        <v>15355.27366536644</v>
+        <v>11424.876706861141</v>
       </c>
       <c r="X11" s="3">
         <f>'Back up generators'!X19</f>
-        <v>11516.455249025057</v>
+        <v>8568.6575301460834</v>
       </c>
       <c r="Y11" s="3">
         <f>'Back up generators'!Y19</f>
-        <v>7677.6368326836746</v>
+        <v>5712.4383534310255</v>
       </c>
       <c r="Z11" s="3">
         <f>'Back up generators'!Z19</f>
-        <v>3838.8184163413825</v>
+        <v>2856.219176715058</v>
       </c>
       <c r="AA11" s="3">
         <f>'Back up generators'!AA19</f>
@@ -4742,7 +4776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4849,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -4956,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5063,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -5170,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -5277,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -5390,241 +5424,241 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:L54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="43">
         <v>2007</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="44">
         <v>2012</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="44">
         <v>2017</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="44">
         <v>2022</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="44">
         <v>2027</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="44">
         <v>2032</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="44">
         <v>2037</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="44">
         <v>2042</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="44">
         <v>2047</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="E4" s="47">
         <v>3.3019625167785477E-2</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="47">
         <v>0.43546359308148397</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="47">
         <v>1.2042453571947989</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="47">
         <v>2.3577319765503102</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="47">
         <v>3.4521974720521285</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="47">
         <v>5.1835556400122051</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="47">
         <v>7.1624880356713225</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="47">
         <v>9.3040770775885271</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="45">
         <v>2</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="14">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="42">
+        <v>0</v>
+      </c>
+      <c r="E5" s="47">
         <v>3.3019625167785477E-2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="47">
         <v>0.52255631169778083</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="47">
         <v>3.612736071584397</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="47">
         <v>7.0731959296509297</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="47">
         <v>12.919159290430937</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="47">
         <v>20.620110981112106</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="47">
         <v>34.222355357369658</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="47">
         <v>47.405275656367941</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="45">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="14">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="42">
+        <v>0</v>
+      </c>
+      <c r="E6" s="47">
         <v>3.3019625167785477E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="47">
         <v>1.7418543723259361</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="47">
         <v>7.225472143168794</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="47">
         <v>14.146391859301859</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="47">
         <v>26.986348488994949</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="47">
         <v>45.455534753361441</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="47">
         <v>75.941650207625202</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="47">
         <v>110.75829959794987</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="45">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="42">
+        <v>0</v>
+      </c>
+      <c r="E7" s="47">
         <v>3.3019625167785477E-2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="47">
         <v>15.241225757851941</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="47">
         <v>36.12736071584397</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="47">
         <v>55.013746119507239</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="47">
         <v>80.365358862434661</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="47">
         <v>127.12982914111913</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="47">
         <v>191.98548952700759</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="47">
         <v>263.66306027699738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>2012</v>
       </c>
@@ -5650,82 +5684,82 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="19">
         <f>E5*'AC DC Derate Factor'!$A$3</f>
         <v>2.8363858019127722E-2</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="19">
         <f>F5*'AC DC Derate Factor'!$A$3</f>
         <v>0.44887587174839372</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="19">
         <f>G5*'AC DC Derate Factor'!$A$3</f>
         <v>3.1033402854909968</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="19">
         <f>H5*'AC DC Derate Factor'!$A$3</f>
         <v>6.0758753035701485</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="19">
         <f>I5*'AC DC Derate Factor'!$A$3</f>
         <v>11.097557830480174</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="19">
         <f>J5*'AC DC Derate Factor'!$A$3</f>
         <v>17.712675332775298</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="19">
         <f>K5*'AC DC Derate Factor'!$A$3</f>
         <v>29.397003251980536</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="19">
         <f>L5*'AC DC Derate Factor'!$A$3</f>
         <v>40.72113178882006</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -5733,11 +5767,11 @@
         <f>C23*B$27</f>
         <v>0.3125</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="9">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -5745,11 +5779,11 @@
         <f t="shared" ref="B24:B26" si="0">C24*B$27</f>
         <v>0.15</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="9">
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -5757,11 +5791,11 @@
         <f t="shared" si="0"/>
         <v>0.32500000000000001</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="9">
         <v>0.26</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -5769,167 +5803,167 @@
         <f t="shared" si="0"/>
         <v>0.46250000000000002</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="9">
         <v>0.37</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>21</v>
       </c>
       <c r="B27">
         <v>1.25</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="9">
         <f>SUM(C23:C26)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="25"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="48"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27" t="s">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="28">
+      <c r="D33" s="50">
         <v>2007</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="14">
         <v>2012</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="14">
         <v>2017</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="14">
         <v>2022</v>
       </c>
-      <c r="H33" s="29">
+      <c r="H33" s="14">
         <v>2027</v>
       </c>
-      <c r="I33" s="29">
+      <c r="I33" s="14">
         <v>2032</v>
       </c>
-      <c r="J33" s="29">
+      <c r="J33" s="14">
         <v>2037</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="14">
         <v>2042</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="14">
         <v>2047</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="15">
         <v>2052</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34">
+      <c r="C34" s="51"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54">
         <v>74.294156627517296</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="54">
         <v>89.814366073056092</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="54">
         <v>108.38208214753193</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="54">
         <v>127.71048206314187</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="54">
         <v>150.47635895767291</v>
       </c>
-      <c r="J34" s="34">
+      <c r="J34" s="54">
         <v>173.71910873028148</v>
       </c>
-      <c r="K34" s="34">
+      <c r="K34" s="54">
         <v>200.7989098147649</v>
       </c>
-      <c r="L34" s="34">
+      <c r="L34" s="54">
         <v>228.11762992670504</v>
       </c>
-      <c r="M34" s="34"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36" t="s">
+      <c r="M34" s="54"/>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39">
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="55">
         <v>173.35303213087374</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="55">
         <v>182.35037960287141</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="55">
         <v>192.6792571511678</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="55">
         <v>199.7522924577346</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="55">
         <v>207.80068617964349</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="55">
         <v>212.32335511478828</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="55">
         <v>217.53215229932849</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="55">
         <v>219.17184051781467</v>
       </c>
-      <c r="M35" s="39"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="M35" s="55"/>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>57</v>
       </c>
@@ -5958,118 +5992,118 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="40">
+      <c r="B39" s="19">
         <f t="shared" ref="B39:I39" si="1">B14*$C23*E34/SUM(E34:E35)</f>
         <v>2.1272893514345786E-3</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="19">
         <f t="shared" si="1"/>
         <v>3.7032259419242486E-2</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="19">
         <f t="shared" si="1"/>
         <v>0.27930062569418979</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="19">
         <f t="shared" si="1"/>
         <v>0.59239784209808977</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="19">
         <f t="shared" si="1"/>
         <v>1.1652435722004184</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="19">
         <f t="shared" si="1"/>
         <v>1.992675974937222</v>
       </c>
-      <c r="H39" s="40">
+      <c r="H39" s="19">
         <f t="shared" si="1"/>
         <v>3.5276403902376661</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="19">
         <f t="shared" si="1"/>
         <v>5.1919443030745578</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="19">
         <f t="shared" ref="B40:I40" si="2">B14*$C23*E35/SUM(E34:E35)</f>
         <v>4.9636751533473512E-3</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="19">
         <f t="shared" si="2"/>
         <v>7.518670851785593E-2</v>
       </c>
-      <c r="D40" s="40">
+      <c r="D40" s="19">
         <f t="shared" si="2"/>
         <v>0.49653444567855937</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="19">
         <f t="shared" si="2"/>
         <v>0.92657098379444736</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="19">
         <f t="shared" si="2"/>
         <v>1.609145885419625</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="19">
         <f t="shared" si="2"/>
         <v>2.4354928582566027</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="19">
         <f t="shared" si="2"/>
         <v>3.8216104227574688</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="19">
         <f t="shared" si="2"/>
         <v>4.988338644130458</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="40">
+      <c r="B41" s="19">
         <f t="shared" ref="B41:I41" si="3">B14*SUM($C24:$C26)</f>
         <v>2.1272893514345793E-2</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="19">
         <f t="shared" si="3"/>
         <v>0.33665690381129532</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="19">
         <f t="shared" si="3"/>
         <v>2.3275052141182475</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="19">
         <f t="shared" si="3"/>
         <v>4.5569064776776109</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="19">
         <f t="shared" si="3"/>
         <v>8.3231683728601311</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="19">
         <f t="shared" si="3"/>
         <v>13.284506499581473</v>
       </c>
-      <c r="H41" s="40">
+      <c r="H41" s="19">
         <f t="shared" si="3"/>
         <v>22.047752438985402</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="19">
         <f t="shared" si="3"/>
         <v>30.540848841615045</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -6179,546 +6213,546 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="19">
         <f>TREND($B39:$C39,$B$38:$C$38,B$44)*1000</f>
         <v>30.051265405681704</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="19">
         <f t="shared" ref="C45:H47" si="4">TREND($C39:$D39,$C$38:$D$38,C$44)*1000</f>
         <v>37.032259419234492</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="19">
         <f t="shared" si="4"/>
         <v>85.485932674231435</v>
       </c>
-      <c r="E45" s="40">
+      <c r="E45" s="19">
         <f t="shared" si="4"/>
         <v>133.93960592921417</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="19">
         <f t="shared" si="4"/>
         <v>182.39327918421111</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="19">
         <f t="shared" si="4"/>
         <v>230.84695243919384</v>
       </c>
-      <c r="H45" s="40">
+      <c r="H45" s="19">
         <f t="shared" si="4"/>
         <v>279.30062569419078</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="19">
         <f t="shared" ref="I45:M47" si="5">TREND($D39:$E39,$D$38:$E$38,I$44)*1000</f>
         <v>341.9200689749573</v>
       </c>
-      <c r="J45" s="40">
+      <c r="J45" s="19">
         <f t="shared" si="5"/>
         <v>404.53951225573803</v>
       </c>
-      <c r="K45" s="40">
+      <c r="K45" s="19">
         <f t="shared" si="5"/>
         <v>467.15895553651876</v>
       </c>
-      <c r="L45" s="40">
+      <c r="L45" s="19">
         <f t="shared" si="5"/>
         <v>529.77839881729949</v>
       </c>
-      <c r="M45" s="40">
+      <c r="M45" s="19">
         <f t="shared" si="5"/>
         <v>592.39784209808022</v>
       </c>
-      <c r="N45" s="40">
+      <c r="N45" s="19">
         <f t="shared" ref="N45:R47" si="6">TREND($E39:$F39,$E$38:$F$38,N$44)*1000</f>
         <v>706.96698811855185</v>
       </c>
-      <c r="O45" s="40">
+      <c r="O45" s="19">
         <f t="shared" si="6"/>
         <v>821.53613413902349</v>
       </c>
-      <c r="P45" s="40">
+      <c r="P45" s="19">
         <f t="shared" si="6"/>
         <v>936.10528015949512</v>
       </c>
-      <c r="Q45" s="40">
+      <c r="Q45" s="19">
         <f t="shared" si="6"/>
         <v>1050.6744261799668</v>
       </c>
-      <c r="R45" s="40">
+      <c r="R45" s="19">
         <f t="shared" si="6"/>
         <v>1165.24357220041</v>
       </c>
-      <c r="S45" s="40">
+      <c r="S45" s="19">
         <f t="shared" ref="S45:W47" si="7">TREND($F39:$G39,$F$38:$G$38,S$44)*1000</f>
         <v>1330.7300527478105</v>
       </c>
-      <c r="T45" s="40">
+      <c r="T45" s="19">
         <f t="shared" si="7"/>
         <v>1496.2165332951827</v>
       </c>
-      <c r="U45" s="40">
+      <c r="U45" s="19">
         <f t="shared" si="7"/>
         <v>1661.7030138425548</v>
       </c>
-      <c r="V45" s="40">
+      <c r="V45" s="19">
         <f t="shared" si="7"/>
         <v>1827.1894943898701</v>
       </c>
-      <c r="W45" s="40">
+      <c r="W45" s="19">
         <f t="shared" si="7"/>
         <v>1992.6759749372422</v>
       </c>
-      <c r="X45" s="40">
+      <c r="X45" s="19">
         <f t="shared" ref="X45:AB47" si="8">TREND($G39:$H39,$G$38:$H$38,X$44)*1000</f>
         <v>2299.6688579972897</v>
       </c>
-      <c r="Y45" s="40">
+      <c r="Y45" s="19">
         <f t="shared" si="8"/>
         <v>2606.6617410574509</v>
       </c>
-      <c r="Z45" s="40">
+      <c r="Z45" s="19">
         <f t="shared" si="8"/>
         <v>2913.6546241174983</v>
       </c>
-      <c r="AA45" s="40">
+      <c r="AA45" s="19">
         <f t="shared" si="8"/>
         <v>3220.6475071775458</v>
       </c>
-      <c r="AB45" s="40">
+      <c r="AB45" s="19">
         <f t="shared" si="8"/>
         <v>3527.6403902377069</v>
       </c>
-      <c r="AC45" s="40">
+      <c r="AC45" s="19">
         <f t="shared" ref="AC45:AJ47" si="9">TREND($H39:$I39,$H$38:$I$38,AC$44)*1000</f>
         <v>3860.5011728051295</v>
       </c>
-      <c r="AD45" s="40">
+      <c r="AD45" s="19">
         <f t="shared" si="9"/>
         <v>4193.3619553725521</v>
       </c>
-      <c r="AE45" s="40">
+      <c r="AE45" s="19">
         <f t="shared" si="9"/>
         <v>4526.222737939861</v>
       </c>
-      <c r="AF45" s="40">
+      <c r="AF45" s="19">
         <f t="shared" si="9"/>
         <v>4859.0835205072835</v>
       </c>
-      <c r="AG45" s="40">
+      <c r="AG45" s="19">
         <f t="shared" si="9"/>
         <v>5191.9443030745924</v>
       </c>
-      <c r="AH45" s="40">
+      <c r="AH45" s="19">
         <f t="shared" si="9"/>
         <v>5524.805085642015</v>
       </c>
-      <c r="AI45" s="40">
+      <c r="AI45" s="19">
         <f t="shared" si="9"/>
         <v>5857.6658682094376</v>
       </c>
-      <c r="AJ45" s="40">
+      <c r="AJ45" s="19">
         <f t="shared" si="9"/>
         <v>6190.5266507767465</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="40">
+      <c r="B46" s="19">
         <f t="shared" ref="B46:B47" si="10">TREND($B40:$C40,$B$38:$C$38,B$44)*1000</f>
         <v>61.142101844954055</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="19">
         <f t="shared" si="4"/>
         <v>75.186708517890111</v>
       </c>
-      <c r="D46" s="40">
+      <c r="D46" s="19">
         <f t="shared" si="4"/>
         <v>159.45625595003321</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="19">
         <f t="shared" si="4"/>
         <v>243.72580338214789</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F46" s="19">
         <f t="shared" si="4"/>
         <v>327.99535081429099</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="19">
         <f t="shared" si="4"/>
         <v>412.26489824643409</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H46" s="19">
         <f t="shared" si="4"/>
         <v>496.53444567857719</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="19">
         <f t="shared" si="5"/>
         <v>582.54175330174007</v>
       </c>
-      <c r="J46" s="40">
+      <c r="J46" s="19">
         <f t="shared" si="5"/>
         <v>668.54906092493138</v>
       </c>
-      <c r="K46" s="40">
+      <c r="K46" s="19">
         <f t="shared" si="5"/>
         <v>754.55636854809427</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="19">
         <f t="shared" si="5"/>
         <v>840.56367617128558</v>
       </c>
-      <c r="M46" s="40">
+      <c r="M46" s="19">
         <f t="shared" si="5"/>
         <v>926.57098379444847</v>
       </c>
-      <c r="N46" s="40">
+      <c r="N46" s="19">
         <f t="shared" si="6"/>
         <v>1063.0859641195229</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="19">
         <f t="shared" si="6"/>
         <v>1199.600944444569</v>
       </c>
-      <c r="P46" s="40">
+      <c r="P46" s="19">
         <f t="shared" si="6"/>
         <v>1336.1159247695582</v>
       </c>
-      <c r="Q46" s="40">
+      <c r="Q46" s="19">
         <f t="shared" si="6"/>
         <v>1472.6309050946043</v>
       </c>
-      <c r="R46" s="40">
+      <c r="R46" s="19">
         <f t="shared" si="6"/>
         <v>1609.1458854196503</v>
       </c>
-      <c r="S46" s="40">
+      <c r="S46" s="19">
         <f t="shared" si="7"/>
         <v>1774.4152799870676</v>
       </c>
-      <c r="T46" s="40">
+      <c r="T46" s="19">
         <f t="shared" si="7"/>
         <v>1939.6846745544281</v>
       </c>
-      <c r="U46" s="40">
+      <c r="U46" s="19">
         <f t="shared" si="7"/>
         <v>2104.9540691218454</v>
       </c>
-      <c r="V46" s="40">
+      <c r="V46" s="19">
         <f t="shared" si="7"/>
         <v>2270.2234636892626</v>
       </c>
-      <c r="W46" s="40">
+      <c r="W46" s="19">
         <f t="shared" si="7"/>
         <v>2435.4928582566231</v>
       </c>
-      <c r="X46" s="40">
+      <c r="X46" s="19">
         <f t="shared" si="8"/>
         <v>2712.7163711567164</v>
       </c>
-      <c r="Y46" s="40">
+      <c r="Y46" s="19">
         <f t="shared" si="8"/>
         <v>2989.9398840568665</v>
       </c>
-      <c r="Z46" s="40">
+      <c r="Z46" s="19">
         <f t="shared" si="8"/>
         <v>3267.1633969570166</v>
       </c>
-      <c r="AA46" s="40">
+      <c r="AA46" s="19">
         <f t="shared" si="8"/>
         <v>3544.3869098572804</v>
       </c>
-      <c r="AB46" s="40">
+      <c r="AB46" s="19">
         <f t="shared" si="8"/>
         <v>3821.6104227574306</v>
       </c>
-      <c r="AC46" s="40">
+      <c r="AC46" s="19">
         <f t="shared" si="9"/>
         <v>4054.9560670320943</v>
       </c>
-      <c r="AD46" s="40">
+      <c r="AD46" s="19">
         <f t="shared" si="9"/>
         <v>4288.3017113067017</v>
       </c>
-      <c r="AE46" s="40">
+      <c r="AE46" s="19">
         <f t="shared" si="9"/>
         <v>4521.6473555812518</v>
       </c>
-      <c r="AF46" s="40">
+      <c r="AF46" s="19">
         <f t="shared" si="9"/>
         <v>4754.9929998558582</v>
       </c>
-      <c r="AG46" s="40">
+      <c r="AG46" s="19">
         <f t="shared" si="9"/>
         <v>4988.3386441304647</v>
       </c>
-      <c r="AH46" s="40">
+      <c r="AH46" s="19">
         <f t="shared" si="9"/>
         <v>5221.684288405072</v>
       </c>
-      <c r="AI46" s="40">
+      <c r="AI46" s="19">
         <f t="shared" si="9"/>
         <v>5455.0299326796794</v>
       </c>
-      <c r="AJ46" s="40">
+      <c r="AJ46" s="19">
         <f t="shared" si="9"/>
         <v>5688.3755769542859</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="40">
+      <c r="B47" s="19">
         <f t="shared" si="10"/>
         <v>273.58010175191794</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="19">
         <f t="shared" si="4"/>
         <v>336.65690381133118</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="19">
         <f t="shared" si="4"/>
         <v>734.82656587270867</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="19">
         <f t="shared" si="4"/>
         <v>1132.9962279340862</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="19">
         <f t="shared" si="4"/>
         <v>1531.1658899954637</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="19">
         <f t="shared" si="4"/>
         <v>1929.3355520568412</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="19">
         <f t="shared" si="4"/>
         <v>2327.5052141182186</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="19">
         <f t="shared" si="5"/>
         <v>2773.3854668300637</v>
       </c>
-      <c r="J47" s="40">
+      <c r="J47" s="19">
         <f t="shared" si="5"/>
         <v>3219.2657195419088</v>
       </c>
-      <c r="K47" s="40">
+      <c r="K47" s="19">
         <f t="shared" si="5"/>
         <v>3665.1459722537538</v>
       </c>
-      <c r="L47" s="40">
+      <c r="L47" s="19">
         <f t="shared" si="5"/>
         <v>4111.0262249657126</v>
       </c>
-      <c r="M47" s="40">
+      <c r="M47" s="19">
         <f t="shared" si="5"/>
         <v>4556.9064776775576</v>
       </c>
-      <c r="N47" s="40">
+      <c r="N47" s="19">
         <f t="shared" si="6"/>
         <v>5310.158856713997</v>
       </c>
-      <c r="O47" s="40">
+      <c r="O47" s="19">
         <f t="shared" si="6"/>
         <v>6063.4112357506638</v>
       </c>
-      <c r="P47" s="40">
+      <c r="P47" s="19">
         <f t="shared" si="6"/>
         <v>6816.6636147871031</v>
       </c>
-      <c r="Q47" s="40">
+      <c r="Q47" s="19">
         <f t="shared" si="6"/>
         <v>7569.9159938235425</v>
       </c>
-      <c r="R47" s="40">
+      <c r="R47" s="19">
         <f t="shared" si="6"/>
         <v>8323.1683728599819</v>
       </c>
-      <c r="S47" s="40">
+      <c r="S47" s="19">
         <f t="shared" si="7"/>
         <v>9315.4359982045207</v>
       </c>
-      <c r="T47" s="40">
+      <c r="T47" s="19">
         <f t="shared" si="7"/>
         <v>10307.703623548832</v>
       </c>
-      <c r="U47" s="40">
+      <c r="U47" s="19">
         <f t="shared" si="7"/>
         <v>11299.971248892916</v>
       </c>
-      <c r="V47" s="40">
+      <c r="V47" s="19">
         <f t="shared" si="7"/>
         <v>12292.238874237228</v>
       </c>
-      <c r="W47" s="40">
+      <c r="W47" s="19">
         <f t="shared" si="7"/>
         <v>13284.506499581539</v>
       </c>
-      <c r="X47" s="40">
+      <c r="X47" s="19">
         <f t="shared" si="8"/>
         <v>15037.155687462018</v>
       </c>
-      <c r="Y47" s="40">
+      <c r="Y47" s="19">
         <f t="shared" si="8"/>
         <v>16789.804875342725</v>
       </c>
-      <c r="Z47" s="40">
+      <c r="Z47" s="19">
         <f t="shared" si="8"/>
         <v>18542.454063223886</v>
       </c>
-      <c r="AA47" s="40">
+      <c r="AA47" s="19">
         <f t="shared" si="8"/>
         <v>20295.103251104592</v>
       </c>
-      <c r="AB47" s="40">
+      <c r="AB47" s="19">
         <f t="shared" si="8"/>
         <v>22047.752438985299</v>
       </c>
-      <c r="AC47" s="40">
+      <c r="AC47" s="19">
         <f t="shared" si="9"/>
         <v>23746.371719510989</v>
       </c>
-      <c r="AD47" s="40">
+      <c r="AD47" s="19">
         <f t="shared" si="9"/>
         <v>25444.991000037135</v>
       </c>
-      <c r="AE47" s="40">
+      <c r="AE47" s="19">
         <f t="shared" si="9"/>
         <v>27143.610280562825</v>
       </c>
-      <c r="AF47" s="40">
+      <c r="AF47" s="19">
         <f t="shared" si="9"/>
         <v>28842.229561088971</v>
       </c>
-      <c r="AG47" s="40">
+      <c r="AG47" s="19">
         <f t="shared" si="9"/>
         <v>30540.848841614661</v>
       </c>
-      <c r="AH47" s="40">
+      <c r="AH47" s="19">
         <f t="shared" si="9"/>
         <v>32239.468122140806</v>
       </c>
-      <c r="AI47" s="40">
+      <c r="AI47" s="19">
         <f t="shared" si="9"/>
         <v>33938.087402666948</v>
       </c>
-      <c r="AJ47" s="40">
+      <c r="AJ47" s="19">
         <f t="shared" si="9"/>
         <v>35636.706683192642</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A51" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A53" s="15" t="s">
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="43">
         <v>2007</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="44">
         <v>2012</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="44">
         <v>2017</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="44">
         <v>2022</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="44">
         <v>2027</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="44">
         <v>2032</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="44">
         <v>2037</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="44">
         <v>2042</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L53" s="44">
         <v>2047</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A54" s="21" t="s">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A54" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="22">
-        <v>0</v>
-      </c>
-      <c r="E54" s="23">
+      <c r="C54" s="56"/>
+      <c r="D54" s="11">
+        <v>0</v>
+      </c>
+      <c r="E54" s="57">
         <v>0.16</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="57">
         <v>0.17</v>
       </c>
-      <c r="G54" s="23">
+      <c r="G54" s="57">
         <v>0.17249999999999999</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="57">
         <v>0.17499999999999999</v>
       </c>
-      <c r="I54" s="23">
+      <c r="I54" s="57">
         <v>0.17749999999999999</v>
       </c>
-      <c r="J54" s="23">
+      <c r="J54" s="57">
         <v>0.18</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="57">
         <v>0.185</v>
       </c>
-      <c r="L54" s="23">
+      <c r="L54" s="57">
         <v>0.19</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
@@ -6828,149 +6862,149 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="B58" s="41">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="B58" s="20">
         <f>DSCF!B2</f>
         <v>0.17907500000000001</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="20">
         <f>DSCF!B2</f>
         <v>0.17907500000000001</v>
       </c>
-      <c r="D58" s="41">
+      <c r="D58" s="20">
         <f>DSCF!C2</f>
         <v>0.18271666666666686</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="20">
         <f>DSCF!D2</f>
         <v>0.18635833333333363</v>
       </c>
-      <c r="F58" s="41">
+      <c r="F58" s="20">
         <f>DSCF!E2</f>
         <v>0.19</v>
       </c>
-      <c r="G58" s="41">
+      <c r="G58" s="20">
         <f>DSCF!F2</f>
         <v>0.1915566666666666</v>
       </c>
-      <c r="H58" s="41">
+      <c r="H58" s="20">
         <f>DSCF!G2</f>
         <v>0.19311333333333325</v>
       </c>
-      <c r="I58" s="41">
+      <c r="I58" s="20">
         <f>DSCF!H2</f>
         <v>0.1946699999999999</v>
       </c>
-      <c r="J58" s="41">
+      <c r="J58" s="20">
         <f>DSCF!I2</f>
         <v>0.19622666666666655</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="20">
         <f>DSCF!J2</f>
         <v>0.1977833333333332</v>
       </c>
-      <c r="L58" s="41">
+      <c r="L58" s="20">
         <f>DSCF!K2</f>
         <v>0.19933999999999985</v>
       </c>
-      <c r="M58" s="41">
+      <c r="M58" s="20">
         <f>DSCF!L2</f>
         <v>0.2008966666666665</v>
       </c>
-      <c r="N58" s="41">
+      <c r="N58" s="20">
         <f>DSCF!M2</f>
         <v>0.20245333333333315</v>
       </c>
-      <c r="O58" s="41">
+      <c r="O58" s="20">
         <f>DSCF!N2</f>
         <v>0.2040099999999998</v>
       </c>
-      <c r="P58" s="41">
+      <c r="P58" s="20">
         <f>DSCF!O2</f>
         <v>0.20556666666666645</v>
       </c>
-      <c r="Q58" s="41">
+      <c r="Q58" s="20">
         <f>DSCF!P2</f>
         <v>0.2071233333333331</v>
       </c>
-      <c r="R58" s="41">
+      <c r="R58" s="20">
         <f>DSCF!Q2</f>
         <v>0.20867999999999975</v>
       </c>
-      <c r="S58" s="41">
+      <c r="S58" s="20">
         <f>DSCF!R2</f>
         <v>0.21023666666666641</v>
       </c>
-      <c r="T58" s="41">
+      <c r="T58" s="20">
         <f>DSCF!S2</f>
         <v>0.21179333333333306</v>
       </c>
-      <c r="U58" s="41">
+      <c r="U58" s="20">
         <f>DSCF!T2</f>
         <v>0.21335000000000015</v>
       </c>
-      <c r="V58" s="41">
+      <c r="V58" s="20">
         <f>DSCF!U2</f>
         <v>0.2149066666666668</v>
       </c>
-      <c r="W58" s="41">
+      <c r="W58" s="20">
         <f>DSCF!V2</f>
         <v>0.21646333333333345</v>
       </c>
-      <c r="X58" s="41">
+      <c r="X58" s="20">
         <f>DSCF!W2</f>
         <v>0.2180200000000001</v>
       </c>
-      <c r="Y58" s="41">
+      <c r="Y58" s="20">
         <f>DSCF!X2</f>
         <v>0.21957666666666675</v>
       </c>
-      <c r="Z58" s="41">
+      <c r="Z58" s="20">
         <f>DSCF!Y2</f>
         <v>0.2211333333333334</v>
       </c>
-      <c r="AA58" s="41">
+      <c r="AA58" s="20">
         <f>DSCF!Z2</f>
         <v>0.22269000000000005</v>
       </c>
-      <c r="AB58" s="41">
+      <c r="AB58" s="20">
         <f>DSCF!AA2</f>
         <v>0.22424666666666671</v>
       </c>
-      <c r="AC58" s="41">
+      <c r="AC58" s="20">
         <f>DSCF!AB2</f>
         <v>0.22580333333333336</v>
       </c>
-      <c r="AD58" s="41">
+      <c r="AD58" s="20">
         <f>DSCF!AC2</f>
         <v>0.22736000000000001</v>
       </c>
-      <c r="AE58" s="41">
+      <c r="AE58" s="20">
         <f>DSCF!AD2</f>
         <v>0.22891666666666666</v>
       </c>
-      <c r="AF58" s="41">
+      <c r="AF58" s="20">
         <f>DSCF!AE2</f>
         <v>0.23047333333333331</v>
       </c>
-      <c r="AG58" s="41">
+      <c r="AG58" s="20">
         <f>DSCF!AF2</f>
         <v>0.23202999999999996</v>
       </c>
-      <c r="AH58" s="41">
+      <c r="AH58" s="20">
         <f>DSCF!AG2</f>
         <v>0.23358666666666661</v>
       </c>
-      <c r="AI58" s="41">
+      <c r="AI58" s="20">
         <f>DSCF!AH2</f>
         <v>0.23514333333333326</v>
       </c>
-      <c r="AJ58" s="41">
+      <c r="AJ58" s="20">
         <f>DSCF!AI2</f>
         <v>0.23669999999999991</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
@@ -7080,7 +7114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>54</v>
       </c>
@@ -7225,7 +7259,7 @@
         <v>12836007.486172372</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -7370,7 +7404,7 @@
         <v>11794801.251810092</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>56</v>
       </c>
@@ -7525,24 +7559,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.85899999999999999</v>
       </c>
@@ -7557,227 +7591,227 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B1" s="44">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B1" s="23">
         <v>2017</v>
       </c>
       <c r="C1">
         <v>2018</v>
       </c>
-      <c r="D1" s="44">
+      <c r="D1" s="23">
         <v>2019</v>
       </c>
       <c r="E1">
         <v>2020</v>
       </c>
-      <c r="F1" s="44">
+      <c r="F1" s="23">
         <v>2021</v>
       </c>
       <c r="G1">
         <v>2022</v>
       </c>
-      <c r="H1" s="44">
+      <c r="H1" s="23">
         <v>2023</v>
       </c>
       <c r="I1">
         <v>2024</v>
       </c>
-      <c r="J1" s="44">
+      <c r="J1" s="23">
         <v>2025</v>
       </c>
       <c r="K1">
         <v>2026</v>
       </c>
-      <c r="L1" s="44">
+      <c r="L1" s="23">
         <v>2027</v>
       </c>
       <c r="M1">
         <v>2028</v>
       </c>
-      <c r="N1" s="44">
+      <c r="N1" s="23">
         <v>2029</v>
       </c>
       <c r="O1">
         <v>2030</v>
       </c>
-      <c r="P1" s="44">
+      <c r="P1" s="23">
         <v>2031</v>
       </c>
       <c r="Q1">
         <v>2032</v>
       </c>
-      <c r="R1" s="44">
+      <c r="R1" s="23">
         <v>2033</v>
       </c>
       <c r="S1">
         <v>2034</v>
       </c>
-      <c r="T1" s="44">
+      <c r="T1" s="23">
         <v>2035</v>
       </c>
       <c r="U1">
         <v>2036</v>
       </c>
-      <c r="V1" s="44">
+      <c r="V1" s="23">
         <v>2037</v>
       </c>
       <c r="W1">
         <v>2038</v>
       </c>
-      <c r="X1" s="44">
+      <c r="X1" s="23">
         <v>2039</v>
       </c>
       <c r="Y1">
         <v>2040</v>
       </c>
-      <c r="Z1" s="44">
+      <c r="Z1" s="23">
         <v>2041</v>
       </c>
       <c r="AA1">
         <v>2042</v>
       </c>
-      <c r="AB1" s="44">
+      <c r="AB1" s="23">
         <v>2043</v>
       </c>
       <c r="AC1">
         <v>2044</v>
       </c>
-      <c r="AD1" s="44">
+      <c r="AD1" s="23">
         <v>2045</v>
       </c>
       <c r="AE1">
         <v>2046</v>
       </c>
-      <c r="AF1" s="44">
+      <c r="AF1" s="23">
         <v>2047</v>
       </c>
       <c r="AG1">
         <v>2048</v>
       </c>
-      <c r="AH1" s="44">
+      <c r="AH1" s="23">
         <v>2049</v>
       </c>
       <c r="AI1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="24">
         <v>0.17907500000000001</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="24">
         <v>0.18271666666666686</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="24">
         <v>0.18635833333333363</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="24">
         <v>0.19</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="24">
         <v>0.1915566666666666</v>
       </c>
-      <c r="G2" s="45">
+      <c r="G2" s="24">
         <v>0.19311333333333325</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="24">
         <v>0.1946699999999999</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="24">
         <v>0.19622666666666655</v>
       </c>
-      <c r="J2" s="45">
+      <c r="J2" s="24">
         <v>0.1977833333333332</v>
       </c>
-      <c r="K2" s="45">
+      <c r="K2" s="24">
         <v>0.19933999999999985</v>
       </c>
-      <c r="L2" s="45">
+      <c r="L2" s="24">
         <v>0.2008966666666665</v>
       </c>
-      <c r="M2" s="45">
+      <c r="M2" s="24">
         <v>0.20245333333333315</v>
       </c>
-      <c r="N2" s="45">
+      <c r="N2" s="24">
         <v>0.2040099999999998</v>
       </c>
-      <c r="O2" s="45">
+      <c r="O2" s="24">
         <v>0.20556666666666645</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="24">
         <v>0.2071233333333331</v>
       </c>
-      <c r="Q2" s="45">
+      <c r="Q2" s="24">
         <v>0.20867999999999975</v>
       </c>
-      <c r="R2" s="45">
+      <c r="R2" s="24">
         <v>0.21023666666666641</v>
       </c>
-      <c r="S2" s="45">
+      <c r="S2" s="24">
         <v>0.21179333333333306</v>
       </c>
-      <c r="T2" s="45">
+      <c r="T2" s="24">
         <v>0.21335000000000015</v>
       </c>
-      <c r="U2" s="45">
+      <c r="U2" s="24">
         <v>0.2149066666666668</v>
       </c>
-      <c r="V2" s="45">
+      <c r="V2" s="24">
         <v>0.21646333333333345</v>
       </c>
-      <c r="W2" s="45">
+      <c r="W2" s="24">
         <v>0.2180200000000001</v>
       </c>
-      <c r="X2" s="45">
+      <c r="X2" s="24">
         <v>0.21957666666666675</v>
       </c>
-      <c r="Y2" s="45">
+      <c r="Y2" s="24">
         <v>0.2211333333333334</v>
       </c>
-      <c r="Z2" s="45">
+      <c r="Z2" s="24">
         <v>0.22269000000000005</v>
       </c>
-      <c r="AA2" s="45">
+      <c r="AA2" s="24">
         <v>0.22424666666666671</v>
       </c>
-      <c r="AB2" s="45">
+      <c r="AB2" s="24">
         <v>0.22580333333333336</v>
       </c>
-      <c r="AC2" s="45">
+      <c r="AC2" s="24">
         <v>0.22736000000000001</v>
       </c>
-      <c r="AD2" s="45">
+      <c r="AD2" s="24">
         <v>0.22891666666666666</v>
       </c>
-      <c r="AE2" s="45">
+      <c r="AE2" s="24">
         <v>0.23047333333333331</v>
       </c>
-      <c r="AF2" s="45">
+      <c r="AF2" s="24">
         <v>0.23202999999999996</v>
       </c>
-      <c r="AG2" s="45">
+      <c r="AG2" s="24">
         <v>0.23358666666666661</v>
       </c>
-      <c r="AH2" s="45">
+      <c r="AH2" s="24">
         <v>0.23514333333333326</v>
       </c>
-      <c r="AI2" s="45">
+      <c r="AI2" s="24">
         <v>0.23669999999999991</v>
       </c>
     </row>
@@ -7787,21 +7821,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:AI19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.73046875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="50"/>
+    <col min="1" max="1" width="25.7265625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>97</v>
       </c>
@@ -7818,279 +7852,279 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" s="50" t="s">
+      <c r="G2" s="28"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="29">
         <v>2012</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="29">
         <v>2017</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="29">
         <v>2022</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="29">
         <v>2027</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="29">
         <v>2032</v>
       </c>
-      <c r="J4" s="50">
+      <c r="J4" s="29">
         <v>2037</v>
       </c>
-      <c r="K4" s="50">
+      <c r="K4" s="29">
         <v>2042</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="29">
         <v>2047</v>
       </c>
-      <c r="M4" s="50">
+      <c r="M4" s="29">
         <v>2052</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="29">
         <v>0.1</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="29">
         <v>0.1</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="29">
         <v>0.1</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="29">
         <v>0.1</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="29">
         <v>0.1</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="29">
         <v>0.1</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="29">
         <v>0.1</v>
       </c>
-      <c r="K5" s="50">
+      <c r="K5" s="29">
         <v>0.1</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="29">
         <v>0.1</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="29">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="54"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32">
         <v>2007</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="29">
         <v>2012</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="29">
         <v>2017</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="29">
         <v>2022</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="29">
         <v>2027</v>
       </c>
-      <c r="I7" s="50">
+      <c r="I7" s="29">
         <v>2032</v>
       </c>
-      <c r="J7" s="50">
+      <c r="J7" s="29">
         <v>2037</v>
       </c>
-      <c r="K7" s="50">
+      <c r="K7" s="29">
         <v>2042</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="29">
         <v>2047</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="29">
         <v>2052</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="54" t="s">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="53">
-        <v>0</v>
-      </c>
-      <c r="E8" s="50">
-        <v>13.202856752754782</v>
-      </c>
-      <c r="F8" s="50">
-        <v>16.876753286770661</v>
-      </c>
-      <c r="G8" s="50">
-        <v>21.785047314389658</v>
-      </c>
-      <c r="H8" s="50">
-        <v>24.266388650305846</v>
-      </c>
-      <c r="I8" s="50">
-        <v>23.096522567676267</v>
-      </c>
-      <c r="J8" s="50">
-        <v>16.825541118826049</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0</v>
-      </c>
-      <c r="L8" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="54" t="s">
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="38">
+        <v>-13.178832113650611</v>
+      </c>
+      <c r="F8" s="38">
+        <v>-16.150921105627482</v>
+      </c>
+      <c r="G8" s="38">
+        <v>-19.756173479569441</v>
+      </c>
+      <c r="H8" s="38">
+        <v>-20.567450033158337</v>
+      </c>
+      <c r="I8" s="38">
+        <v>-18.182205854670414</v>
+      </c>
+      <c r="J8" s="38">
+        <v>-12.518808651542876</v>
+      </c>
+      <c r="K8" s="38">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="53">
-        <v>0</v>
-      </c>
-      <c r="E9" s="50">
-        <v>0</v>
-      </c>
-      <c r="F9" s="50">
-        <v>0</v>
-      </c>
-      <c r="G9" s="50">
-        <v>0</v>
-      </c>
-      <c r="H9" s="50">
-        <v>0</v>
-      </c>
-      <c r="I9" s="50">
-        <v>0</v>
-      </c>
-      <c r="J9" s="50">
-        <v>0</v>
-      </c>
-      <c r="K9" s="50">
-        <v>0</v>
-      </c>
-      <c r="L9" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" s="48"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A11" s="50" t="s">
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="29">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>0</v>
+      </c>
+      <c r="K9" s="29">
+        <v>0</v>
+      </c>
+      <c r="L9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A11" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="29">
         <v>2007</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="29">
         <v>2012</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="29">
         <v>2017</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="29">
         <v>2022</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="29">
         <v>2027</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="29">
         <v>2032</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="29">
         <v>2037</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="29">
         <v>2042</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="29">
         <v>2047</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="50">
-        <v>0</v>
-      </c>
-      <c r="E12" s="50">
-        <v>15.061438230384187</v>
-      </c>
-      <c r="F12" s="50">
-        <v>19.252513446008049</v>
-      </c>
-      <c r="G12" s="50">
-        <v>24.851753723921572</v>
-      </c>
-      <c r="H12" s="50">
-        <v>27.682396361288887</v>
-      </c>
-      <c r="I12" s="50">
-        <v>26.347846871636165</v>
-      </c>
-      <c r="J12" s="50">
-        <v>19.194092081708927</v>
-      </c>
-      <c r="K12" s="50">
-        <v>0</v>
-      </c>
-      <c r="L12" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="38">
+        <v>15.034031614933387</v>
+      </c>
+      <c r="F12" s="38">
+        <v>18.424505025812774</v>
+      </c>
+      <c r="G12" s="38">
+        <v>22.537272963232304</v>
+      </c>
+      <c r="H12" s="38">
+        <v>23.46275385940946</v>
+      </c>
+      <c r="I12" s="38">
+        <v>20.741736087919701</v>
+      </c>
+      <c r="J12" s="38">
+        <v>14.281095883576173</v>
+      </c>
+      <c r="K12" s="29">
+        <v>0</v>
+      </c>
+      <c r="L12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>102</v>
       </c>
@@ -8129,671 +8163,671 @@
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="B15" s="50">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="B15" s="29">
         <v>2017</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="29">
         <v>2018</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="29">
         <v>2019</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="29">
         <v>2020</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="29">
         <v>2021</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="29">
         <v>2022</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="29">
         <v>2023</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="29">
         <v>2024</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="29">
         <v>2025</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="29">
         <v>2026</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="29">
         <v>2027</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="29">
         <v>2028</v>
       </c>
-      <c r="N15" s="50">
+      <c r="N15" s="29">
         <v>2029</v>
       </c>
-      <c r="O15" s="50">
+      <c r="O15" s="29">
         <v>2030</v>
       </c>
-      <c r="P15" s="50">
+      <c r="P15" s="29">
         <v>2031</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="29">
         <v>2032</v>
       </c>
-      <c r="R15" s="50">
+      <c r="R15" s="29">
         <v>2033</v>
       </c>
-      <c r="S15" s="50">
+      <c r="S15" s="29">
         <v>2034</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15" s="29">
         <v>2035</v>
       </c>
-      <c r="U15" s="50">
+      <c r="U15" s="29">
         <v>2036</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15" s="29">
         <v>2037</v>
       </c>
-      <c r="W15" s="50">
+      <c r="W15" s="29">
         <v>2038</v>
       </c>
-      <c r="X15" s="50">
+      <c r="X15" s="29">
         <v>2039</v>
       </c>
-      <c r="Y15" s="50">
+      <c r="Y15" s="29">
         <v>2040</v>
       </c>
-      <c r="Z15" s="50">
+      <c r="Z15" s="29">
         <v>2041</v>
       </c>
-      <c r="AA15" s="50">
+      <c r="AA15" s="29">
         <v>2042</v>
       </c>
-      <c r="AB15" s="50">
+      <c r="AB15" s="29">
         <v>2043</v>
       </c>
-      <c r="AC15" s="50">
+      <c r="AC15" s="29">
         <v>2044</v>
       </c>
-      <c r="AD15" s="50">
+      <c r="AD15" s="29">
         <v>2045</v>
       </c>
-      <c r="AE15" s="50">
+      <c r="AE15" s="29">
         <v>2046</v>
       </c>
-      <c r="AF15" s="50">
+      <c r="AF15" s="29">
         <v>2047</v>
       </c>
-      <c r="AG15" s="50">
+      <c r="AG15" s="29">
         <v>2048</v>
       </c>
-      <c r="AH15" s="50">
+      <c r="AH15" s="29">
         <v>2049</v>
       </c>
-      <c r="AI15" s="50">
+      <c r="AI15" s="29">
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A16" s="50" t="s">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="34">
         <f>TREND($F8:$G8,$F7:$G7,B$15)</f>
-        <v>16.876753286770736</v>
-      </c>
-      <c r="C16" s="55">
+        <v>-16.150921105627503</v>
+      </c>
+      <c r="C16" s="34">
         <f t="shared" ref="C16:G16" si="0">TREND($F8:$G8,$F7:$G7,C$15)</f>
-        <v>17.858412092294429</v>
-      </c>
-      <c r="D16" s="55">
+        <v>-16.871971580415902</v>
+      </c>
+      <c r="D16" s="34">
         <f t="shared" si="0"/>
-        <v>18.840070897818123</v>
-      </c>
-      <c r="E16" s="55">
+        <v>-17.593022055204301</v>
+      </c>
+      <c r="E16" s="34">
         <f t="shared" si="0"/>
-        <v>19.821729703342044</v>
-      </c>
-      <c r="F16" s="55">
+        <v>-18.3140725299927</v>
+      </c>
+      <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>20.803388508865737</v>
-      </c>
-      <c r="G16" s="55">
+        <v>-19.035123004781099</v>
+      </c>
+      <c r="G16" s="34">
         <f t="shared" si="0"/>
-        <v>21.785047314389658</v>
-      </c>
-      <c r="H16" s="50">
+        <v>-19.756173479569497</v>
+      </c>
+      <c r="H16" s="29">
         <f>TREND($G8:$H8,$G7:$H7,H$15)</f>
-        <v>22.281315581572926</v>
-      </c>
-      <c r="I16" s="50">
+        <v>-19.918428790287237</v>
+      </c>
+      <c r="I16" s="29">
         <f>TREND($G8:$H8,$G7:$H7,I$15)</f>
-        <v>22.77758384875608</v>
-      </c>
-      <c r="J16" s="50">
+        <v>-20.080684101004977</v>
+      </c>
+      <c r="J16" s="29">
         <f>TREND($G8:$H8,$G7:$H7,J$15)</f>
-        <v>23.273852115939349</v>
-      </c>
-      <c r="K16" s="50">
+        <v>-20.242939411722773</v>
+      </c>
+      <c r="K16" s="29">
         <f>TREND($G8:$H8,$G7:$H7,K$15)</f>
-        <v>23.770120383122617</v>
-      </c>
-      <c r="L16" s="50">
+        <v>-20.405194722440569</v>
+      </c>
+      <c r="L16" s="29">
         <f>TREND($G8:$H8,$G7:$H7,L$15)</f>
-        <v>24.266388650305885</v>
-      </c>
-      <c r="M16" s="50">
+        <v>-20.567450033158309</v>
+      </c>
+      <c r="M16" s="29">
         <f>TREND($H8:$I8,$H7:$I7,M$15)</f>
-        <v>24.032415433779931</v>
-      </c>
-      <c r="N16" s="50">
+        <v>-20.090401197460778</v>
+      </c>
+      <c r="N16" s="29">
         <f>TREND($H8:$I8,$H7:$I7,N$15)</f>
-        <v>23.798442217253978</v>
-      </c>
-      <c r="O16" s="50">
+        <v>-19.613352361763191</v>
+      </c>
+      <c r="O16" s="29">
         <f>TREND($H8:$I8,$H7:$I7,O$15)</f>
-        <v>23.564469000728081</v>
-      </c>
-      <c r="P16" s="50">
+        <v>-19.136303526065603</v>
+      </c>
+      <c r="P16" s="29">
         <f>TREND($H8:$I8,$H7:$I7,P$15)</f>
-        <v>23.330495784202185</v>
-      </c>
-      <c r="Q16" s="50">
+        <v>-18.659254690368016</v>
+      </c>
+      <c r="Q16" s="29">
         <f>TREND($H8:$I8,$H7:$I7,Q$15)</f>
-        <v>23.096522567676232</v>
-      </c>
-      <c r="R16" s="50">
+        <v>-18.182205854670428</v>
+      </c>
+      <c r="R16" s="29">
         <f>TREND($I8:$J8,$I7:$J7,R$15)</f>
-        <v>21.842326277906068</v>
-      </c>
-      <c r="S16" s="50">
+        <v>-17.049526414044976</v>
+      </c>
+      <c r="S16" s="29">
         <f>TREND($I8:$J8,$I7:$J7,S$15)</f>
-        <v>20.588129988136188</v>
-      </c>
-      <c r="T16" s="50">
+        <v>-15.916846973419524</v>
+      </c>
+      <c r="T16" s="29">
         <f>TREND($I8:$J8,$I7:$J7,T$15)</f>
-        <v>19.333933698366309</v>
-      </c>
-      <c r="U16" s="50">
+        <v>-14.784167532794072</v>
+      </c>
+      <c r="U16" s="29">
         <f>TREND($I8:$J8,$I7:$J7,U$15)</f>
-        <v>18.079737408595975</v>
-      </c>
-      <c r="V16" s="50">
+        <v>-13.651488092168165</v>
+      </c>
+      <c r="V16" s="29">
         <f>TREND($I8:$J8,$I7:$J7,V$15)</f>
-        <v>16.825541118826095</v>
-      </c>
-      <c r="W16" s="50">
+        <v>-12.518808651542713</v>
+      </c>
+      <c r="W16" s="29">
         <f>TREND($J8:$K8,$J7:$K7,W$15)</f>
-        <v>13.460432895060876</v>
-      </c>
-      <c r="X16" s="50">
+        <v>-10.015046921233989</v>
+      </c>
+      <c r="X16" s="29">
         <f t="shared" ref="X16:AA16" si="1">TREND($J8:$K8,$J7:$K7,X$15)</f>
-        <v>10.095324671295202</v>
-      </c>
-      <c r="Y16" s="50">
+        <v>-7.5112851909261735</v>
+      </c>
+      <c r="Y16" s="29">
         <f t="shared" si="1"/>
-        <v>6.730216447530438</v>
-      </c>
-      <c r="Z16" s="50">
+        <v>-5.007523460617449</v>
+      </c>
+      <c r="Z16" s="29">
         <f t="shared" si="1"/>
-        <v>3.3651082237647643</v>
-      </c>
-      <c r="AA16" s="50">
+        <v>-2.5037617303087245</v>
+      </c>
+      <c r="AA16" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="50">
+      <c r="AB16" s="29">
         <f>AA16</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="50">
+      <c r="AC16" s="29">
         <f t="shared" ref="AC16:AI16" si="2">AB16</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="50">
+      <c r="AD16" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="50">
+      <c r="AE16" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="50">
+      <c r="AF16" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="50">
+      <c r="AG16" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH16" s="50">
+      <c r="AH16" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="50">
+      <c r="AI16" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A17" s="50" t="s">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="52">
-        <f>B16*1000000</f>
-        <v>16876753.286770735</v>
-      </c>
-      <c r="C17" s="52">
-        <f t="shared" ref="C17:AI17" si="3">C16*1000000</f>
-        <v>17858412.092294428</v>
-      </c>
-      <c r="D17" s="52">
+      <c r="B17" s="31">
+        <f>-B16*1000000</f>
+        <v>16150921.105627503</v>
+      </c>
+      <c r="C17" s="31">
+        <f t="shared" ref="C17:AI17" si="3">-C16*1000000</f>
+        <v>16871971.580415901</v>
+      </c>
+      <c r="D17" s="31">
         <f t="shared" si="3"/>
-        <v>18840070.897818122</v>
-      </c>
-      <c r="E17" s="52">
+        <v>17593022.055204302</v>
+      </c>
+      <c r="E17" s="31">
         <f t="shared" si="3"/>
-        <v>19821729.703342043</v>
-      </c>
-      <c r="F17" s="52">
+        <v>18314072.5299927</v>
+      </c>
+      <c r="F17" s="31">
         <f t="shared" si="3"/>
-        <v>20803388.508865736</v>
-      </c>
-      <c r="G17" s="52">
+        <v>19035123.004781097</v>
+      </c>
+      <c r="G17" s="31">
         <f t="shared" si="3"/>
-        <v>21785047.314389657</v>
-      </c>
-      <c r="H17" s="52">
+        <v>19756173.479569498</v>
+      </c>
+      <c r="H17" s="31">
         <f t="shared" si="3"/>
-        <v>22281315.581572928</v>
-      </c>
-      <c r="I17" s="52">
+        <v>19918428.790287238</v>
+      </c>
+      <c r="I17" s="31">
         <f t="shared" si="3"/>
-        <v>22777583.848756079</v>
-      </c>
-      <c r="J17" s="52">
+        <v>20080684.101004977</v>
+      </c>
+      <c r="J17" s="31">
         <f t="shared" si="3"/>
-        <v>23273852.115939349</v>
-      </c>
-      <c r="K17" s="52">
+        <v>20242939.411722772</v>
+      </c>
+      <c r="K17" s="31">
         <f t="shared" si="3"/>
-        <v>23770120.383122616</v>
-      </c>
-      <c r="L17" s="52">
+        <v>20405194.722440571</v>
+      </c>
+      <c r="L17" s="31">
         <f t="shared" si="3"/>
-        <v>24266388.650305886</v>
-      </c>
-      <c r="M17" s="52">
+        <v>20567450.03315831</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="3"/>
-        <v>24032415.433779933</v>
-      </c>
-      <c r="N17" s="52">
+        <v>20090401.197460778</v>
+      </c>
+      <c r="N17" s="31">
         <f t="shared" si="3"/>
-        <v>23798442.217253979</v>
-      </c>
-      <c r="O17" s="52">
+        <v>19613352.36176319</v>
+      </c>
+      <c r="O17" s="31">
         <f t="shared" si="3"/>
-        <v>23564469.000728082</v>
-      </c>
-      <c r="P17" s="52">
+        <v>19136303.526065603</v>
+      </c>
+      <c r="P17" s="31">
         <f t="shared" si="3"/>
-        <v>23330495.784202185</v>
-      </c>
-      <c r="Q17" s="52">
+        <v>18659254.690368015</v>
+      </c>
+      <c r="Q17" s="31">
         <f t="shared" si="3"/>
-        <v>23096522.567676231</v>
-      </c>
-      <c r="R17" s="52">
+        <v>18182205.854670428</v>
+      </c>
+      <c r="R17" s="31">
         <f t="shared" si="3"/>
-        <v>21842326.277906068</v>
-      </c>
-      <c r="S17" s="52">
+        <v>17049526.414044976</v>
+      </c>
+      <c r="S17" s="31">
         <f t="shared" si="3"/>
-        <v>20588129.988136187</v>
-      </c>
-      <c r="T17" s="52">
+        <v>15916846.973419525</v>
+      </c>
+      <c r="T17" s="31">
         <f t="shared" si="3"/>
-        <v>19333933.69836631</v>
-      </c>
-      <c r="U17" s="52">
+        <v>14784167.532794071</v>
+      </c>
+      <c r="U17" s="31">
         <f t="shared" si="3"/>
-        <v>18079737.408595975</v>
-      </c>
-      <c r="V17" s="52">
+        <v>13651488.092168165</v>
+      </c>
+      <c r="V17" s="31">
         <f t="shared" si="3"/>
-        <v>16825541.118826095</v>
-      </c>
-      <c r="W17" s="52">
+        <v>12518808.651542714</v>
+      </c>
+      <c r="W17" s="31">
         <f t="shared" si="3"/>
-        <v>13460432.895060876</v>
-      </c>
-      <c r="X17" s="52">
+        <v>10015046.921233989</v>
+      </c>
+      <c r="X17" s="31">
         <f t="shared" si="3"/>
-        <v>10095324.671295201</v>
-      </c>
-      <c r="Y17" s="52">
+        <v>7511285.1909261737</v>
+      </c>
+      <c r="Y17" s="31">
         <f t="shared" si="3"/>
-        <v>6730216.4475304382</v>
-      </c>
-      <c r="Z17" s="52">
+        <v>5007523.4606174491</v>
+      </c>
+      <c r="Z17" s="31">
         <f t="shared" si="3"/>
-        <v>3365108.2237647641</v>
-      </c>
-      <c r="AA17" s="52">
+        <v>2503761.7303087246</v>
+      </c>
+      <c r="AA17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="52">
+      <c r="AB17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="52">
+      <c r="AC17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="52">
+      <c r="AD17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="52">
+      <c r="AE17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="52">
+      <c r="AF17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="52">
+      <c r="AG17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH17" s="52">
+      <c r="AH17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="52">
+      <c r="AI17" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A18" s="50" t="s">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,B$15)</f>
-        <v>19.252513446007924</v>
-      </c>
-      <c r="C18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,C$15)</f>
-        <v>20.372361501590603</v>
-      </c>
-      <c r="D18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,D$15)</f>
-        <v>21.492209557173283</v>
-      </c>
-      <c r="E18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,E$15)</f>
-        <v>22.612057612755962</v>
-      </c>
-      <c r="F18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,F$15)</f>
-        <v>23.731905668338641</v>
-      </c>
-      <c r="G18" s="55">
-        <f>TREND($F12:$G12,$F11:$G11,G$15)</f>
-        <v>24.851753723921775</v>
-      </c>
-      <c r="H18" s="50">
+      <c r="B18" s="34">
+        <f t="shared" ref="B18:G18" si="4">TREND($F12:$G12,$F11:$G11,B$15)</f>
+        <v>18.424505025812778</v>
+      </c>
+      <c r="C18" s="34">
+        <f t="shared" si="4"/>
+        <v>19.247058613296758</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" si="4"/>
+        <v>20.069612200780739</v>
+      </c>
+      <c r="E18" s="34">
+        <f t="shared" si="4"/>
+        <v>20.892165788264492</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="4"/>
+        <v>21.714719375748473</v>
+      </c>
+      <c r="G18" s="34">
+        <f t="shared" si="4"/>
+        <v>22.537272963232454</v>
+      </c>
+      <c r="H18" s="29">
         <f>TREND($G12:$H12,$G11:$H11,H$15)</f>
-        <v>25.417882251394985</v>
-      </c>
-      <c r="I18" s="50">
+        <v>22.722369142467699</v>
+      </c>
+      <c r="I18" s="29">
         <f>TREND($G12:$H12,$G11:$H11,I$15)</f>
-        <v>25.984010778868424</v>
-      </c>
-      <c r="J18" s="50">
+        <v>22.907465321703114</v>
+      </c>
+      <c r="J18" s="29">
         <f>TREND($G12:$H12,$G11:$H11,J$15)</f>
-        <v>26.550139306342089</v>
-      </c>
-      <c r="K18" s="50">
+        <v>23.092561500938587</v>
+      </c>
+      <c r="K18" s="29">
         <f>TREND($G12:$H12,$G11:$H11,K$15)</f>
-        <v>27.116267833815527</v>
-      </c>
-      <c r="L18" s="50">
+        <v>23.277657680174002</v>
+      </c>
+      <c r="L18" s="29">
         <f>TREND($G12:$H12,$G11:$H11,L$15)</f>
-        <v>27.682396361288966</v>
-      </c>
-      <c r="M18" s="50">
+        <v>23.462753859409418</v>
+      </c>
+      <c r="M18" s="29">
         <f>TREND($H12:$I12,$H11:$I11,M$15)</f>
-        <v>27.41548646335832</v>
-      </c>
-      <c r="N18" s="50">
+        <v>22.918550305111467</v>
+      </c>
+      <c r="N18" s="29">
         <f>TREND($H12:$I12,$H11:$I11,N$15)</f>
-        <v>27.148576565427788</v>
-      </c>
-      <c r="O18" s="50">
+        <v>22.374346750813629</v>
+      </c>
+      <c r="O18" s="29">
         <f>TREND($H12:$I12,$H11:$I11,O$15)</f>
-        <v>26.881666667497257</v>
-      </c>
-      <c r="P18" s="50">
+        <v>21.830143196515564</v>
+      </c>
+      <c r="P18" s="29">
         <f>TREND($H12:$I12,$H11:$I11,P$15)</f>
-        <v>26.614756769566725</v>
-      </c>
-      <c r="Q18" s="50">
+        <v>21.285939642217727</v>
+      </c>
+      <c r="Q18" s="29">
         <f>TREND($H12:$I12,$H11:$I11,Q$15)</f>
-        <v>26.347846871636193</v>
-      </c>
-      <c r="R18" s="50">
+        <v>20.741736087919662</v>
+      </c>
+      <c r="R18" s="29">
         <f>TREND($I12:$J12,$I11:$J11,R$15)</f>
-        <v>24.917095913650883</v>
-      </c>
-      <c r="S18" s="50">
+        <v>19.449608047051242</v>
+      </c>
+      <c r="S18" s="29">
         <f>TREND($I12:$J12,$I11:$J11,S$15)</f>
-        <v>23.486344955665118</v>
-      </c>
-      <c r="T18" s="50">
+        <v>18.157480006182595</v>
+      </c>
+      <c r="T18" s="29">
         <f>TREND($I12:$J12,$I11:$J11,T$15)</f>
-        <v>22.055593997679807</v>
-      </c>
-      <c r="U18" s="50">
+        <v>16.865351965313948</v>
+      </c>
+      <c r="U18" s="29">
         <f>TREND($I12:$J12,$I11:$J11,U$15)</f>
-        <v>20.624843039694497</v>
-      </c>
-      <c r="V18" s="50">
+        <v>15.573223924445301</v>
+      </c>
+      <c r="V18" s="29">
         <f>TREND($I12:$J12,$I11:$J11,V$15)</f>
-        <v>19.194092081708732</v>
-      </c>
-      <c r="W18" s="50">
+        <v>14.281095883576199</v>
+      </c>
+      <c r="W18" s="29">
         <f>TREND($J12:$K12,$J11:$K11,W$15)</f>
-        <v>15.35527366536644</v>
-      </c>
-      <c r="X18" s="50">
+        <v>11.424876706861141</v>
+      </c>
+      <c r="X18" s="29">
         <f>TREND($J12:$K12,$J11:$K11,X$15)</f>
-        <v>11.516455249025057</v>
-      </c>
-      <c r="Y18" s="50">
+        <v>8.5686575301460834</v>
+      </c>
+      <c r="Y18" s="29">
         <f>TREND($J12:$K12,$J11:$K11,Y$15)</f>
-        <v>7.6776368326836746</v>
-      </c>
-      <c r="Z18" s="50">
+        <v>5.7124383534310255</v>
+      </c>
+      <c r="Z18" s="29">
         <f>TREND($J12:$K12,$J11:$K11,Z$15)</f>
-        <v>3.8388184163413825</v>
-      </c>
-      <c r="AA18" s="50">
+        <v>2.856219176715058</v>
+      </c>
+      <c r="AA18" s="29">
         <f>TREND($J12:$K12,$J11:$K11,AA$15)</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="50">
-        <f t="shared" ref="AB18:AI18" si="4">AA18</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A19" s="50" t="s">
+      <c r="AB18" s="29">
+        <f t="shared" ref="AB18:AI18" si="5">AA18</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="52">
+      <c r="B19" s="31">
         <f>B18*1000</f>
-        <v>19252.513446007924</v>
-      </c>
-      <c r="C19" s="52">
-        <f t="shared" ref="C19:AI19" si="5">C18*1000</f>
-        <v>20372.361501590603</v>
-      </c>
-      <c r="D19" s="52">
-        <f t="shared" si="5"/>
-        <v>21492.209557173283</v>
-      </c>
-      <c r="E19" s="52">
-        <f t="shared" si="5"/>
-        <v>22612.057612755962</v>
-      </c>
-      <c r="F19" s="52">
-        <f t="shared" si="5"/>
-        <v>23731.905668338641</v>
-      </c>
-      <c r="G19" s="52">
-        <f t="shared" si="5"/>
-        <v>24851.753723921775</v>
-      </c>
-      <c r="H19" s="52">
-        <f t="shared" si="5"/>
-        <v>25417.882251394985</v>
-      </c>
-      <c r="I19" s="52">
-        <f t="shared" si="5"/>
-        <v>25984.010778868425</v>
-      </c>
-      <c r="J19" s="52">
-        <f t="shared" si="5"/>
-        <v>26550.139306342091</v>
-      </c>
-      <c r="K19" s="52">
-        <f t="shared" si="5"/>
-        <v>27116.267833815527</v>
-      </c>
-      <c r="L19" s="52">
-        <f t="shared" si="5"/>
-        <v>27682.396361288964</v>
-      </c>
-      <c r="M19" s="52">
-        <f t="shared" si="5"/>
-        <v>27415.48646335832</v>
-      </c>
-      <c r="N19" s="52">
-        <f t="shared" si="5"/>
-        <v>27148.576565427789</v>
-      </c>
-      <c r="O19" s="52">
-        <f t="shared" si="5"/>
-        <v>26881.666667497258</v>
-      </c>
-      <c r="P19" s="52">
-        <f t="shared" si="5"/>
-        <v>26614.756769566724</v>
-      </c>
-      <c r="Q19" s="52">
-        <f t="shared" si="5"/>
-        <v>26347.846871636193</v>
-      </c>
-      <c r="R19" s="52">
-        <f t="shared" si="5"/>
-        <v>24917.095913650883</v>
-      </c>
-      <c r="S19" s="52">
-        <f t="shared" si="5"/>
-        <v>23486.344955665118</v>
-      </c>
-      <c r="T19" s="52">
-        <f t="shared" si="5"/>
-        <v>22055.593997679807</v>
-      </c>
-      <c r="U19" s="52">
-        <f t="shared" si="5"/>
-        <v>20624.843039694497</v>
-      </c>
-      <c r="V19" s="52">
-        <f t="shared" si="5"/>
-        <v>19194.092081708732</v>
-      </c>
-      <c r="W19" s="52">
-        <f t="shared" si="5"/>
-        <v>15355.27366536644</v>
-      </c>
-      <c r="X19" s="52">
-        <f t="shared" si="5"/>
-        <v>11516.455249025057</v>
-      </c>
-      <c r="Y19" s="52">
-        <f t="shared" si="5"/>
-        <v>7677.6368326836746</v>
-      </c>
-      <c r="Z19" s="52">
-        <f t="shared" si="5"/>
-        <v>3838.8184163413825</v>
-      </c>
-      <c r="AA19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="52">
-        <f t="shared" si="5"/>
+        <v>18424.505025812778</v>
+      </c>
+      <c r="C19" s="31">
+        <f t="shared" ref="C19:AI19" si="6">C18*1000</f>
+        <v>19247.058613296758</v>
+      </c>
+      <c r="D19" s="31">
+        <f t="shared" si="6"/>
+        <v>20069.612200780739</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="6"/>
+        <v>20892.165788264494</v>
+      </c>
+      <c r="F19" s="31">
+        <f t="shared" si="6"/>
+        <v>21714.719375748471</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="6"/>
+        <v>22537.272963232455</v>
+      </c>
+      <c r="H19" s="31">
+        <f t="shared" si="6"/>
+        <v>22722.369142467698</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="6"/>
+        <v>22907.465321703115</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="6"/>
+        <v>23092.561500938587</v>
+      </c>
+      <c r="K19" s="31">
+        <f t="shared" si="6"/>
+        <v>23277.657680174001</v>
+      </c>
+      <c r="L19" s="31">
+        <f t="shared" si="6"/>
+        <v>23462.753859409419</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="6"/>
+        <v>22918.550305111465</v>
+      </c>
+      <c r="N19" s="31">
+        <f t="shared" si="6"/>
+        <v>22374.346750813631</v>
+      </c>
+      <c r="O19" s="31">
+        <f t="shared" si="6"/>
+        <v>21830.143196515564</v>
+      </c>
+      <c r="P19" s="31">
+        <f t="shared" si="6"/>
+        <v>21285.939642217727</v>
+      </c>
+      <c r="Q19" s="31">
+        <f t="shared" si="6"/>
+        <v>20741.736087919664</v>
+      </c>
+      <c r="R19" s="31">
+        <f t="shared" si="6"/>
+        <v>19449.608047051242</v>
+      </c>
+      <c r="S19" s="31">
+        <f t="shared" si="6"/>
+        <v>18157.480006182595</v>
+      </c>
+      <c r="T19" s="31">
+        <f t="shared" si="6"/>
+        <v>16865.351965313948</v>
+      </c>
+      <c r="U19" s="31">
+        <f t="shared" si="6"/>
+        <v>15573.223924445301</v>
+      </c>
+      <c r="V19" s="31">
+        <f t="shared" si="6"/>
+        <v>14281.095883576199</v>
+      </c>
+      <c r="W19" s="31">
+        <f t="shared" si="6"/>
+        <v>11424.876706861141</v>
+      </c>
+      <c r="X19" s="31">
+        <f t="shared" si="6"/>
+        <v>8568.6575301460834</v>
+      </c>
+      <c r="Y19" s="31">
+        <f t="shared" si="6"/>
+        <v>5712.4383534310255</v>
+      </c>
+      <c r="Z19" s="31">
+        <f t="shared" si="6"/>
+        <v>2856.219176715058</v>
+      </c>
+      <c r="AA19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="31">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8803,7 +8837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8813,13 +8847,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -8926,7 +8960,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -9033,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -9140,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -9247,7 +9281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -9354,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9461,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -9602,7 +9636,7 @@
         <v>12065945.841560068</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -9709,7 +9743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -9816,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9923,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10030,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10137,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -10244,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -10351,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -10458,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -10565,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -10678,7 +10712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10688,13 +10722,13 @@
       <selection activeCell="B15" sqref="B15:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -10801,7 +10835,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -10908,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -11015,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -11122,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -11229,7 +11263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -11336,7 +11370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -11477,7 +11511,7 @@
         <v>11236573.954997856</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -11584,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -11691,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -11798,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -11905,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -12012,7 +12046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12119,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -12226,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -12333,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -12440,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -12553,24 +12587,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AI11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="35" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="35" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -12677,7 +12710,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -12784,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12891,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -12998,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -13105,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -13212,7 +13245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -13353,7 +13386,7 @@
         <v>69907559.38967295</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -13460,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -13567,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -13674,109 +13707,109 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="3">
         <f>'Back up generators'!B17</f>
-        <v>16876753.286770735</v>
+        <v>16150921.105627503</v>
       </c>
       <c r="C11" s="3">
         <f>'Back up generators'!C17</f>
-        <v>17858412.092294428</v>
+        <v>16871971.580415901</v>
       </c>
       <c r="D11" s="3">
         <f>'Back up generators'!D17</f>
-        <v>18840070.897818122</v>
+        <v>17593022.055204302</v>
       </c>
       <c r="E11" s="3">
         <f>'Back up generators'!E17</f>
-        <v>19821729.703342043</v>
+        <v>18314072.5299927</v>
       </c>
       <c r="F11" s="3">
         <f>'Back up generators'!F17</f>
-        <v>20803388.508865736</v>
+        <v>19035123.004781097</v>
       </c>
       <c r="G11" s="3">
         <f>'Back up generators'!G17</f>
-        <v>21785047.314389657</v>
+        <v>19756173.479569498</v>
       </c>
       <c r="H11" s="3">
         <f>'Back up generators'!H17</f>
-        <v>22281315.581572928</v>
+        <v>19918428.790287238</v>
       </c>
       <c r="I11" s="3">
         <f>'Back up generators'!I17</f>
-        <v>22777583.848756079</v>
+        <v>20080684.101004977</v>
       </c>
       <c r="J11" s="3">
         <f>'Back up generators'!J17</f>
-        <v>23273852.115939349</v>
+        <v>20242939.411722772</v>
       </c>
       <c r="K11" s="3">
         <f>'Back up generators'!K17</f>
-        <v>23770120.383122616</v>
+        <v>20405194.722440571</v>
       </c>
       <c r="L11" s="3">
         <f>'Back up generators'!L17</f>
-        <v>24266388.650305886</v>
+        <v>20567450.03315831</v>
       </c>
       <c r="M11" s="3">
         <f>'Back up generators'!M17</f>
-        <v>24032415.433779933</v>
+        <v>20090401.197460778</v>
       </c>
       <c r="N11" s="3">
         <f>'Back up generators'!N17</f>
-        <v>23798442.217253979</v>
+        <v>19613352.36176319</v>
       </c>
       <c r="O11" s="3">
         <f>'Back up generators'!O17</f>
-        <v>23564469.000728082</v>
+        <v>19136303.526065603</v>
       </c>
       <c r="P11" s="3">
         <f>'Back up generators'!P17</f>
-        <v>23330495.784202185</v>
+        <v>18659254.690368015</v>
       </c>
       <c r="Q11" s="3">
         <f>'Back up generators'!Q17</f>
-        <v>23096522.567676231</v>
+        <v>18182205.854670428</v>
       </c>
       <c r="R11" s="3">
         <f>'Back up generators'!R17</f>
-        <v>21842326.277906068</v>
+        <v>17049526.414044976</v>
       </c>
       <c r="S11" s="3">
         <f>'Back up generators'!S17</f>
-        <v>20588129.988136187</v>
+        <v>15916846.973419525</v>
       </c>
       <c r="T11" s="3">
         <f>'Back up generators'!T17</f>
-        <v>19333933.69836631</v>
+        <v>14784167.532794071</v>
       </c>
       <c r="U11" s="3">
         <f>'Back up generators'!U17</f>
-        <v>18079737.408595975</v>
+        <v>13651488.092168165</v>
       </c>
       <c r="V11" s="3">
         <f>'Back up generators'!V17</f>
-        <v>16825541.118826095</v>
+        <v>12518808.651542714</v>
       </c>
       <c r="W11" s="3">
         <f>'Back up generators'!W17</f>
-        <v>13460432.895060876</v>
+        <v>10015046.921233989</v>
       </c>
       <c r="X11" s="3">
         <f>'Back up generators'!X17</f>
-        <v>10095324.671295201</v>
+        <v>7511285.1909261737</v>
       </c>
       <c r="Y11" s="3">
         <f>'Back up generators'!Y17</f>
-        <v>6730216.4475304382</v>
+        <v>5007523.4606174491</v>
       </c>
       <c r="Z11" s="3">
         <f>'Back up generators'!Z17</f>
-        <v>3365108.2237647641</v>
+        <v>2503761.7303087246</v>
       </c>
       <c r="AA11" s="3">
         <f>'Back up generators'!AA17</f>
@@ -13815,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -13922,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -14029,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -14136,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -14243,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -14350,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -14463,23 +14496,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:AI17"/>
+      <selection activeCell="B2" sqref="B2:AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -14586,7 +14619,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -14693,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14800,7 +14833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -14907,7 +14940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -15014,7 +15047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -15121,148 +15154,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="19">
         <f>'India Dist Solar PV Data'!B45</f>
         <v>30.051265405681704</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="19">
         <f>'India Dist Solar PV Data'!C45</f>
         <v>37.032259419234492</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="19">
         <f>'India Dist Solar PV Data'!D45</f>
         <v>85.485932674231435</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="19">
         <f>'India Dist Solar PV Data'!E45</f>
         <v>133.93960592921417</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="19">
         <f>'India Dist Solar PV Data'!F45</f>
         <v>182.39327918421111</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="19">
         <f>'India Dist Solar PV Data'!G45</f>
         <v>230.84695243919384</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="19">
         <f>'India Dist Solar PV Data'!H45</f>
         <v>279.30062569419078</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="19">
         <f>'India Dist Solar PV Data'!I45</f>
         <v>341.9200689749573</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="19">
         <f>'India Dist Solar PV Data'!J45</f>
         <v>404.53951225573803</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="19">
         <f>'India Dist Solar PV Data'!K45</f>
         <v>467.15895553651876</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="19">
         <f>'India Dist Solar PV Data'!L45</f>
         <v>529.77839881729949</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="19">
         <f>'India Dist Solar PV Data'!M45</f>
         <v>592.39784209808022</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="19">
         <f>'India Dist Solar PV Data'!N45</f>
         <v>706.96698811855185</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="19">
         <f>'India Dist Solar PV Data'!O45</f>
         <v>821.53613413902349</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="19">
         <f>'India Dist Solar PV Data'!P45</f>
         <v>936.10528015949512</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="19">
         <f>'India Dist Solar PV Data'!Q45</f>
         <v>1050.6744261799668</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="19">
         <f>'India Dist Solar PV Data'!R45</f>
         <v>1165.24357220041</v>
       </c>
-      <c r="S7" s="40">
+      <c r="S7" s="19">
         <f>'India Dist Solar PV Data'!S45</f>
         <v>1330.7300527478105</v>
       </c>
-      <c r="T7" s="40">
+      <c r="T7" s="19">
         <f>'India Dist Solar PV Data'!T45</f>
         <v>1496.2165332951827</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="19">
         <f>'India Dist Solar PV Data'!U45</f>
         <v>1661.7030138425548</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="19">
         <f>'India Dist Solar PV Data'!V45</f>
         <v>1827.1894943898701</v>
       </c>
-      <c r="W7" s="40">
+      <c r="W7" s="19">
         <f>'India Dist Solar PV Data'!W45</f>
         <v>1992.6759749372422</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="19">
         <f>'India Dist Solar PV Data'!X45</f>
         <v>2299.6688579972897</v>
       </c>
-      <c r="Y7" s="40">
+      <c r="Y7" s="19">
         <f>'India Dist Solar PV Data'!Y45</f>
         <v>2606.6617410574509</v>
       </c>
-      <c r="Z7" s="40">
+      <c r="Z7" s="19">
         <f>'India Dist Solar PV Data'!Z45</f>
         <v>2913.6546241174983</v>
       </c>
-      <c r="AA7" s="40">
+      <c r="AA7" s="19">
         <f>'India Dist Solar PV Data'!AA45</f>
         <v>3220.6475071775458</v>
       </c>
-      <c r="AB7" s="40">
+      <c r="AB7" s="19">
         <f>'India Dist Solar PV Data'!AB45</f>
         <v>3527.6403902377069</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="19">
         <f>'India Dist Solar PV Data'!AC45</f>
         <v>3860.5011728051295</v>
       </c>
-      <c r="AD7" s="40">
+      <c r="AD7" s="19">
         <f>'India Dist Solar PV Data'!AD45</f>
         <v>4193.3619553725521</v>
       </c>
-      <c r="AE7" s="40">
+      <c r="AE7" s="19">
         <f>'India Dist Solar PV Data'!AE45</f>
         <v>4526.222737939861</v>
       </c>
-      <c r="AF7" s="40">
+      <c r="AF7" s="19">
         <f>'India Dist Solar PV Data'!AF45</f>
         <v>4859.0835205072835</v>
       </c>
-      <c r="AG7" s="40">
+      <c r="AG7" s="19">
         <f>'India Dist Solar PV Data'!AG45</f>
         <v>5191.9443030745924</v>
       </c>
-      <c r="AH7" s="40">
+      <c r="AH7" s="19">
         <f>'India Dist Solar PV Data'!AH45</f>
         <v>5524.805085642015</v>
       </c>
-      <c r="AI7" s="40">
+      <c r="AI7" s="19">
         <f>'India Dist Solar PV Data'!AI45</f>
         <v>5857.6658682094376</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -15369,7 +15402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -15476,7 +15509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -15583,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -15690,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -15797,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15904,7 +15937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -16011,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -16118,7 +16151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -16225,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>77</v>
       </c>
